--- a/CoreExcelFiles/P2MasterTemplate6.2.23.xlsx
+++ b/CoreExcelFiles/P2MasterTemplate6.2.23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Automated-Stock-Selector\CoreExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E89D80A-D849-44C2-BD5E-14934BDC5DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED60085E-8816-4C00-9EC8-07C4AF73C8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="47">
   <si>
     <t>Company Name</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>Return on Equity AKA ROE (%, Series 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yearly Low (Series 2)</t>
+  </si>
+  <si>
+    <t>Yearly High (Series 2)</t>
   </si>
 </sst>
 </file>
@@ -317,16 +323,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -614,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:KW2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="JL1" workbookViewId="0">
-      <selection activeCell="KE15" sqref="KE15"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,353 +683,353 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:309" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
       <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
       <c r="Q1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="9"/>
       <c r="BA1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="11"/>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="11"/>
-      <c r="BL1" s="11"/>
-      <c r="BM1" s="11"/>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="11"/>
-      <c r="BP1" s="11"/>
-      <c r="BQ1" s="11"/>
-      <c r="BR1" s="10"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="9"/>
       <c r="BS1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BT1" s="11"/>
-      <c r="BU1" s="11"/>
-      <c r="BV1" s="11"/>
-      <c r="BW1" s="11"/>
-      <c r="BX1" s="11"/>
-      <c r="BY1" s="11"/>
-      <c r="BZ1" s="11"/>
-      <c r="CA1" s="11"/>
-      <c r="CB1" s="11"/>
-      <c r="CC1" s="11"/>
-      <c r="CD1" s="11"/>
-      <c r="CE1" s="11"/>
-      <c r="CF1" s="11"/>
-      <c r="CG1" s="11"/>
-      <c r="CH1" s="11"/>
-      <c r="CI1" s="11"/>
-      <c r="CJ1" s="10"/>
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="9"/>
       <c r="CK1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="CL1" s="11"/>
-      <c r="CM1" s="11"/>
-      <c r="CN1" s="11"/>
-      <c r="CO1" s="11"/>
-      <c r="CP1" s="11"/>
-      <c r="CQ1" s="11"/>
-      <c r="CR1" s="11"/>
-      <c r="CS1" s="11"/>
-      <c r="CT1" s="11"/>
-      <c r="CU1" s="11"/>
-      <c r="CV1" s="11"/>
-      <c r="CW1" s="11"/>
-      <c r="CX1" s="11"/>
-      <c r="CY1" s="11"/>
-      <c r="CZ1" s="11"/>
-      <c r="DA1" s="11"/>
-      <c r="DB1" s="10"/>
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="9"/>
       <c r="DC1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="DD1" s="11"/>
-      <c r="DE1" s="11"/>
-      <c r="DF1" s="11"/>
-      <c r="DG1" s="11"/>
-      <c r="DH1" s="11"/>
-      <c r="DI1" s="11"/>
-      <c r="DJ1" s="11"/>
-      <c r="DK1" s="11"/>
-      <c r="DL1" s="11"/>
-      <c r="DM1" s="11"/>
-      <c r="DN1" s="11"/>
-      <c r="DO1" s="11"/>
-      <c r="DP1" s="11"/>
-      <c r="DQ1" s="11"/>
-      <c r="DR1" s="11"/>
-      <c r="DS1" s="11"/>
-      <c r="DT1" s="10"/>
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="9"/>
       <c r="DU1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="DV1" s="11"/>
-      <c r="DW1" s="11"/>
-      <c r="DX1" s="11"/>
-      <c r="DY1" s="11"/>
-      <c r="DZ1" s="11"/>
-      <c r="EA1" s="11"/>
-      <c r="EB1" s="11"/>
-      <c r="EC1" s="11"/>
-      <c r="ED1" s="11"/>
-      <c r="EE1" s="11"/>
-      <c r="EF1" s="11"/>
-      <c r="EG1" s="11"/>
-      <c r="EH1" s="11"/>
-      <c r="EI1" s="11"/>
-      <c r="EJ1" s="11"/>
-      <c r="EK1" s="11"/>
-      <c r="EL1" s="10"/>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="9"/>
       <c r="EM1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="EN1" s="11"/>
-      <c r="EO1" s="11"/>
-      <c r="EP1" s="11"/>
-      <c r="EQ1" s="11"/>
-      <c r="ER1" s="11"/>
-      <c r="ES1" s="11"/>
-      <c r="ET1" s="11"/>
-      <c r="EU1" s="11"/>
-      <c r="EV1" s="11"/>
-      <c r="EW1" s="11"/>
-      <c r="EX1" s="11"/>
-      <c r="EY1" s="11"/>
-      <c r="EZ1" s="11"/>
-      <c r="FA1" s="11"/>
-      <c r="FB1" s="11"/>
-      <c r="FC1" s="11"/>
-      <c r="FD1" s="10"/>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="9"/>
       <c r="FE1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="FF1" s="11"/>
-      <c r="FG1" s="11"/>
-      <c r="FH1" s="11"/>
-      <c r="FI1" s="11"/>
-      <c r="FJ1" s="11"/>
-      <c r="FK1" s="11"/>
-      <c r="FL1" s="11"/>
-      <c r="FM1" s="11"/>
-      <c r="FN1" s="11"/>
-      <c r="FO1" s="11"/>
-      <c r="FP1" s="11"/>
-      <c r="FQ1" s="11"/>
-      <c r="FR1" s="11"/>
-      <c r="FS1" s="11"/>
-      <c r="FT1" s="11"/>
-      <c r="FU1" s="11"/>
-      <c r="FV1" s="10"/>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="9"/>
       <c r="FW1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="FX1" s="11"/>
-      <c r="FY1" s="11"/>
-      <c r="FZ1" s="11"/>
-      <c r="GA1" s="11"/>
-      <c r="GB1" s="11"/>
-      <c r="GC1" s="11"/>
-      <c r="GD1" s="11"/>
-      <c r="GE1" s="11"/>
-      <c r="GF1" s="11"/>
-      <c r="GG1" s="11"/>
-      <c r="GH1" s="11"/>
-      <c r="GI1" s="11"/>
-      <c r="GJ1" s="11"/>
-      <c r="GK1" s="11"/>
-      <c r="GL1" s="11"/>
-      <c r="GM1" s="11"/>
-      <c r="GN1" s="10"/>
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="9"/>
       <c r="GO1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="GP1" s="11"/>
-      <c r="GQ1" s="11"/>
-      <c r="GR1" s="11"/>
-      <c r="GS1" s="11"/>
-      <c r="GT1" s="11"/>
-      <c r="GU1" s="11"/>
-      <c r="GV1" s="11"/>
-      <c r="GW1" s="11"/>
-      <c r="GX1" s="11"/>
-      <c r="GY1" s="11"/>
-      <c r="GZ1" s="11"/>
-      <c r="HA1" s="11"/>
-      <c r="HB1" s="11"/>
-      <c r="HC1" s="11"/>
-      <c r="HD1" s="11"/>
-      <c r="HE1" s="11"/>
-      <c r="HF1" s="10"/>
+      <c r="GP1" s="8"/>
+      <c r="GQ1" s="8"/>
+      <c r="GR1" s="8"/>
+      <c r="GS1" s="8"/>
+      <c r="GT1" s="8"/>
+      <c r="GU1" s="8"/>
+      <c r="GV1" s="8"/>
+      <c r="GW1" s="8"/>
+      <c r="GX1" s="8"/>
+      <c r="GY1" s="8"/>
+      <c r="GZ1" s="8"/>
+      <c r="HA1" s="8"/>
+      <c r="HB1" s="8"/>
+      <c r="HC1" s="8"/>
+      <c r="HD1" s="8"/>
+      <c r="HE1" s="8"/>
+      <c r="HF1" s="9"/>
       <c r="HG1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="HH1" s="11"/>
-      <c r="HI1" s="11"/>
-      <c r="HJ1" s="11"/>
-      <c r="HK1" s="11"/>
-      <c r="HL1" s="11"/>
-      <c r="HM1" s="11"/>
-      <c r="HN1" s="11"/>
-      <c r="HO1" s="11"/>
-      <c r="HP1" s="11"/>
-      <c r="HQ1" s="11"/>
-      <c r="HR1" s="11"/>
-      <c r="HS1" s="11"/>
-      <c r="HT1" s="11"/>
-      <c r="HU1" s="11"/>
-      <c r="HV1" s="11"/>
-      <c r="HW1" s="11"/>
-      <c r="HX1" s="10"/>
+      <c r="HH1" s="8"/>
+      <c r="HI1" s="8"/>
+      <c r="HJ1" s="8"/>
+      <c r="HK1" s="8"/>
+      <c r="HL1" s="8"/>
+      <c r="HM1" s="8"/>
+      <c r="HN1" s="8"/>
+      <c r="HO1" s="8"/>
+      <c r="HP1" s="8"/>
+      <c r="HQ1" s="8"/>
+      <c r="HR1" s="8"/>
+      <c r="HS1" s="8"/>
+      <c r="HT1" s="8"/>
+      <c r="HU1" s="8"/>
+      <c r="HV1" s="8"/>
+      <c r="HW1" s="8"/>
+      <c r="HX1" s="9"/>
       <c r="HY1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="HZ1" s="11"/>
-      <c r="IA1" s="11"/>
-      <c r="IB1" s="11"/>
-      <c r="IC1" s="11"/>
-      <c r="ID1" s="11"/>
-      <c r="IE1" s="11"/>
-      <c r="IF1" s="11"/>
-      <c r="IG1" s="11"/>
-      <c r="IH1" s="11"/>
-      <c r="II1" s="11"/>
-      <c r="IJ1" s="11"/>
-      <c r="IK1" s="11"/>
-      <c r="IL1" s="11"/>
-      <c r="IM1" s="11"/>
-      <c r="IN1" s="11"/>
-      <c r="IO1" s="11"/>
-      <c r="IP1" s="10"/>
+      <c r="HZ1" s="8"/>
+      <c r="IA1" s="8"/>
+      <c r="IB1" s="8"/>
+      <c r="IC1" s="8"/>
+      <c r="ID1" s="8"/>
+      <c r="IE1" s="8"/>
+      <c r="IF1" s="8"/>
+      <c r="IG1" s="8"/>
+      <c r="IH1" s="8"/>
+      <c r="II1" s="8"/>
+      <c r="IJ1" s="8"/>
+      <c r="IK1" s="8"/>
+      <c r="IL1" s="8"/>
+      <c r="IM1" s="8"/>
+      <c r="IN1" s="8"/>
+      <c r="IO1" s="8"/>
+      <c r="IP1" s="9"/>
       <c r="IQ1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="IR1" s="11"/>
-      <c r="IS1" s="11"/>
-      <c r="IT1" s="11"/>
-      <c r="IU1" s="11"/>
-      <c r="IV1" s="11"/>
-      <c r="IW1" s="11"/>
-      <c r="IX1" s="11"/>
-      <c r="IY1" s="11"/>
-      <c r="IZ1" s="11"/>
-      <c r="JA1" s="11"/>
-      <c r="JB1" s="11"/>
-      <c r="JC1" s="11"/>
-      <c r="JD1" s="11"/>
-      <c r="JE1" s="11"/>
-      <c r="JF1" s="11"/>
-      <c r="JG1" s="11"/>
-      <c r="JH1" s="10"/>
+      <c r="IR1" s="8"/>
+      <c r="IS1" s="8"/>
+      <c r="IT1" s="8"/>
+      <c r="IU1" s="8"/>
+      <c r="IV1" s="8"/>
+      <c r="IW1" s="8"/>
+      <c r="IX1" s="8"/>
+      <c r="IY1" s="8"/>
+      <c r="IZ1" s="8"/>
+      <c r="JA1" s="8"/>
+      <c r="JB1" s="8"/>
+      <c r="JC1" s="8"/>
+      <c r="JD1" s="8"/>
+      <c r="JE1" s="8"/>
+      <c r="JF1" s="8"/>
+      <c r="JG1" s="8"/>
+      <c r="JH1" s="9"/>
       <c r="JI1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="JJ1" s="11"/>
-      <c r="JK1" s="11"/>
-      <c r="JL1" s="11"/>
-      <c r="JM1" s="11"/>
-      <c r="JN1" s="11"/>
-      <c r="JO1" s="11"/>
-      <c r="JP1" s="11"/>
-      <c r="JQ1" s="11"/>
-      <c r="JR1" s="11"/>
-      <c r="JS1" s="11"/>
-      <c r="JT1" s="11"/>
-      <c r="JU1" s="11"/>
-      <c r="JV1" s="11"/>
-      <c r="JW1" s="11"/>
-      <c r="JX1" s="11"/>
-      <c r="JY1" s="11"/>
-      <c r="JZ1" s="10"/>
+      <c r="JJ1" s="8"/>
+      <c r="JK1" s="8"/>
+      <c r="JL1" s="8"/>
+      <c r="JM1" s="8"/>
+      <c r="JN1" s="8"/>
+      <c r="JO1" s="8"/>
+      <c r="JP1" s="8"/>
+      <c r="JQ1" s="8"/>
+      <c r="JR1" s="8"/>
+      <c r="JS1" s="8"/>
+      <c r="JT1" s="8"/>
+      <c r="JU1" s="8"/>
+      <c r="JV1" s="8"/>
+      <c r="JW1" s="8"/>
+      <c r="JX1" s="8"/>
+      <c r="JY1" s="8"/>
+      <c r="JZ1" s="9"/>
       <c r="KA1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="KB1" s="11"/>
-      <c r="KC1" s="11"/>
-      <c r="KD1" s="11"/>
-      <c r="KE1" s="11"/>
-      <c r="KF1" s="11"/>
-      <c r="KG1" s="11"/>
-      <c r="KH1" s="11"/>
-      <c r="KI1" s="11"/>
-      <c r="KJ1" s="11"/>
-      <c r="KK1" s="11"/>
-      <c r="KL1" s="11"/>
-      <c r="KM1" s="11"/>
-      <c r="KN1" s="11"/>
-      <c r="KO1" s="11"/>
-      <c r="KP1" s="11"/>
-      <c r="KQ1" s="11"/>
-      <c r="KR1" s="10"/>
+      <c r="KB1" s="8"/>
+      <c r="KC1" s="8"/>
+      <c r="KD1" s="8"/>
+      <c r="KE1" s="8"/>
+      <c r="KF1" s="8"/>
+      <c r="KG1" s="8"/>
+      <c r="KH1" s="8"/>
+      <c r="KI1" s="8"/>
+      <c r="KJ1" s="8"/>
+      <c r="KK1" s="8"/>
+      <c r="KL1" s="8"/>
+      <c r="KM1" s="8"/>
+      <c r="KN1" s="8"/>
+      <c r="KO1" s="8"/>
+      <c r="KP1" s="8"/>
+      <c r="KQ1" s="8"/>
+      <c r="KR1" s="9"/>
       <c r="KS1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="KT1" s="8"/>
-      <c r="KU1" s="8"/>
-      <c r="KV1" s="8"/>
-      <c r="KW1" s="8"/>
+      <c r="KT1" s="10"/>
+      <c r="KU1" s="10"/>
+      <c r="KV1" s="10"/>
+      <c r="KW1" s="10"/>
     </row>
     <row r="2" spans="1:309" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -1956,6 +1962,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="CK1:DB1"/>
+    <mergeCell ref="DU1:EL1"/>
+    <mergeCell ref="DC1:DT1"/>
     <mergeCell ref="GO1:HF1"/>
     <mergeCell ref="IQ1:JH1"/>
     <mergeCell ref="JI1:JZ1"/>
@@ -1972,9 +1981,6 @@
     <mergeCell ref="FE1:FV1"/>
     <mergeCell ref="FW1:GN1"/>
     <mergeCell ref="HG1:HX1"/>
-    <mergeCell ref="CK1:DB1"/>
-    <mergeCell ref="DU1:EL1"/>
-    <mergeCell ref="DC1:DT1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2047,353 +2053,353 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:309" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
       <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
       <c r="Q1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="10"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="9"/>
       <c r="BA1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="11"/>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="11"/>
-      <c r="BL1" s="11"/>
-      <c r="BM1" s="11"/>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="11"/>
-      <c r="BP1" s="11"/>
-      <c r="BQ1" s="11"/>
-      <c r="BR1" s="10"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="9"/>
       <c r="BS1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BT1" s="11"/>
-      <c r="BU1" s="11"/>
-      <c r="BV1" s="11"/>
-      <c r="BW1" s="11"/>
-      <c r="BX1" s="11"/>
-      <c r="BY1" s="11"/>
-      <c r="BZ1" s="11"/>
-      <c r="CA1" s="11"/>
-      <c r="CB1" s="11"/>
-      <c r="CC1" s="11"/>
-      <c r="CD1" s="11"/>
-      <c r="CE1" s="11"/>
-      <c r="CF1" s="11"/>
-      <c r="CG1" s="11"/>
-      <c r="CH1" s="11"/>
-      <c r="CI1" s="11"/>
-      <c r="CJ1" s="10"/>
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="9"/>
       <c r="CK1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="CL1" s="11"/>
-      <c r="CM1" s="11"/>
-      <c r="CN1" s="11"/>
-      <c r="CO1" s="11"/>
-      <c r="CP1" s="11"/>
-      <c r="CQ1" s="11"/>
-      <c r="CR1" s="11"/>
-      <c r="CS1" s="11"/>
-      <c r="CT1" s="11"/>
-      <c r="CU1" s="11"/>
-      <c r="CV1" s="11"/>
-      <c r="CW1" s="11"/>
-      <c r="CX1" s="11"/>
-      <c r="CY1" s="11"/>
-      <c r="CZ1" s="11"/>
-      <c r="DA1" s="11"/>
-      <c r="DB1" s="10"/>
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="9"/>
       <c r="DC1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="DD1" s="11"/>
-      <c r="DE1" s="11"/>
-      <c r="DF1" s="11"/>
-      <c r="DG1" s="11"/>
-      <c r="DH1" s="11"/>
-      <c r="DI1" s="11"/>
-      <c r="DJ1" s="11"/>
-      <c r="DK1" s="11"/>
-      <c r="DL1" s="11"/>
-      <c r="DM1" s="11"/>
-      <c r="DN1" s="11"/>
-      <c r="DO1" s="11"/>
-      <c r="DP1" s="11"/>
-      <c r="DQ1" s="11"/>
-      <c r="DR1" s="11"/>
-      <c r="DS1" s="11"/>
-      <c r="DT1" s="10"/>
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="9"/>
       <c r="DU1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="DV1" s="11"/>
-      <c r="DW1" s="11"/>
-      <c r="DX1" s="11"/>
-      <c r="DY1" s="11"/>
-      <c r="DZ1" s="11"/>
-      <c r="EA1" s="11"/>
-      <c r="EB1" s="11"/>
-      <c r="EC1" s="11"/>
-      <c r="ED1" s="11"/>
-      <c r="EE1" s="11"/>
-      <c r="EF1" s="11"/>
-      <c r="EG1" s="11"/>
-      <c r="EH1" s="11"/>
-      <c r="EI1" s="11"/>
-      <c r="EJ1" s="11"/>
-      <c r="EK1" s="11"/>
-      <c r="EL1" s="10"/>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="9"/>
       <c r="EM1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="EN1" s="11"/>
-      <c r="EO1" s="11"/>
-      <c r="EP1" s="11"/>
-      <c r="EQ1" s="11"/>
-      <c r="ER1" s="11"/>
-      <c r="ES1" s="11"/>
-      <c r="ET1" s="11"/>
-      <c r="EU1" s="11"/>
-      <c r="EV1" s="11"/>
-      <c r="EW1" s="11"/>
-      <c r="EX1" s="11"/>
-      <c r="EY1" s="11"/>
-      <c r="EZ1" s="11"/>
-      <c r="FA1" s="11"/>
-      <c r="FB1" s="11"/>
-      <c r="FC1" s="11"/>
-      <c r="FD1" s="10"/>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="9"/>
       <c r="FE1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="FF1" s="11"/>
-      <c r="FG1" s="11"/>
-      <c r="FH1" s="11"/>
-      <c r="FI1" s="11"/>
-      <c r="FJ1" s="11"/>
-      <c r="FK1" s="11"/>
-      <c r="FL1" s="11"/>
-      <c r="FM1" s="11"/>
-      <c r="FN1" s="11"/>
-      <c r="FO1" s="11"/>
-      <c r="FP1" s="11"/>
-      <c r="FQ1" s="11"/>
-      <c r="FR1" s="11"/>
-      <c r="FS1" s="11"/>
-      <c r="FT1" s="11"/>
-      <c r="FU1" s="11"/>
-      <c r="FV1" s="10"/>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="9"/>
       <c r="FW1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="FX1" s="11"/>
-      <c r="FY1" s="11"/>
-      <c r="FZ1" s="11"/>
-      <c r="GA1" s="11"/>
-      <c r="GB1" s="11"/>
-      <c r="GC1" s="11"/>
-      <c r="GD1" s="11"/>
-      <c r="GE1" s="11"/>
-      <c r="GF1" s="11"/>
-      <c r="GG1" s="11"/>
-      <c r="GH1" s="11"/>
-      <c r="GI1" s="11"/>
-      <c r="GJ1" s="11"/>
-      <c r="GK1" s="11"/>
-      <c r="GL1" s="11"/>
-      <c r="GM1" s="11"/>
-      <c r="GN1" s="10"/>
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="9"/>
       <c r="GO1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="GP1" s="11"/>
-      <c r="GQ1" s="11"/>
-      <c r="GR1" s="11"/>
-      <c r="GS1" s="11"/>
-      <c r="GT1" s="11"/>
-      <c r="GU1" s="11"/>
-      <c r="GV1" s="11"/>
-      <c r="GW1" s="11"/>
-      <c r="GX1" s="11"/>
-      <c r="GY1" s="11"/>
-      <c r="GZ1" s="11"/>
-      <c r="HA1" s="11"/>
-      <c r="HB1" s="11"/>
-      <c r="HC1" s="11"/>
-      <c r="HD1" s="11"/>
-      <c r="HE1" s="11"/>
-      <c r="HF1" s="10"/>
+      <c r="GP1" s="8"/>
+      <c r="GQ1" s="8"/>
+      <c r="GR1" s="8"/>
+      <c r="GS1" s="8"/>
+      <c r="GT1" s="8"/>
+      <c r="GU1" s="8"/>
+      <c r="GV1" s="8"/>
+      <c r="GW1" s="8"/>
+      <c r="GX1" s="8"/>
+      <c r="GY1" s="8"/>
+      <c r="GZ1" s="8"/>
+      <c r="HA1" s="8"/>
+      <c r="HB1" s="8"/>
+      <c r="HC1" s="8"/>
+      <c r="HD1" s="8"/>
+      <c r="HE1" s="8"/>
+      <c r="HF1" s="9"/>
       <c r="HG1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="HH1" s="11"/>
-      <c r="HI1" s="11"/>
-      <c r="HJ1" s="11"/>
-      <c r="HK1" s="11"/>
-      <c r="HL1" s="11"/>
-      <c r="HM1" s="11"/>
-      <c r="HN1" s="11"/>
-      <c r="HO1" s="11"/>
-      <c r="HP1" s="11"/>
-      <c r="HQ1" s="11"/>
-      <c r="HR1" s="11"/>
-      <c r="HS1" s="11"/>
-      <c r="HT1" s="11"/>
-      <c r="HU1" s="11"/>
-      <c r="HV1" s="11"/>
-      <c r="HW1" s="11"/>
-      <c r="HX1" s="10"/>
+      <c r="HH1" s="8"/>
+      <c r="HI1" s="8"/>
+      <c r="HJ1" s="8"/>
+      <c r="HK1" s="8"/>
+      <c r="HL1" s="8"/>
+      <c r="HM1" s="8"/>
+      <c r="HN1" s="8"/>
+      <c r="HO1" s="8"/>
+      <c r="HP1" s="8"/>
+      <c r="HQ1" s="8"/>
+      <c r="HR1" s="8"/>
+      <c r="HS1" s="8"/>
+      <c r="HT1" s="8"/>
+      <c r="HU1" s="8"/>
+      <c r="HV1" s="8"/>
+      <c r="HW1" s="8"/>
+      <c r="HX1" s="9"/>
       <c r="HY1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="HZ1" s="11"/>
-      <c r="IA1" s="11"/>
-      <c r="IB1" s="11"/>
-      <c r="IC1" s="11"/>
-      <c r="ID1" s="11"/>
-      <c r="IE1" s="11"/>
-      <c r="IF1" s="11"/>
-      <c r="IG1" s="11"/>
-      <c r="IH1" s="11"/>
-      <c r="II1" s="11"/>
-      <c r="IJ1" s="11"/>
-      <c r="IK1" s="11"/>
-      <c r="IL1" s="11"/>
-      <c r="IM1" s="11"/>
-      <c r="IN1" s="11"/>
-      <c r="IO1" s="11"/>
-      <c r="IP1" s="10"/>
+      <c r="HZ1" s="8"/>
+      <c r="IA1" s="8"/>
+      <c r="IB1" s="8"/>
+      <c r="IC1" s="8"/>
+      <c r="ID1" s="8"/>
+      <c r="IE1" s="8"/>
+      <c r="IF1" s="8"/>
+      <c r="IG1" s="8"/>
+      <c r="IH1" s="8"/>
+      <c r="II1" s="8"/>
+      <c r="IJ1" s="8"/>
+      <c r="IK1" s="8"/>
+      <c r="IL1" s="8"/>
+      <c r="IM1" s="8"/>
+      <c r="IN1" s="8"/>
+      <c r="IO1" s="8"/>
+      <c r="IP1" s="9"/>
       <c r="IQ1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="IR1" s="11"/>
-      <c r="IS1" s="11"/>
-      <c r="IT1" s="11"/>
-      <c r="IU1" s="11"/>
-      <c r="IV1" s="11"/>
-      <c r="IW1" s="11"/>
-      <c r="IX1" s="11"/>
-      <c r="IY1" s="11"/>
-      <c r="IZ1" s="11"/>
-      <c r="JA1" s="11"/>
-      <c r="JB1" s="11"/>
-      <c r="JC1" s="11"/>
-      <c r="JD1" s="11"/>
-      <c r="JE1" s="11"/>
-      <c r="JF1" s="11"/>
-      <c r="JG1" s="11"/>
-      <c r="JH1" s="10"/>
+      <c r="IR1" s="8"/>
+      <c r="IS1" s="8"/>
+      <c r="IT1" s="8"/>
+      <c r="IU1" s="8"/>
+      <c r="IV1" s="8"/>
+      <c r="IW1" s="8"/>
+      <c r="IX1" s="8"/>
+      <c r="IY1" s="8"/>
+      <c r="IZ1" s="8"/>
+      <c r="JA1" s="8"/>
+      <c r="JB1" s="8"/>
+      <c r="JC1" s="8"/>
+      <c r="JD1" s="8"/>
+      <c r="JE1" s="8"/>
+      <c r="JF1" s="8"/>
+      <c r="JG1" s="8"/>
+      <c r="JH1" s="9"/>
       <c r="JI1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="JJ1" s="11"/>
-      <c r="JK1" s="11"/>
-      <c r="JL1" s="11"/>
-      <c r="JM1" s="11"/>
-      <c r="JN1" s="11"/>
-      <c r="JO1" s="11"/>
-      <c r="JP1" s="11"/>
-      <c r="JQ1" s="11"/>
-      <c r="JR1" s="11"/>
-      <c r="JS1" s="11"/>
-      <c r="JT1" s="11"/>
-      <c r="JU1" s="11"/>
-      <c r="JV1" s="11"/>
-      <c r="JW1" s="11"/>
-      <c r="JX1" s="11"/>
-      <c r="JY1" s="11"/>
-      <c r="JZ1" s="10"/>
+      <c r="JJ1" s="8"/>
+      <c r="JK1" s="8"/>
+      <c r="JL1" s="8"/>
+      <c r="JM1" s="8"/>
+      <c r="JN1" s="8"/>
+      <c r="JO1" s="8"/>
+      <c r="JP1" s="8"/>
+      <c r="JQ1" s="8"/>
+      <c r="JR1" s="8"/>
+      <c r="JS1" s="8"/>
+      <c r="JT1" s="8"/>
+      <c r="JU1" s="8"/>
+      <c r="JV1" s="8"/>
+      <c r="JW1" s="8"/>
+      <c r="JX1" s="8"/>
+      <c r="JY1" s="8"/>
+      <c r="JZ1" s="9"/>
       <c r="KA1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="KB1" s="11"/>
-      <c r="KC1" s="11"/>
-      <c r="KD1" s="11"/>
-      <c r="KE1" s="11"/>
-      <c r="KF1" s="11"/>
-      <c r="KG1" s="11"/>
-      <c r="KH1" s="11"/>
-      <c r="KI1" s="11"/>
-      <c r="KJ1" s="11"/>
-      <c r="KK1" s="11"/>
-      <c r="KL1" s="11"/>
-      <c r="KM1" s="11"/>
-      <c r="KN1" s="11"/>
-      <c r="KO1" s="11"/>
-      <c r="KP1" s="11"/>
-      <c r="KQ1" s="11"/>
-      <c r="KR1" s="10"/>
+      <c r="KB1" s="8"/>
+      <c r="KC1" s="8"/>
+      <c r="KD1" s="8"/>
+      <c r="KE1" s="8"/>
+      <c r="KF1" s="8"/>
+      <c r="KG1" s="8"/>
+      <c r="KH1" s="8"/>
+      <c r="KI1" s="8"/>
+      <c r="KJ1" s="8"/>
+      <c r="KK1" s="8"/>
+      <c r="KL1" s="8"/>
+      <c r="KM1" s="8"/>
+      <c r="KN1" s="8"/>
+      <c r="KO1" s="8"/>
+      <c r="KP1" s="8"/>
+      <c r="KQ1" s="8"/>
+      <c r="KR1" s="9"/>
       <c r="KS1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="KT1" s="8"/>
-      <c r="KU1" s="8"/>
-      <c r="KV1" s="8"/>
-      <c r="KW1" s="8"/>
+      <c r="KT1" s="10"/>
+      <c r="KU1" s="10"/>
+      <c r="KV1" s="10"/>
+      <c r="KW1" s="10"/>
     </row>
     <row r="2" spans="1:309" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -3326,17 +3332,7 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="KS1:KW1"/>
-    <mergeCell ref="HG1:HX1"/>
-    <mergeCell ref="HY1:IP1"/>
-    <mergeCell ref="IQ1:JH1"/>
-    <mergeCell ref="JI1:JZ1"/>
-    <mergeCell ref="KA1:KR1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:P1"/>
-    <mergeCell ref="Q1:AH1"/>
-    <mergeCell ref="AI1:AZ1"/>
-    <mergeCell ref="BA1:BR1"/>
+    <mergeCell ref="GO1:HF1"/>
     <mergeCell ref="FE1:FV1"/>
     <mergeCell ref="FW1:GN1"/>
     <mergeCell ref="BS1:CJ1"/>
@@ -3344,7 +3340,17 @@
     <mergeCell ref="DC1:DT1"/>
     <mergeCell ref="DU1:EL1"/>
     <mergeCell ref="EM1:FD1"/>
-    <mergeCell ref="GO1:HF1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="Q1:AH1"/>
+    <mergeCell ref="AI1:AZ1"/>
+    <mergeCell ref="BA1:BR1"/>
+    <mergeCell ref="KS1:KW1"/>
+    <mergeCell ref="HG1:HX1"/>
+    <mergeCell ref="HY1:IP1"/>
+    <mergeCell ref="IQ1:JH1"/>
+    <mergeCell ref="JI1:JZ1"/>
+    <mergeCell ref="KA1:KR1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3417,353 +3423,353 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:309" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
       <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
       <c r="Q1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="10"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="9"/>
       <c r="BA1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="11"/>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="11"/>
-      <c r="BL1" s="11"/>
-      <c r="BM1" s="11"/>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="11"/>
-      <c r="BP1" s="11"/>
-      <c r="BQ1" s="11"/>
-      <c r="BR1" s="10"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="9"/>
       <c r="BS1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BT1" s="11"/>
-      <c r="BU1" s="11"/>
-      <c r="BV1" s="11"/>
-      <c r="BW1" s="11"/>
-      <c r="BX1" s="11"/>
-      <c r="BY1" s="11"/>
-      <c r="BZ1" s="11"/>
-      <c r="CA1" s="11"/>
-      <c r="CB1" s="11"/>
-      <c r="CC1" s="11"/>
-      <c r="CD1" s="11"/>
-      <c r="CE1" s="11"/>
-      <c r="CF1" s="11"/>
-      <c r="CG1" s="11"/>
-      <c r="CH1" s="11"/>
-      <c r="CI1" s="11"/>
-      <c r="CJ1" s="10"/>
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="9"/>
       <c r="CK1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="CL1" s="11"/>
-      <c r="CM1" s="11"/>
-      <c r="CN1" s="11"/>
-      <c r="CO1" s="11"/>
-      <c r="CP1" s="11"/>
-      <c r="CQ1" s="11"/>
-      <c r="CR1" s="11"/>
-      <c r="CS1" s="11"/>
-      <c r="CT1" s="11"/>
-      <c r="CU1" s="11"/>
-      <c r="CV1" s="11"/>
-      <c r="CW1" s="11"/>
-      <c r="CX1" s="11"/>
-      <c r="CY1" s="11"/>
-      <c r="CZ1" s="11"/>
-      <c r="DA1" s="11"/>
-      <c r="DB1" s="10"/>
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="9"/>
       <c r="DC1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="DD1" s="11"/>
-      <c r="DE1" s="11"/>
-      <c r="DF1" s="11"/>
-      <c r="DG1" s="11"/>
-      <c r="DH1" s="11"/>
-      <c r="DI1" s="11"/>
-      <c r="DJ1" s="11"/>
-      <c r="DK1" s="11"/>
-      <c r="DL1" s="11"/>
-      <c r="DM1" s="11"/>
-      <c r="DN1" s="11"/>
-      <c r="DO1" s="11"/>
-      <c r="DP1" s="11"/>
-      <c r="DQ1" s="11"/>
-      <c r="DR1" s="11"/>
-      <c r="DS1" s="11"/>
-      <c r="DT1" s="10"/>
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="9"/>
       <c r="DU1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="DV1" s="11"/>
-      <c r="DW1" s="11"/>
-      <c r="DX1" s="11"/>
-      <c r="DY1" s="11"/>
-      <c r="DZ1" s="11"/>
-      <c r="EA1" s="11"/>
-      <c r="EB1" s="11"/>
-      <c r="EC1" s="11"/>
-      <c r="ED1" s="11"/>
-      <c r="EE1" s="11"/>
-      <c r="EF1" s="11"/>
-      <c r="EG1" s="11"/>
-      <c r="EH1" s="11"/>
-      <c r="EI1" s="11"/>
-      <c r="EJ1" s="11"/>
-      <c r="EK1" s="11"/>
-      <c r="EL1" s="10"/>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="9"/>
       <c r="EM1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="EN1" s="11"/>
-      <c r="EO1" s="11"/>
-      <c r="EP1" s="11"/>
-      <c r="EQ1" s="11"/>
-      <c r="ER1" s="11"/>
-      <c r="ES1" s="11"/>
-      <c r="ET1" s="11"/>
-      <c r="EU1" s="11"/>
-      <c r="EV1" s="11"/>
-      <c r="EW1" s="11"/>
-      <c r="EX1" s="11"/>
-      <c r="EY1" s="11"/>
-      <c r="EZ1" s="11"/>
-      <c r="FA1" s="11"/>
-      <c r="FB1" s="11"/>
-      <c r="FC1" s="11"/>
-      <c r="FD1" s="10"/>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="9"/>
       <c r="FE1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="FF1" s="11"/>
-      <c r="FG1" s="11"/>
-      <c r="FH1" s="11"/>
-      <c r="FI1" s="11"/>
-      <c r="FJ1" s="11"/>
-      <c r="FK1" s="11"/>
-      <c r="FL1" s="11"/>
-      <c r="FM1" s="11"/>
-      <c r="FN1" s="11"/>
-      <c r="FO1" s="11"/>
-      <c r="FP1" s="11"/>
-      <c r="FQ1" s="11"/>
-      <c r="FR1" s="11"/>
-      <c r="FS1" s="11"/>
-      <c r="FT1" s="11"/>
-      <c r="FU1" s="11"/>
-      <c r="FV1" s="10"/>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="9"/>
       <c r="FW1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="FX1" s="11"/>
-      <c r="FY1" s="11"/>
-      <c r="FZ1" s="11"/>
-      <c r="GA1" s="11"/>
-      <c r="GB1" s="11"/>
-      <c r="GC1" s="11"/>
-      <c r="GD1" s="11"/>
-      <c r="GE1" s="11"/>
-      <c r="GF1" s="11"/>
-      <c r="GG1" s="11"/>
-      <c r="GH1" s="11"/>
-      <c r="GI1" s="11"/>
-      <c r="GJ1" s="11"/>
-      <c r="GK1" s="11"/>
-      <c r="GL1" s="11"/>
-      <c r="GM1" s="11"/>
-      <c r="GN1" s="10"/>
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="9"/>
       <c r="GO1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="GP1" s="11"/>
-      <c r="GQ1" s="11"/>
-      <c r="GR1" s="11"/>
-      <c r="GS1" s="11"/>
-      <c r="GT1" s="11"/>
-      <c r="GU1" s="11"/>
-      <c r="GV1" s="11"/>
-      <c r="GW1" s="11"/>
-      <c r="GX1" s="11"/>
-      <c r="GY1" s="11"/>
-      <c r="GZ1" s="11"/>
-      <c r="HA1" s="11"/>
-      <c r="HB1" s="11"/>
-      <c r="HC1" s="11"/>
-      <c r="HD1" s="11"/>
-      <c r="HE1" s="11"/>
-      <c r="HF1" s="10"/>
+      <c r="GP1" s="8"/>
+      <c r="GQ1" s="8"/>
+      <c r="GR1" s="8"/>
+      <c r="GS1" s="8"/>
+      <c r="GT1" s="8"/>
+      <c r="GU1" s="8"/>
+      <c r="GV1" s="8"/>
+      <c r="GW1" s="8"/>
+      <c r="GX1" s="8"/>
+      <c r="GY1" s="8"/>
+      <c r="GZ1" s="8"/>
+      <c r="HA1" s="8"/>
+      <c r="HB1" s="8"/>
+      <c r="HC1" s="8"/>
+      <c r="HD1" s="8"/>
+      <c r="HE1" s="8"/>
+      <c r="HF1" s="9"/>
       <c r="HG1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="HH1" s="11"/>
-      <c r="HI1" s="11"/>
-      <c r="HJ1" s="11"/>
-      <c r="HK1" s="11"/>
-      <c r="HL1" s="11"/>
-      <c r="HM1" s="11"/>
-      <c r="HN1" s="11"/>
-      <c r="HO1" s="11"/>
-      <c r="HP1" s="11"/>
-      <c r="HQ1" s="11"/>
-      <c r="HR1" s="11"/>
-      <c r="HS1" s="11"/>
-      <c r="HT1" s="11"/>
-      <c r="HU1" s="11"/>
-      <c r="HV1" s="11"/>
-      <c r="HW1" s="11"/>
-      <c r="HX1" s="10"/>
+      <c r="HH1" s="8"/>
+      <c r="HI1" s="8"/>
+      <c r="HJ1" s="8"/>
+      <c r="HK1" s="8"/>
+      <c r="HL1" s="8"/>
+      <c r="HM1" s="8"/>
+      <c r="HN1" s="8"/>
+      <c r="HO1" s="8"/>
+      <c r="HP1" s="8"/>
+      <c r="HQ1" s="8"/>
+      <c r="HR1" s="8"/>
+      <c r="HS1" s="8"/>
+      <c r="HT1" s="8"/>
+      <c r="HU1" s="8"/>
+      <c r="HV1" s="8"/>
+      <c r="HW1" s="8"/>
+      <c r="HX1" s="9"/>
       <c r="HY1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="HZ1" s="11"/>
-      <c r="IA1" s="11"/>
-      <c r="IB1" s="11"/>
-      <c r="IC1" s="11"/>
-      <c r="ID1" s="11"/>
-      <c r="IE1" s="11"/>
-      <c r="IF1" s="11"/>
-      <c r="IG1" s="11"/>
-      <c r="IH1" s="11"/>
-      <c r="II1" s="11"/>
-      <c r="IJ1" s="11"/>
-      <c r="IK1" s="11"/>
-      <c r="IL1" s="11"/>
-      <c r="IM1" s="11"/>
-      <c r="IN1" s="11"/>
-      <c r="IO1" s="11"/>
-      <c r="IP1" s="10"/>
+      <c r="HZ1" s="8"/>
+      <c r="IA1" s="8"/>
+      <c r="IB1" s="8"/>
+      <c r="IC1" s="8"/>
+      <c r="ID1" s="8"/>
+      <c r="IE1" s="8"/>
+      <c r="IF1" s="8"/>
+      <c r="IG1" s="8"/>
+      <c r="IH1" s="8"/>
+      <c r="II1" s="8"/>
+      <c r="IJ1" s="8"/>
+      <c r="IK1" s="8"/>
+      <c r="IL1" s="8"/>
+      <c r="IM1" s="8"/>
+      <c r="IN1" s="8"/>
+      <c r="IO1" s="8"/>
+      <c r="IP1" s="9"/>
       <c r="IQ1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="IR1" s="11"/>
-      <c r="IS1" s="11"/>
-      <c r="IT1" s="11"/>
-      <c r="IU1" s="11"/>
-      <c r="IV1" s="11"/>
-      <c r="IW1" s="11"/>
-      <c r="IX1" s="11"/>
-      <c r="IY1" s="11"/>
-      <c r="IZ1" s="11"/>
-      <c r="JA1" s="11"/>
-      <c r="JB1" s="11"/>
-      <c r="JC1" s="11"/>
-      <c r="JD1" s="11"/>
-      <c r="JE1" s="11"/>
-      <c r="JF1" s="11"/>
-      <c r="JG1" s="11"/>
-      <c r="JH1" s="10"/>
+      <c r="IR1" s="8"/>
+      <c r="IS1" s="8"/>
+      <c r="IT1" s="8"/>
+      <c r="IU1" s="8"/>
+      <c r="IV1" s="8"/>
+      <c r="IW1" s="8"/>
+      <c r="IX1" s="8"/>
+      <c r="IY1" s="8"/>
+      <c r="IZ1" s="8"/>
+      <c r="JA1" s="8"/>
+      <c r="JB1" s="8"/>
+      <c r="JC1" s="8"/>
+      <c r="JD1" s="8"/>
+      <c r="JE1" s="8"/>
+      <c r="JF1" s="8"/>
+      <c r="JG1" s="8"/>
+      <c r="JH1" s="9"/>
       <c r="JI1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="JJ1" s="11"/>
-      <c r="JK1" s="11"/>
-      <c r="JL1" s="11"/>
-      <c r="JM1" s="11"/>
-      <c r="JN1" s="11"/>
-      <c r="JO1" s="11"/>
-      <c r="JP1" s="11"/>
-      <c r="JQ1" s="11"/>
-      <c r="JR1" s="11"/>
-      <c r="JS1" s="11"/>
-      <c r="JT1" s="11"/>
-      <c r="JU1" s="11"/>
-      <c r="JV1" s="11"/>
-      <c r="JW1" s="11"/>
-      <c r="JX1" s="11"/>
-      <c r="JY1" s="11"/>
-      <c r="JZ1" s="10"/>
+      <c r="JJ1" s="8"/>
+      <c r="JK1" s="8"/>
+      <c r="JL1" s="8"/>
+      <c r="JM1" s="8"/>
+      <c r="JN1" s="8"/>
+      <c r="JO1" s="8"/>
+      <c r="JP1" s="8"/>
+      <c r="JQ1" s="8"/>
+      <c r="JR1" s="8"/>
+      <c r="JS1" s="8"/>
+      <c r="JT1" s="8"/>
+      <c r="JU1" s="8"/>
+      <c r="JV1" s="8"/>
+      <c r="JW1" s="8"/>
+      <c r="JX1" s="8"/>
+      <c r="JY1" s="8"/>
+      <c r="JZ1" s="9"/>
       <c r="KA1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="KB1" s="11"/>
-      <c r="KC1" s="11"/>
-      <c r="KD1" s="11"/>
-      <c r="KE1" s="11"/>
-      <c r="KF1" s="11"/>
-      <c r="KG1" s="11"/>
-      <c r="KH1" s="11"/>
-      <c r="KI1" s="11"/>
-      <c r="KJ1" s="11"/>
-      <c r="KK1" s="11"/>
-      <c r="KL1" s="11"/>
-      <c r="KM1" s="11"/>
-      <c r="KN1" s="11"/>
-      <c r="KO1" s="11"/>
-      <c r="KP1" s="11"/>
-      <c r="KQ1" s="11"/>
-      <c r="KR1" s="10"/>
+      <c r="KB1" s="8"/>
+      <c r="KC1" s="8"/>
+      <c r="KD1" s="8"/>
+      <c r="KE1" s="8"/>
+      <c r="KF1" s="8"/>
+      <c r="KG1" s="8"/>
+      <c r="KH1" s="8"/>
+      <c r="KI1" s="8"/>
+      <c r="KJ1" s="8"/>
+      <c r="KK1" s="8"/>
+      <c r="KL1" s="8"/>
+      <c r="KM1" s="8"/>
+      <c r="KN1" s="8"/>
+      <c r="KO1" s="8"/>
+      <c r="KP1" s="8"/>
+      <c r="KQ1" s="8"/>
+      <c r="KR1" s="9"/>
       <c r="KS1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="KT1" s="8"/>
-      <c r="KU1" s="8"/>
-      <c r="KV1" s="8"/>
-      <c r="KW1" s="8"/>
+      <c r="KT1" s="10"/>
+      <c r="KU1" s="10"/>
+      <c r="KV1" s="10"/>
+      <c r="KW1" s="10"/>
     </row>
     <row r="2" spans="1:309" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -4696,17 +4702,7 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="KS1:KW1"/>
-    <mergeCell ref="HG1:HX1"/>
-    <mergeCell ref="HY1:IP1"/>
-    <mergeCell ref="IQ1:JH1"/>
-    <mergeCell ref="JI1:JZ1"/>
-    <mergeCell ref="KA1:KR1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:P1"/>
-    <mergeCell ref="Q1:AH1"/>
-    <mergeCell ref="AI1:AZ1"/>
-    <mergeCell ref="BA1:BR1"/>
+    <mergeCell ref="GO1:HF1"/>
     <mergeCell ref="FE1:FV1"/>
     <mergeCell ref="FW1:GN1"/>
     <mergeCell ref="BS1:CJ1"/>
@@ -4714,7 +4710,17 @@
     <mergeCell ref="DC1:DT1"/>
     <mergeCell ref="DU1:EL1"/>
     <mergeCell ref="EM1:FD1"/>
-    <mergeCell ref="GO1:HF1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="Q1:AH1"/>
+    <mergeCell ref="AI1:AZ1"/>
+    <mergeCell ref="BA1:BR1"/>
+    <mergeCell ref="KS1:KW1"/>
+    <mergeCell ref="HG1:HX1"/>
+    <mergeCell ref="HY1:IP1"/>
+    <mergeCell ref="IQ1:JH1"/>
+    <mergeCell ref="JI1:JZ1"/>
+    <mergeCell ref="KA1:KR1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4787,353 +4793,353 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:309" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
       <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
       <c r="Q1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="10"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="9"/>
       <c r="BA1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="11"/>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="11"/>
-      <c r="BL1" s="11"/>
-      <c r="BM1" s="11"/>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="11"/>
-      <c r="BP1" s="11"/>
-      <c r="BQ1" s="11"/>
-      <c r="BR1" s="10"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="9"/>
       <c r="BS1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BT1" s="11"/>
-      <c r="BU1" s="11"/>
-      <c r="BV1" s="11"/>
-      <c r="BW1" s="11"/>
-      <c r="BX1" s="11"/>
-      <c r="BY1" s="11"/>
-      <c r="BZ1" s="11"/>
-      <c r="CA1" s="11"/>
-      <c r="CB1" s="11"/>
-      <c r="CC1" s="11"/>
-      <c r="CD1" s="11"/>
-      <c r="CE1" s="11"/>
-      <c r="CF1" s="11"/>
-      <c r="CG1" s="11"/>
-      <c r="CH1" s="11"/>
-      <c r="CI1" s="11"/>
-      <c r="CJ1" s="10"/>
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="9"/>
       <c r="CK1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="CL1" s="11"/>
-      <c r="CM1" s="11"/>
-      <c r="CN1" s="11"/>
-      <c r="CO1" s="11"/>
-      <c r="CP1" s="11"/>
-      <c r="CQ1" s="11"/>
-      <c r="CR1" s="11"/>
-      <c r="CS1" s="11"/>
-      <c r="CT1" s="11"/>
-      <c r="CU1" s="11"/>
-      <c r="CV1" s="11"/>
-      <c r="CW1" s="11"/>
-      <c r="CX1" s="11"/>
-      <c r="CY1" s="11"/>
-      <c r="CZ1" s="11"/>
-      <c r="DA1" s="11"/>
-      <c r="DB1" s="10"/>
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="9"/>
       <c r="DC1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="DD1" s="11"/>
-      <c r="DE1" s="11"/>
-      <c r="DF1" s="11"/>
-      <c r="DG1" s="11"/>
-      <c r="DH1" s="11"/>
-      <c r="DI1" s="11"/>
-      <c r="DJ1" s="11"/>
-      <c r="DK1" s="11"/>
-      <c r="DL1" s="11"/>
-      <c r="DM1" s="11"/>
-      <c r="DN1" s="11"/>
-      <c r="DO1" s="11"/>
-      <c r="DP1" s="11"/>
-      <c r="DQ1" s="11"/>
-      <c r="DR1" s="11"/>
-      <c r="DS1" s="11"/>
-      <c r="DT1" s="10"/>
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="9"/>
       <c r="DU1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="DV1" s="11"/>
-      <c r="DW1" s="11"/>
-      <c r="DX1" s="11"/>
-      <c r="DY1" s="11"/>
-      <c r="DZ1" s="11"/>
-      <c r="EA1" s="11"/>
-      <c r="EB1" s="11"/>
-      <c r="EC1" s="11"/>
-      <c r="ED1" s="11"/>
-      <c r="EE1" s="11"/>
-      <c r="EF1" s="11"/>
-      <c r="EG1" s="11"/>
-      <c r="EH1" s="11"/>
-      <c r="EI1" s="11"/>
-      <c r="EJ1" s="11"/>
-      <c r="EK1" s="11"/>
-      <c r="EL1" s="10"/>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="9"/>
       <c r="EM1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="EN1" s="11"/>
-      <c r="EO1" s="11"/>
-      <c r="EP1" s="11"/>
-      <c r="EQ1" s="11"/>
-      <c r="ER1" s="11"/>
-      <c r="ES1" s="11"/>
-      <c r="ET1" s="11"/>
-      <c r="EU1" s="11"/>
-      <c r="EV1" s="11"/>
-      <c r="EW1" s="11"/>
-      <c r="EX1" s="11"/>
-      <c r="EY1" s="11"/>
-      <c r="EZ1" s="11"/>
-      <c r="FA1" s="11"/>
-      <c r="FB1" s="11"/>
-      <c r="FC1" s="11"/>
-      <c r="FD1" s="10"/>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="9"/>
       <c r="FE1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="FF1" s="11"/>
-      <c r="FG1" s="11"/>
-      <c r="FH1" s="11"/>
-      <c r="FI1" s="11"/>
-      <c r="FJ1" s="11"/>
-      <c r="FK1" s="11"/>
-      <c r="FL1" s="11"/>
-      <c r="FM1" s="11"/>
-      <c r="FN1" s="11"/>
-      <c r="FO1" s="11"/>
-      <c r="FP1" s="11"/>
-      <c r="FQ1" s="11"/>
-      <c r="FR1" s="11"/>
-      <c r="FS1" s="11"/>
-      <c r="FT1" s="11"/>
-      <c r="FU1" s="11"/>
-      <c r="FV1" s="10"/>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="9"/>
       <c r="FW1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="FX1" s="11"/>
-      <c r="FY1" s="11"/>
-      <c r="FZ1" s="11"/>
-      <c r="GA1" s="11"/>
-      <c r="GB1" s="11"/>
-      <c r="GC1" s="11"/>
-      <c r="GD1" s="11"/>
-      <c r="GE1" s="11"/>
-      <c r="GF1" s="11"/>
-      <c r="GG1" s="11"/>
-      <c r="GH1" s="11"/>
-      <c r="GI1" s="11"/>
-      <c r="GJ1" s="11"/>
-      <c r="GK1" s="11"/>
-      <c r="GL1" s="11"/>
-      <c r="GM1" s="11"/>
-      <c r="GN1" s="10"/>
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="9"/>
       <c r="GO1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="GP1" s="11"/>
-      <c r="GQ1" s="11"/>
-      <c r="GR1" s="11"/>
-      <c r="GS1" s="11"/>
-      <c r="GT1" s="11"/>
-      <c r="GU1" s="11"/>
-      <c r="GV1" s="11"/>
-      <c r="GW1" s="11"/>
-      <c r="GX1" s="11"/>
-      <c r="GY1" s="11"/>
-      <c r="GZ1" s="11"/>
-      <c r="HA1" s="11"/>
-      <c r="HB1" s="11"/>
-      <c r="HC1" s="11"/>
-      <c r="HD1" s="11"/>
-      <c r="HE1" s="11"/>
-      <c r="HF1" s="10"/>
+      <c r="GP1" s="8"/>
+      <c r="GQ1" s="8"/>
+      <c r="GR1" s="8"/>
+      <c r="GS1" s="8"/>
+      <c r="GT1" s="8"/>
+      <c r="GU1" s="8"/>
+      <c r="GV1" s="8"/>
+      <c r="GW1" s="8"/>
+      <c r="GX1" s="8"/>
+      <c r="GY1" s="8"/>
+      <c r="GZ1" s="8"/>
+      <c r="HA1" s="8"/>
+      <c r="HB1" s="8"/>
+      <c r="HC1" s="8"/>
+      <c r="HD1" s="8"/>
+      <c r="HE1" s="8"/>
+      <c r="HF1" s="9"/>
       <c r="HG1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="HH1" s="11"/>
-      <c r="HI1" s="11"/>
-      <c r="HJ1" s="11"/>
-      <c r="HK1" s="11"/>
-      <c r="HL1" s="11"/>
-      <c r="HM1" s="11"/>
-      <c r="HN1" s="11"/>
-      <c r="HO1" s="11"/>
-      <c r="HP1" s="11"/>
-      <c r="HQ1" s="11"/>
-      <c r="HR1" s="11"/>
-      <c r="HS1" s="11"/>
-      <c r="HT1" s="11"/>
-      <c r="HU1" s="11"/>
-      <c r="HV1" s="11"/>
-      <c r="HW1" s="11"/>
-      <c r="HX1" s="10"/>
+      <c r="HH1" s="8"/>
+      <c r="HI1" s="8"/>
+      <c r="HJ1" s="8"/>
+      <c r="HK1" s="8"/>
+      <c r="HL1" s="8"/>
+      <c r="HM1" s="8"/>
+      <c r="HN1" s="8"/>
+      <c r="HO1" s="8"/>
+      <c r="HP1" s="8"/>
+      <c r="HQ1" s="8"/>
+      <c r="HR1" s="8"/>
+      <c r="HS1" s="8"/>
+      <c r="HT1" s="8"/>
+      <c r="HU1" s="8"/>
+      <c r="HV1" s="8"/>
+      <c r="HW1" s="8"/>
+      <c r="HX1" s="9"/>
       <c r="HY1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="HZ1" s="11"/>
-      <c r="IA1" s="11"/>
-      <c r="IB1" s="11"/>
-      <c r="IC1" s="11"/>
-      <c r="ID1" s="11"/>
-      <c r="IE1" s="11"/>
-      <c r="IF1" s="11"/>
-      <c r="IG1" s="11"/>
-      <c r="IH1" s="11"/>
-      <c r="II1" s="11"/>
-      <c r="IJ1" s="11"/>
-      <c r="IK1" s="11"/>
-      <c r="IL1" s="11"/>
-      <c r="IM1" s="11"/>
-      <c r="IN1" s="11"/>
-      <c r="IO1" s="11"/>
-      <c r="IP1" s="10"/>
+      <c r="HZ1" s="8"/>
+      <c r="IA1" s="8"/>
+      <c r="IB1" s="8"/>
+      <c r="IC1" s="8"/>
+      <c r="ID1" s="8"/>
+      <c r="IE1" s="8"/>
+      <c r="IF1" s="8"/>
+      <c r="IG1" s="8"/>
+      <c r="IH1" s="8"/>
+      <c r="II1" s="8"/>
+      <c r="IJ1" s="8"/>
+      <c r="IK1" s="8"/>
+      <c r="IL1" s="8"/>
+      <c r="IM1" s="8"/>
+      <c r="IN1" s="8"/>
+      <c r="IO1" s="8"/>
+      <c r="IP1" s="9"/>
       <c r="IQ1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="IR1" s="11"/>
-      <c r="IS1" s="11"/>
-      <c r="IT1" s="11"/>
-      <c r="IU1" s="11"/>
-      <c r="IV1" s="11"/>
-      <c r="IW1" s="11"/>
-      <c r="IX1" s="11"/>
-      <c r="IY1" s="11"/>
-      <c r="IZ1" s="11"/>
-      <c r="JA1" s="11"/>
-      <c r="JB1" s="11"/>
-      <c r="JC1" s="11"/>
-      <c r="JD1" s="11"/>
-      <c r="JE1" s="11"/>
-      <c r="JF1" s="11"/>
-      <c r="JG1" s="11"/>
-      <c r="JH1" s="10"/>
+      <c r="IR1" s="8"/>
+      <c r="IS1" s="8"/>
+      <c r="IT1" s="8"/>
+      <c r="IU1" s="8"/>
+      <c r="IV1" s="8"/>
+      <c r="IW1" s="8"/>
+      <c r="IX1" s="8"/>
+      <c r="IY1" s="8"/>
+      <c r="IZ1" s="8"/>
+      <c r="JA1" s="8"/>
+      <c r="JB1" s="8"/>
+      <c r="JC1" s="8"/>
+      <c r="JD1" s="8"/>
+      <c r="JE1" s="8"/>
+      <c r="JF1" s="8"/>
+      <c r="JG1" s="8"/>
+      <c r="JH1" s="9"/>
       <c r="JI1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="JJ1" s="11"/>
-      <c r="JK1" s="11"/>
-      <c r="JL1" s="11"/>
-      <c r="JM1" s="11"/>
-      <c r="JN1" s="11"/>
-      <c r="JO1" s="11"/>
-      <c r="JP1" s="11"/>
-      <c r="JQ1" s="11"/>
-      <c r="JR1" s="11"/>
-      <c r="JS1" s="11"/>
-      <c r="JT1" s="11"/>
-      <c r="JU1" s="11"/>
-      <c r="JV1" s="11"/>
-      <c r="JW1" s="11"/>
-      <c r="JX1" s="11"/>
-      <c r="JY1" s="11"/>
-      <c r="JZ1" s="10"/>
+      <c r="JJ1" s="8"/>
+      <c r="JK1" s="8"/>
+      <c r="JL1" s="8"/>
+      <c r="JM1" s="8"/>
+      <c r="JN1" s="8"/>
+      <c r="JO1" s="8"/>
+      <c r="JP1" s="8"/>
+      <c r="JQ1" s="8"/>
+      <c r="JR1" s="8"/>
+      <c r="JS1" s="8"/>
+      <c r="JT1" s="8"/>
+      <c r="JU1" s="8"/>
+      <c r="JV1" s="8"/>
+      <c r="JW1" s="8"/>
+      <c r="JX1" s="8"/>
+      <c r="JY1" s="8"/>
+      <c r="JZ1" s="9"/>
       <c r="KA1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="KB1" s="11"/>
-      <c r="KC1" s="11"/>
-      <c r="KD1" s="11"/>
-      <c r="KE1" s="11"/>
-      <c r="KF1" s="11"/>
-      <c r="KG1" s="11"/>
-      <c r="KH1" s="11"/>
-      <c r="KI1" s="11"/>
-      <c r="KJ1" s="11"/>
-      <c r="KK1" s="11"/>
-      <c r="KL1" s="11"/>
-      <c r="KM1" s="11"/>
-      <c r="KN1" s="11"/>
-      <c r="KO1" s="11"/>
-      <c r="KP1" s="11"/>
-      <c r="KQ1" s="11"/>
-      <c r="KR1" s="10"/>
+      <c r="KB1" s="8"/>
+      <c r="KC1" s="8"/>
+      <c r="KD1" s="8"/>
+      <c r="KE1" s="8"/>
+      <c r="KF1" s="8"/>
+      <c r="KG1" s="8"/>
+      <c r="KH1" s="8"/>
+      <c r="KI1" s="8"/>
+      <c r="KJ1" s="8"/>
+      <c r="KK1" s="8"/>
+      <c r="KL1" s="8"/>
+      <c r="KM1" s="8"/>
+      <c r="KN1" s="8"/>
+      <c r="KO1" s="8"/>
+      <c r="KP1" s="8"/>
+      <c r="KQ1" s="8"/>
+      <c r="KR1" s="9"/>
       <c r="KS1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="KT1" s="8"/>
-      <c r="KU1" s="8"/>
-      <c r="KV1" s="8"/>
-      <c r="KW1" s="8"/>
+      <c r="KT1" s="10"/>
+      <c r="KU1" s="10"/>
+      <c r="KV1" s="10"/>
+      <c r="KW1" s="10"/>
     </row>
     <row r="2" spans="1:309" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -6066,17 +6072,7 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="KS1:KW1"/>
-    <mergeCell ref="HG1:HX1"/>
-    <mergeCell ref="HY1:IP1"/>
-    <mergeCell ref="IQ1:JH1"/>
-    <mergeCell ref="JI1:JZ1"/>
-    <mergeCell ref="KA1:KR1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:P1"/>
-    <mergeCell ref="Q1:AH1"/>
-    <mergeCell ref="AI1:AZ1"/>
-    <mergeCell ref="BA1:BR1"/>
+    <mergeCell ref="GO1:HF1"/>
     <mergeCell ref="FW1:GN1"/>
     <mergeCell ref="EM1:FD1"/>
     <mergeCell ref="FE1:FV1"/>
@@ -6084,7 +6080,17 @@
     <mergeCell ref="CK1:DB1"/>
     <mergeCell ref="DC1:DT1"/>
     <mergeCell ref="DU1:EL1"/>
-    <mergeCell ref="GO1:HF1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="Q1:AH1"/>
+    <mergeCell ref="AI1:AZ1"/>
+    <mergeCell ref="BA1:BR1"/>
+    <mergeCell ref="KS1:KW1"/>
+    <mergeCell ref="HG1:HX1"/>
+    <mergeCell ref="HY1:IP1"/>
+    <mergeCell ref="IQ1:JH1"/>
+    <mergeCell ref="JI1:JZ1"/>
+    <mergeCell ref="KA1:KR1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6157,353 +6163,353 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:309" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
       <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
       <c r="Q1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="10"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="9"/>
       <c r="BA1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="11"/>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="11"/>
-      <c r="BL1" s="11"/>
-      <c r="BM1" s="11"/>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="11"/>
-      <c r="BP1" s="11"/>
-      <c r="BQ1" s="11"/>
-      <c r="BR1" s="10"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="9"/>
       <c r="BS1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BT1" s="11"/>
-      <c r="BU1" s="11"/>
-      <c r="BV1" s="11"/>
-      <c r="BW1" s="11"/>
-      <c r="BX1" s="11"/>
-      <c r="BY1" s="11"/>
-      <c r="BZ1" s="11"/>
-      <c r="CA1" s="11"/>
-      <c r="CB1" s="11"/>
-      <c r="CC1" s="11"/>
-      <c r="CD1" s="11"/>
-      <c r="CE1" s="11"/>
-      <c r="CF1" s="11"/>
-      <c r="CG1" s="11"/>
-      <c r="CH1" s="11"/>
-      <c r="CI1" s="11"/>
-      <c r="CJ1" s="10"/>
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="9"/>
       <c r="CK1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="CL1" s="11"/>
-      <c r="CM1" s="11"/>
-      <c r="CN1" s="11"/>
-      <c r="CO1" s="11"/>
-      <c r="CP1" s="11"/>
-      <c r="CQ1" s="11"/>
-      <c r="CR1" s="11"/>
-      <c r="CS1" s="11"/>
-      <c r="CT1" s="11"/>
-      <c r="CU1" s="11"/>
-      <c r="CV1" s="11"/>
-      <c r="CW1" s="11"/>
-      <c r="CX1" s="11"/>
-      <c r="CY1" s="11"/>
-      <c r="CZ1" s="11"/>
-      <c r="DA1" s="11"/>
-      <c r="DB1" s="10"/>
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="9"/>
       <c r="DC1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="DD1" s="11"/>
-      <c r="DE1" s="11"/>
-      <c r="DF1" s="11"/>
-      <c r="DG1" s="11"/>
-      <c r="DH1" s="11"/>
-      <c r="DI1" s="11"/>
-      <c r="DJ1" s="11"/>
-      <c r="DK1" s="11"/>
-      <c r="DL1" s="11"/>
-      <c r="DM1" s="11"/>
-      <c r="DN1" s="11"/>
-      <c r="DO1" s="11"/>
-      <c r="DP1" s="11"/>
-      <c r="DQ1" s="11"/>
-      <c r="DR1" s="11"/>
-      <c r="DS1" s="11"/>
-      <c r="DT1" s="10"/>
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="9"/>
       <c r="DU1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="DV1" s="11"/>
-      <c r="DW1" s="11"/>
-      <c r="DX1" s="11"/>
-      <c r="DY1" s="11"/>
-      <c r="DZ1" s="11"/>
-      <c r="EA1" s="11"/>
-      <c r="EB1" s="11"/>
-      <c r="EC1" s="11"/>
-      <c r="ED1" s="11"/>
-      <c r="EE1" s="11"/>
-      <c r="EF1" s="11"/>
-      <c r="EG1" s="11"/>
-      <c r="EH1" s="11"/>
-      <c r="EI1" s="11"/>
-      <c r="EJ1" s="11"/>
-      <c r="EK1" s="11"/>
-      <c r="EL1" s="10"/>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="9"/>
       <c r="EM1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="EN1" s="11"/>
-      <c r="EO1" s="11"/>
-      <c r="EP1" s="11"/>
-      <c r="EQ1" s="11"/>
-      <c r="ER1" s="11"/>
-      <c r="ES1" s="11"/>
-      <c r="ET1" s="11"/>
-      <c r="EU1" s="11"/>
-      <c r="EV1" s="11"/>
-      <c r="EW1" s="11"/>
-      <c r="EX1" s="11"/>
-      <c r="EY1" s="11"/>
-      <c r="EZ1" s="11"/>
-      <c r="FA1" s="11"/>
-      <c r="FB1" s="11"/>
-      <c r="FC1" s="11"/>
-      <c r="FD1" s="10"/>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="9"/>
       <c r="FE1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="FF1" s="11"/>
-      <c r="FG1" s="11"/>
-      <c r="FH1" s="11"/>
-      <c r="FI1" s="11"/>
-      <c r="FJ1" s="11"/>
-      <c r="FK1" s="11"/>
-      <c r="FL1" s="11"/>
-      <c r="FM1" s="11"/>
-      <c r="FN1" s="11"/>
-      <c r="FO1" s="11"/>
-      <c r="FP1" s="11"/>
-      <c r="FQ1" s="11"/>
-      <c r="FR1" s="11"/>
-      <c r="FS1" s="11"/>
-      <c r="FT1" s="11"/>
-      <c r="FU1" s="11"/>
-      <c r="FV1" s="10"/>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="9"/>
       <c r="FW1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="FX1" s="11"/>
-      <c r="FY1" s="11"/>
-      <c r="FZ1" s="11"/>
-      <c r="GA1" s="11"/>
-      <c r="GB1" s="11"/>
-      <c r="GC1" s="11"/>
-      <c r="GD1" s="11"/>
-      <c r="GE1" s="11"/>
-      <c r="GF1" s="11"/>
-      <c r="GG1" s="11"/>
-      <c r="GH1" s="11"/>
-      <c r="GI1" s="11"/>
-      <c r="GJ1" s="11"/>
-      <c r="GK1" s="11"/>
-      <c r="GL1" s="11"/>
-      <c r="GM1" s="11"/>
-      <c r="GN1" s="10"/>
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="9"/>
       <c r="GO1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="GP1" s="11"/>
-      <c r="GQ1" s="11"/>
-      <c r="GR1" s="11"/>
-      <c r="GS1" s="11"/>
-      <c r="GT1" s="11"/>
-      <c r="GU1" s="11"/>
-      <c r="GV1" s="11"/>
-      <c r="GW1" s="11"/>
-      <c r="GX1" s="11"/>
-      <c r="GY1" s="11"/>
-      <c r="GZ1" s="11"/>
-      <c r="HA1" s="11"/>
-      <c r="HB1" s="11"/>
-      <c r="HC1" s="11"/>
-      <c r="HD1" s="11"/>
-      <c r="HE1" s="11"/>
-      <c r="HF1" s="10"/>
+      <c r="GP1" s="8"/>
+      <c r="GQ1" s="8"/>
+      <c r="GR1" s="8"/>
+      <c r="GS1" s="8"/>
+      <c r="GT1" s="8"/>
+      <c r="GU1" s="8"/>
+      <c r="GV1" s="8"/>
+      <c r="GW1" s="8"/>
+      <c r="GX1" s="8"/>
+      <c r="GY1" s="8"/>
+      <c r="GZ1" s="8"/>
+      <c r="HA1" s="8"/>
+      <c r="HB1" s="8"/>
+      <c r="HC1" s="8"/>
+      <c r="HD1" s="8"/>
+      <c r="HE1" s="8"/>
+      <c r="HF1" s="9"/>
       <c r="HG1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="HH1" s="11"/>
-      <c r="HI1" s="11"/>
-      <c r="HJ1" s="11"/>
-      <c r="HK1" s="11"/>
-      <c r="HL1" s="11"/>
-      <c r="HM1" s="11"/>
-      <c r="HN1" s="11"/>
-      <c r="HO1" s="11"/>
-      <c r="HP1" s="11"/>
-      <c r="HQ1" s="11"/>
-      <c r="HR1" s="11"/>
-      <c r="HS1" s="11"/>
-      <c r="HT1" s="11"/>
-      <c r="HU1" s="11"/>
-      <c r="HV1" s="11"/>
-      <c r="HW1" s="11"/>
-      <c r="HX1" s="10"/>
+      <c r="HH1" s="8"/>
+      <c r="HI1" s="8"/>
+      <c r="HJ1" s="8"/>
+      <c r="HK1" s="8"/>
+      <c r="HL1" s="8"/>
+      <c r="HM1" s="8"/>
+      <c r="HN1" s="8"/>
+      <c r="HO1" s="8"/>
+      <c r="HP1" s="8"/>
+      <c r="HQ1" s="8"/>
+      <c r="HR1" s="8"/>
+      <c r="HS1" s="8"/>
+      <c r="HT1" s="8"/>
+      <c r="HU1" s="8"/>
+      <c r="HV1" s="8"/>
+      <c r="HW1" s="8"/>
+      <c r="HX1" s="9"/>
       <c r="HY1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="HZ1" s="11"/>
-      <c r="IA1" s="11"/>
-      <c r="IB1" s="11"/>
-      <c r="IC1" s="11"/>
-      <c r="ID1" s="11"/>
-      <c r="IE1" s="11"/>
-      <c r="IF1" s="11"/>
-      <c r="IG1" s="11"/>
-      <c r="IH1" s="11"/>
-      <c r="II1" s="11"/>
-      <c r="IJ1" s="11"/>
-      <c r="IK1" s="11"/>
-      <c r="IL1" s="11"/>
-      <c r="IM1" s="11"/>
-      <c r="IN1" s="11"/>
-      <c r="IO1" s="11"/>
-      <c r="IP1" s="10"/>
+      <c r="HZ1" s="8"/>
+      <c r="IA1" s="8"/>
+      <c r="IB1" s="8"/>
+      <c r="IC1" s="8"/>
+      <c r="ID1" s="8"/>
+      <c r="IE1" s="8"/>
+      <c r="IF1" s="8"/>
+      <c r="IG1" s="8"/>
+      <c r="IH1" s="8"/>
+      <c r="II1" s="8"/>
+      <c r="IJ1" s="8"/>
+      <c r="IK1" s="8"/>
+      <c r="IL1" s="8"/>
+      <c r="IM1" s="8"/>
+      <c r="IN1" s="8"/>
+      <c r="IO1" s="8"/>
+      <c r="IP1" s="9"/>
       <c r="IQ1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="IR1" s="11"/>
-      <c r="IS1" s="11"/>
-      <c r="IT1" s="11"/>
-      <c r="IU1" s="11"/>
-      <c r="IV1" s="11"/>
-      <c r="IW1" s="11"/>
-      <c r="IX1" s="11"/>
-      <c r="IY1" s="11"/>
-      <c r="IZ1" s="11"/>
-      <c r="JA1" s="11"/>
-      <c r="JB1" s="11"/>
-      <c r="JC1" s="11"/>
-      <c r="JD1" s="11"/>
-      <c r="JE1" s="11"/>
-      <c r="JF1" s="11"/>
-      <c r="JG1" s="11"/>
-      <c r="JH1" s="10"/>
+      <c r="IR1" s="8"/>
+      <c r="IS1" s="8"/>
+      <c r="IT1" s="8"/>
+      <c r="IU1" s="8"/>
+      <c r="IV1" s="8"/>
+      <c r="IW1" s="8"/>
+      <c r="IX1" s="8"/>
+      <c r="IY1" s="8"/>
+      <c r="IZ1" s="8"/>
+      <c r="JA1" s="8"/>
+      <c r="JB1" s="8"/>
+      <c r="JC1" s="8"/>
+      <c r="JD1" s="8"/>
+      <c r="JE1" s="8"/>
+      <c r="JF1" s="8"/>
+      <c r="JG1" s="8"/>
+      <c r="JH1" s="9"/>
       <c r="JI1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="JJ1" s="11"/>
-      <c r="JK1" s="11"/>
-      <c r="JL1" s="11"/>
-      <c r="JM1" s="11"/>
-      <c r="JN1" s="11"/>
-      <c r="JO1" s="11"/>
-      <c r="JP1" s="11"/>
-      <c r="JQ1" s="11"/>
-      <c r="JR1" s="11"/>
-      <c r="JS1" s="11"/>
-      <c r="JT1" s="11"/>
-      <c r="JU1" s="11"/>
-      <c r="JV1" s="11"/>
-      <c r="JW1" s="11"/>
-      <c r="JX1" s="11"/>
-      <c r="JY1" s="11"/>
-      <c r="JZ1" s="10"/>
+      <c r="JJ1" s="8"/>
+      <c r="JK1" s="8"/>
+      <c r="JL1" s="8"/>
+      <c r="JM1" s="8"/>
+      <c r="JN1" s="8"/>
+      <c r="JO1" s="8"/>
+      <c r="JP1" s="8"/>
+      <c r="JQ1" s="8"/>
+      <c r="JR1" s="8"/>
+      <c r="JS1" s="8"/>
+      <c r="JT1" s="8"/>
+      <c r="JU1" s="8"/>
+      <c r="JV1" s="8"/>
+      <c r="JW1" s="8"/>
+      <c r="JX1" s="8"/>
+      <c r="JY1" s="8"/>
+      <c r="JZ1" s="9"/>
       <c r="KA1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="KB1" s="11"/>
-      <c r="KC1" s="11"/>
-      <c r="KD1" s="11"/>
-      <c r="KE1" s="11"/>
-      <c r="KF1" s="11"/>
-      <c r="KG1" s="11"/>
-      <c r="KH1" s="11"/>
-      <c r="KI1" s="11"/>
-      <c r="KJ1" s="11"/>
-      <c r="KK1" s="11"/>
-      <c r="KL1" s="11"/>
-      <c r="KM1" s="11"/>
-      <c r="KN1" s="11"/>
-      <c r="KO1" s="11"/>
-      <c r="KP1" s="11"/>
-      <c r="KQ1" s="11"/>
-      <c r="KR1" s="10"/>
+      <c r="KB1" s="8"/>
+      <c r="KC1" s="8"/>
+      <c r="KD1" s="8"/>
+      <c r="KE1" s="8"/>
+      <c r="KF1" s="8"/>
+      <c r="KG1" s="8"/>
+      <c r="KH1" s="8"/>
+      <c r="KI1" s="8"/>
+      <c r="KJ1" s="8"/>
+      <c r="KK1" s="8"/>
+      <c r="KL1" s="8"/>
+      <c r="KM1" s="8"/>
+      <c r="KN1" s="8"/>
+      <c r="KO1" s="8"/>
+      <c r="KP1" s="8"/>
+      <c r="KQ1" s="8"/>
+      <c r="KR1" s="9"/>
       <c r="KS1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="KT1" s="8"/>
-      <c r="KU1" s="8"/>
-      <c r="KV1" s="8"/>
-      <c r="KW1" s="8"/>
+      <c r="KT1" s="10"/>
+      <c r="KU1" s="10"/>
+      <c r="KV1" s="10"/>
+      <c r="KW1" s="10"/>
     </row>
     <row r="2" spans="1:309" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -7436,25 +7442,25 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="FE1:FV1"/>
+    <mergeCell ref="FW1:GN1"/>
+    <mergeCell ref="GO1:HF1"/>
+    <mergeCell ref="BS1:CJ1"/>
+    <mergeCell ref="DC1:DT1"/>
+    <mergeCell ref="CK1:DB1"/>
+    <mergeCell ref="DU1:EL1"/>
+    <mergeCell ref="EM1:FD1"/>
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="Q1:AH1"/>
+    <mergeCell ref="AI1:AZ1"/>
+    <mergeCell ref="BA1:BR1"/>
     <mergeCell ref="KS1:KW1"/>
     <mergeCell ref="HG1:HX1"/>
     <mergeCell ref="HY1:IP1"/>
     <mergeCell ref="IQ1:JH1"/>
     <mergeCell ref="JI1:JZ1"/>
     <mergeCell ref="KA1:KR1"/>
-    <mergeCell ref="F1:P1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="Q1:AH1"/>
-    <mergeCell ref="AI1:AZ1"/>
-    <mergeCell ref="BA1:BR1"/>
-    <mergeCell ref="BS1:CJ1"/>
-    <mergeCell ref="DC1:DT1"/>
-    <mergeCell ref="CK1:DB1"/>
-    <mergeCell ref="DU1:EL1"/>
-    <mergeCell ref="EM1:FD1"/>
-    <mergeCell ref="FE1:FV1"/>
-    <mergeCell ref="FW1:GN1"/>
-    <mergeCell ref="GO1:HF1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7572,353 +7578,353 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:309" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
       <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
       <c r="Q1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="10"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="9"/>
       <c r="BA1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="11"/>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="11"/>
-      <c r="BL1" s="11"/>
-      <c r="BM1" s="11"/>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="11"/>
-      <c r="BP1" s="11"/>
-      <c r="BQ1" s="11"/>
-      <c r="BR1" s="10"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="9"/>
       <c r="BS1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BT1" s="11"/>
-      <c r="BU1" s="11"/>
-      <c r="BV1" s="11"/>
-      <c r="BW1" s="11"/>
-      <c r="BX1" s="11"/>
-      <c r="BY1" s="11"/>
-      <c r="BZ1" s="11"/>
-      <c r="CA1" s="11"/>
-      <c r="CB1" s="11"/>
-      <c r="CC1" s="11"/>
-      <c r="CD1" s="11"/>
-      <c r="CE1" s="11"/>
-      <c r="CF1" s="11"/>
-      <c r="CG1" s="11"/>
-      <c r="CH1" s="11"/>
-      <c r="CI1" s="11"/>
-      <c r="CJ1" s="10"/>
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="9"/>
       <c r="CK1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="CL1" s="11"/>
-      <c r="CM1" s="11"/>
-      <c r="CN1" s="11"/>
-      <c r="CO1" s="11"/>
-      <c r="CP1" s="11"/>
-      <c r="CQ1" s="11"/>
-      <c r="CR1" s="11"/>
-      <c r="CS1" s="11"/>
-      <c r="CT1" s="11"/>
-      <c r="CU1" s="11"/>
-      <c r="CV1" s="11"/>
-      <c r="CW1" s="11"/>
-      <c r="CX1" s="11"/>
-      <c r="CY1" s="11"/>
-      <c r="CZ1" s="11"/>
-      <c r="DA1" s="11"/>
-      <c r="DB1" s="10"/>
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="9"/>
       <c r="DC1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="DD1" s="11"/>
-      <c r="DE1" s="11"/>
-      <c r="DF1" s="11"/>
-      <c r="DG1" s="11"/>
-      <c r="DH1" s="11"/>
-      <c r="DI1" s="11"/>
-      <c r="DJ1" s="11"/>
-      <c r="DK1" s="11"/>
-      <c r="DL1" s="11"/>
-      <c r="DM1" s="11"/>
-      <c r="DN1" s="11"/>
-      <c r="DO1" s="11"/>
-      <c r="DP1" s="11"/>
-      <c r="DQ1" s="11"/>
-      <c r="DR1" s="11"/>
-      <c r="DS1" s="11"/>
-      <c r="DT1" s="10"/>
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="9"/>
       <c r="DU1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="DV1" s="11"/>
-      <c r="DW1" s="11"/>
-      <c r="DX1" s="11"/>
-      <c r="DY1" s="11"/>
-      <c r="DZ1" s="11"/>
-      <c r="EA1" s="11"/>
-      <c r="EB1" s="11"/>
-      <c r="EC1" s="11"/>
-      <c r="ED1" s="11"/>
-      <c r="EE1" s="11"/>
-      <c r="EF1" s="11"/>
-      <c r="EG1" s="11"/>
-      <c r="EH1" s="11"/>
-      <c r="EI1" s="11"/>
-      <c r="EJ1" s="11"/>
-      <c r="EK1" s="11"/>
-      <c r="EL1" s="10"/>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="9"/>
       <c r="EM1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="EN1" s="11"/>
-      <c r="EO1" s="11"/>
-      <c r="EP1" s="11"/>
-      <c r="EQ1" s="11"/>
-      <c r="ER1" s="11"/>
-      <c r="ES1" s="11"/>
-      <c r="ET1" s="11"/>
-      <c r="EU1" s="11"/>
-      <c r="EV1" s="11"/>
-      <c r="EW1" s="11"/>
-      <c r="EX1" s="11"/>
-      <c r="EY1" s="11"/>
-      <c r="EZ1" s="11"/>
-      <c r="FA1" s="11"/>
-      <c r="FB1" s="11"/>
-      <c r="FC1" s="11"/>
-      <c r="FD1" s="10"/>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="9"/>
       <c r="FE1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="FF1" s="11"/>
-      <c r="FG1" s="11"/>
-      <c r="FH1" s="11"/>
-      <c r="FI1" s="11"/>
-      <c r="FJ1" s="11"/>
-      <c r="FK1" s="11"/>
-      <c r="FL1" s="11"/>
-      <c r="FM1" s="11"/>
-      <c r="FN1" s="11"/>
-      <c r="FO1" s="11"/>
-      <c r="FP1" s="11"/>
-      <c r="FQ1" s="11"/>
-      <c r="FR1" s="11"/>
-      <c r="FS1" s="11"/>
-      <c r="FT1" s="11"/>
-      <c r="FU1" s="11"/>
-      <c r="FV1" s="10"/>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="9"/>
       <c r="FW1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="FX1" s="11"/>
-      <c r="FY1" s="11"/>
-      <c r="FZ1" s="11"/>
-      <c r="GA1" s="11"/>
-      <c r="GB1" s="11"/>
-      <c r="GC1" s="11"/>
-      <c r="GD1" s="11"/>
-      <c r="GE1" s="11"/>
-      <c r="GF1" s="11"/>
-      <c r="GG1" s="11"/>
-      <c r="GH1" s="11"/>
-      <c r="GI1" s="11"/>
-      <c r="GJ1" s="11"/>
-      <c r="GK1" s="11"/>
-      <c r="GL1" s="11"/>
-      <c r="GM1" s="11"/>
-      <c r="GN1" s="10"/>
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="9"/>
       <c r="GO1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="GP1" s="11"/>
-      <c r="GQ1" s="11"/>
-      <c r="GR1" s="11"/>
-      <c r="GS1" s="11"/>
-      <c r="GT1" s="11"/>
-      <c r="GU1" s="11"/>
-      <c r="GV1" s="11"/>
-      <c r="GW1" s="11"/>
-      <c r="GX1" s="11"/>
-      <c r="GY1" s="11"/>
-      <c r="GZ1" s="11"/>
-      <c r="HA1" s="11"/>
-      <c r="HB1" s="11"/>
-      <c r="HC1" s="11"/>
-      <c r="HD1" s="11"/>
-      <c r="HE1" s="11"/>
-      <c r="HF1" s="10"/>
+      <c r="GP1" s="8"/>
+      <c r="GQ1" s="8"/>
+      <c r="GR1" s="8"/>
+      <c r="GS1" s="8"/>
+      <c r="GT1" s="8"/>
+      <c r="GU1" s="8"/>
+      <c r="GV1" s="8"/>
+      <c r="GW1" s="8"/>
+      <c r="GX1" s="8"/>
+      <c r="GY1" s="8"/>
+      <c r="GZ1" s="8"/>
+      <c r="HA1" s="8"/>
+      <c r="HB1" s="8"/>
+      <c r="HC1" s="8"/>
+      <c r="HD1" s="8"/>
+      <c r="HE1" s="8"/>
+      <c r="HF1" s="9"/>
       <c r="HG1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="HH1" s="11"/>
-      <c r="HI1" s="11"/>
-      <c r="HJ1" s="11"/>
-      <c r="HK1" s="11"/>
-      <c r="HL1" s="11"/>
-      <c r="HM1" s="11"/>
-      <c r="HN1" s="11"/>
-      <c r="HO1" s="11"/>
-      <c r="HP1" s="11"/>
-      <c r="HQ1" s="11"/>
-      <c r="HR1" s="11"/>
-      <c r="HS1" s="11"/>
-      <c r="HT1" s="11"/>
-      <c r="HU1" s="11"/>
-      <c r="HV1" s="11"/>
-      <c r="HW1" s="11"/>
-      <c r="HX1" s="10"/>
+      <c r="HH1" s="8"/>
+      <c r="HI1" s="8"/>
+      <c r="HJ1" s="8"/>
+      <c r="HK1" s="8"/>
+      <c r="HL1" s="8"/>
+      <c r="HM1" s="8"/>
+      <c r="HN1" s="8"/>
+      <c r="HO1" s="8"/>
+      <c r="HP1" s="8"/>
+      <c r="HQ1" s="8"/>
+      <c r="HR1" s="8"/>
+      <c r="HS1" s="8"/>
+      <c r="HT1" s="8"/>
+      <c r="HU1" s="8"/>
+      <c r="HV1" s="8"/>
+      <c r="HW1" s="8"/>
+      <c r="HX1" s="9"/>
       <c r="HY1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="HZ1" s="11"/>
-      <c r="IA1" s="11"/>
-      <c r="IB1" s="11"/>
-      <c r="IC1" s="11"/>
-      <c r="ID1" s="11"/>
-      <c r="IE1" s="11"/>
-      <c r="IF1" s="11"/>
-      <c r="IG1" s="11"/>
-      <c r="IH1" s="11"/>
-      <c r="II1" s="11"/>
-      <c r="IJ1" s="11"/>
-      <c r="IK1" s="11"/>
-      <c r="IL1" s="11"/>
-      <c r="IM1" s="11"/>
-      <c r="IN1" s="11"/>
-      <c r="IO1" s="11"/>
-      <c r="IP1" s="10"/>
+      <c r="HZ1" s="8"/>
+      <c r="IA1" s="8"/>
+      <c r="IB1" s="8"/>
+      <c r="IC1" s="8"/>
+      <c r="ID1" s="8"/>
+      <c r="IE1" s="8"/>
+      <c r="IF1" s="8"/>
+      <c r="IG1" s="8"/>
+      <c r="IH1" s="8"/>
+      <c r="II1" s="8"/>
+      <c r="IJ1" s="8"/>
+      <c r="IK1" s="8"/>
+      <c r="IL1" s="8"/>
+      <c r="IM1" s="8"/>
+      <c r="IN1" s="8"/>
+      <c r="IO1" s="8"/>
+      <c r="IP1" s="9"/>
       <c r="IQ1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="IR1" s="11"/>
-      <c r="IS1" s="11"/>
-      <c r="IT1" s="11"/>
-      <c r="IU1" s="11"/>
-      <c r="IV1" s="11"/>
-      <c r="IW1" s="11"/>
-      <c r="IX1" s="11"/>
-      <c r="IY1" s="11"/>
-      <c r="IZ1" s="11"/>
-      <c r="JA1" s="11"/>
-      <c r="JB1" s="11"/>
-      <c r="JC1" s="11"/>
-      <c r="JD1" s="11"/>
-      <c r="JE1" s="11"/>
-      <c r="JF1" s="11"/>
-      <c r="JG1" s="11"/>
-      <c r="JH1" s="10"/>
+      <c r="IR1" s="8"/>
+      <c r="IS1" s="8"/>
+      <c r="IT1" s="8"/>
+      <c r="IU1" s="8"/>
+      <c r="IV1" s="8"/>
+      <c r="IW1" s="8"/>
+      <c r="IX1" s="8"/>
+      <c r="IY1" s="8"/>
+      <c r="IZ1" s="8"/>
+      <c r="JA1" s="8"/>
+      <c r="JB1" s="8"/>
+      <c r="JC1" s="8"/>
+      <c r="JD1" s="8"/>
+      <c r="JE1" s="8"/>
+      <c r="JF1" s="8"/>
+      <c r="JG1" s="8"/>
+      <c r="JH1" s="9"/>
       <c r="JI1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="JJ1" s="11"/>
-      <c r="JK1" s="11"/>
-      <c r="JL1" s="11"/>
-      <c r="JM1" s="11"/>
-      <c r="JN1" s="11"/>
-      <c r="JO1" s="11"/>
-      <c r="JP1" s="11"/>
-      <c r="JQ1" s="11"/>
-      <c r="JR1" s="11"/>
-      <c r="JS1" s="11"/>
-      <c r="JT1" s="11"/>
-      <c r="JU1" s="11"/>
-      <c r="JV1" s="11"/>
-      <c r="JW1" s="11"/>
-      <c r="JX1" s="11"/>
-      <c r="JY1" s="11"/>
-      <c r="JZ1" s="10"/>
+      <c r="JJ1" s="8"/>
+      <c r="JK1" s="8"/>
+      <c r="JL1" s="8"/>
+      <c r="JM1" s="8"/>
+      <c r="JN1" s="8"/>
+      <c r="JO1" s="8"/>
+      <c r="JP1" s="8"/>
+      <c r="JQ1" s="8"/>
+      <c r="JR1" s="8"/>
+      <c r="JS1" s="8"/>
+      <c r="JT1" s="8"/>
+      <c r="JU1" s="8"/>
+      <c r="JV1" s="8"/>
+      <c r="JW1" s="8"/>
+      <c r="JX1" s="8"/>
+      <c r="JY1" s="8"/>
+      <c r="JZ1" s="9"/>
       <c r="KA1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="KB1" s="11"/>
-      <c r="KC1" s="11"/>
-      <c r="KD1" s="11"/>
-      <c r="KE1" s="11"/>
-      <c r="KF1" s="11"/>
-      <c r="KG1" s="11"/>
-      <c r="KH1" s="11"/>
-      <c r="KI1" s="11"/>
-      <c r="KJ1" s="11"/>
-      <c r="KK1" s="11"/>
-      <c r="KL1" s="11"/>
-      <c r="KM1" s="11"/>
-      <c r="KN1" s="11"/>
-      <c r="KO1" s="11"/>
-      <c r="KP1" s="11"/>
-      <c r="KQ1" s="11"/>
-      <c r="KR1" s="10"/>
+      <c r="KB1" s="8"/>
+      <c r="KC1" s="8"/>
+      <c r="KD1" s="8"/>
+      <c r="KE1" s="8"/>
+      <c r="KF1" s="8"/>
+      <c r="KG1" s="8"/>
+      <c r="KH1" s="8"/>
+      <c r="KI1" s="8"/>
+      <c r="KJ1" s="8"/>
+      <c r="KK1" s="8"/>
+      <c r="KL1" s="8"/>
+      <c r="KM1" s="8"/>
+      <c r="KN1" s="8"/>
+      <c r="KO1" s="8"/>
+      <c r="KP1" s="8"/>
+      <c r="KQ1" s="8"/>
+      <c r="KR1" s="9"/>
       <c r="KS1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="KT1" s="8"/>
-      <c r="KU1" s="8"/>
-      <c r="KV1" s="8"/>
-      <c r="KW1" s="8"/>
+      <c r="KT1" s="10"/>
+      <c r="KU1" s="10"/>
+      <c r="KV1" s="10"/>
+      <c r="KW1" s="10"/>
     </row>
     <row r="2" spans="1:309" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -8851,17 +8857,7 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="KS1:KW1"/>
-    <mergeCell ref="HG1:HX1"/>
-    <mergeCell ref="HY1:IP1"/>
-    <mergeCell ref="IQ1:JH1"/>
-    <mergeCell ref="JI1:JZ1"/>
-    <mergeCell ref="KA1:KR1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:P1"/>
-    <mergeCell ref="Q1:AH1"/>
-    <mergeCell ref="AI1:AZ1"/>
-    <mergeCell ref="BA1:BR1"/>
+    <mergeCell ref="GO1:HF1"/>
     <mergeCell ref="FE1:FV1"/>
     <mergeCell ref="FW1:GN1"/>
     <mergeCell ref="BS1:CJ1"/>
@@ -8869,7 +8865,17 @@
     <mergeCell ref="DC1:DT1"/>
     <mergeCell ref="DU1:EL1"/>
     <mergeCell ref="EM1:FD1"/>
-    <mergeCell ref="GO1:HF1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="Q1:AH1"/>
+    <mergeCell ref="AI1:AZ1"/>
+    <mergeCell ref="BA1:BR1"/>
+    <mergeCell ref="KS1:KW1"/>
+    <mergeCell ref="HG1:HX1"/>
+    <mergeCell ref="HY1:IP1"/>
+    <mergeCell ref="IQ1:JH1"/>
+    <mergeCell ref="JI1:JZ1"/>
+    <mergeCell ref="KA1:KR1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8942,353 +8948,353 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:309" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
       <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
       <c r="Q1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="10"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="9"/>
       <c r="BA1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="11"/>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="11"/>
-      <c r="BL1" s="11"/>
-      <c r="BM1" s="11"/>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="11"/>
-      <c r="BP1" s="11"/>
-      <c r="BQ1" s="11"/>
-      <c r="BR1" s="10"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="9"/>
       <c r="BS1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BT1" s="11"/>
-      <c r="BU1" s="11"/>
-      <c r="BV1" s="11"/>
-      <c r="BW1" s="11"/>
-      <c r="BX1" s="11"/>
-      <c r="BY1" s="11"/>
-      <c r="BZ1" s="11"/>
-      <c r="CA1" s="11"/>
-      <c r="CB1" s="11"/>
-      <c r="CC1" s="11"/>
-      <c r="CD1" s="11"/>
-      <c r="CE1" s="11"/>
-      <c r="CF1" s="11"/>
-      <c r="CG1" s="11"/>
-      <c r="CH1" s="11"/>
-      <c r="CI1" s="11"/>
-      <c r="CJ1" s="10"/>
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="9"/>
       <c r="CK1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="CL1" s="11"/>
-      <c r="CM1" s="11"/>
-      <c r="CN1" s="11"/>
-      <c r="CO1" s="11"/>
-      <c r="CP1" s="11"/>
-      <c r="CQ1" s="11"/>
-      <c r="CR1" s="11"/>
-      <c r="CS1" s="11"/>
-      <c r="CT1" s="11"/>
-      <c r="CU1" s="11"/>
-      <c r="CV1" s="11"/>
-      <c r="CW1" s="11"/>
-      <c r="CX1" s="11"/>
-      <c r="CY1" s="11"/>
-      <c r="CZ1" s="11"/>
-      <c r="DA1" s="11"/>
-      <c r="DB1" s="10"/>
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="9"/>
       <c r="DC1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="DD1" s="11"/>
-      <c r="DE1" s="11"/>
-      <c r="DF1" s="11"/>
-      <c r="DG1" s="11"/>
-      <c r="DH1" s="11"/>
-      <c r="DI1" s="11"/>
-      <c r="DJ1" s="11"/>
-      <c r="DK1" s="11"/>
-      <c r="DL1" s="11"/>
-      <c r="DM1" s="11"/>
-      <c r="DN1" s="11"/>
-      <c r="DO1" s="11"/>
-      <c r="DP1" s="11"/>
-      <c r="DQ1" s="11"/>
-      <c r="DR1" s="11"/>
-      <c r="DS1" s="11"/>
-      <c r="DT1" s="10"/>
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="9"/>
       <c r="DU1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="DV1" s="11"/>
-      <c r="DW1" s="11"/>
-      <c r="DX1" s="11"/>
-      <c r="DY1" s="11"/>
-      <c r="DZ1" s="11"/>
-      <c r="EA1" s="11"/>
-      <c r="EB1" s="11"/>
-      <c r="EC1" s="11"/>
-      <c r="ED1" s="11"/>
-      <c r="EE1" s="11"/>
-      <c r="EF1" s="11"/>
-      <c r="EG1" s="11"/>
-      <c r="EH1" s="11"/>
-      <c r="EI1" s="11"/>
-      <c r="EJ1" s="11"/>
-      <c r="EK1" s="11"/>
-      <c r="EL1" s="10"/>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="9"/>
       <c r="EM1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="EN1" s="11"/>
-      <c r="EO1" s="11"/>
-      <c r="EP1" s="11"/>
-      <c r="EQ1" s="11"/>
-      <c r="ER1" s="11"/>
-      <c r="ES1" s="11"/>
-      <c r="ET1" s="11"/>
-      <c r="EU1" s="11"/>
-      <c r="EV1" s="11"/>
-      <c r="EW1" s="11"/>
-      <c r="EX1" s="11"/>
-      <c r="EY1" s="11"/>
-      <c r="EZ1" s="11"/>
-      <c r="FA1" s="11"/>
-      <c r="FB1" s="11"/>
-      <c r="FC1" s="11"/>
-      <c r="FD1" s="10"/>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="9"/>
       <c r="FE1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="FF1" s="11"/>
-      <c r="FG1" s="11"/>
-      <c r="FH1" s="11"/>
-      <c r="FI1" s="11"/>
-      <c r="FJ1" s="11"/>
-      <c r="FK1" s="11"/>
-      <c r="FL1" s="11"/>
-      <c r="FM1" s="11"/>
-      <c r="FN1" s="11"/>
-      <c r="FO1" s="11"/>
-      <c r="FP1" s="11"/>
-      <c r="FQ1" s="11"/>
-      <c r="FR1" s="11"/>
-      <c r="FS1" s="11"/>
-      <c r="FT1" s="11"/>
-      <c r="FU1" s="11"/>
-      <c r="FV1" s="10"/>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="9"/>
       <c r="FW1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="FX1" s="11"/>
-      <c r="FY1" s="11"/>
-      <c r="FZ1" s="11"/>
-      <c r="GA1" s="11"/>
-      <c r="GB1" s="11"/>
-      <c r="GC1" s="11"/>
-      <c r="GD1" s="11"/>
-      <c r="GE1" s="11"/>
-      <c r="GF1" s="11"/>
-      <c r="GG1" s="11"/>
-      <c r="GH1" s="11"/>
-      <c r="GI1" s="11"/>
-      <c r="GJ1" s="11"/>
-      <c r="GK1" s="11"/>
-      <c r="GL1" s="11"/>
-      <c r="GM1" s="11"/>
-      <c r="GN1" s="10"/>
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="9"/>
       <c r="GO1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="GP1" s="11"/>
-      <c r="GQ1" s="11"/>
-      <c r="GR1" s="11"/>
-      <c r="GS1" s="11"/>
-      <c r="GT1" s="11"/>
-      <c r="GU1" s="11"/>
-      <c r="GV1" s="11"/>
-      <c r="GW1" s="11"/>
-      <c r="GX1" s="11"/>
-      <c r="GY1" s="11"/>
-      <c r="GZ1" s="11"/>
-      <c r="HA1" s="11"/>
-      <c r="HB1" s="11"/>
-      <c r="HC1" s="11"/>
-      <c r="HD1" s="11"/>
-      <c r="HE1" s="11"/>
-      <c r="HF1" s="10"/>
+      <c r="GP1" s="8"/>
+      <c r="GQ1" s="8"/>
+      <c r="GR1" s="8"/>
+      <c r="GS1" s="8"/>
+      <c r="GT1" s="8"/>
+      <c r="GU1" s="8"/>
+      <c r="GV1" s="8"/>
+      <c r="GW1" s="8"/>
+      <c r="GX1" s="8"/>
+      <c r="GY1" s="8"/>
+      <c r="GZ1" s="8"/>
+      <c r="HA1" s="8"/>
+      <c r="HB1" s="8"/>
+      <c r="HC1" s="8"/>
+      <c r="HD1" s="8"/>
+      <c r="HE1" s="8"/>
+      <c r="HF1" s="9"/>
       <c r="HG1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="HH1" s="11"/>
-      <c r="HI1" s="11"/>
-      <c r="HJ1" s="11"/>
-      <c r="HK1" s="11"/>
-      <c r="HL1" s="11"/>
-      <c r="HM1" s="11"/>
-      <c r="HN1" s="11"/>
-      <c r="HO1" s="11"/>
-      <c r="HP1" s="11"/>
-      <c r="HQ1" s="11"/>
-      <c r="HR1" s="11"/>
-      <c r="HS1" s="11"/>
-      <c r="HT1" s="11"/>
-      <c r="HU1" s="11"/>
-      <c r="HV1" s="11"/>
-      <c r="HW1" s="11"/>
-      <c r="HX1" s="10"/>
+      <c r="HH1" s="8"/>
+      <c r="HI1" s="8"/>
+      <c r="HJ1" s="8"/>
+      <c r="HK1" s="8"/>
+      <c r="HL1" s="8"/>
+      <c r="HM1" s="8"/>
+      <c r="HN1" s="8"/>
+      <c r="HO1" s="8"/>
+      <c r="HP1" s="8"/>
+      <c r="HQ1" s="8"/>
+      <c r="HR1" s="8"/>
+      <c r="HS1" s="8"/>
+      <c r="HT1" s="8"/>
+      <c r="HU1" s="8"/>
+      <c r="HV1" s="8"/>
+      <c r="HW1" s="8"/>
+      <c r="HX1" s="9"/>
       <c r="HY1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="HZ1" s="11"/>
-      <c r="IA1" s="11"/>
-      <c r="IB1" s="11"/>
-      <c r="IC1" s="11"/>
-      <c r="ID1" s="11"/>
-      <c r="IE1" s="11"/>
-      <c r="IF1" s="11"/>
-      <c r="IG1" s="11"/>
-      <c r="IH1" s="11"/>
-      <c r="II1" s="11"/>
-      <c r="IJ1" s="11"/>
-      <c r="IK1" s="11"/>
-      <c r="IL1" s="11"/>
-      <c r="IM1" s="11"/>
-      <c r="IN1" s="11"/>
-      <c r="IO1" s="11"/>
-      <c r="IP1" s="10"/>
+      <c r="HZ1" s="8"/>
+      <c r="IA1" s="8"/>
+      <c r="IB1" s="8"/>
+      <c r="IC1" s="8"/>
+      <c r="ID1" s="8"/>
+      <c r="IE1" s="8"/>
+      <c r="IF1" s="8"/>
+      <c r="IG1" s="8"/>
+      <c r="IH1" s="8"/>
+      <c r="II1" s="8"/>
+      <c r="IJ1" s="8"/>
+      <c r="IK1" s="8"/>
+      <c r="IL1" s="8"/>
+      <c r="IM1" s="8"/>
+      <c r="IN1" s="8"/>
+      <c r="IO1" s="8"/>
+      <c r="IP1" s="9"/>
       <c r="IQ1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="IR1" s="11"/>
-      <c r="IS1" s="11"/>
-      <c r="IT1" s="11"/>
-      <c r="IU1" s="11"/>
-      <c r="IV1" s="11"/>
-      <c r="IW1" s="11"/>
-      <c r="IX1" s="11"/>
-      <c r="IY1" s="11"/>
-      <c r="IZ1" s="11"/>
-      <c r="JA1" s="11"/>
-      <c r="JB1" s="11"/>
-      <c r="JC1" s="11"/>
-      <c r="JD1" s="11"/>
-      <c r="JE1" s="11"/>
-      <c r="JF1" s="11"/>
-      <c r="JG1" s="11"/>
-      <c r="JH1" s="10"/>
+      <c r="IR1" s="8"/>
+      <c r="IS1" s="8"/>
+      <c r="IT1" s="8"/>
+      <c r="IU1" s="8"/>
+      <c r="IV1" s="8"/>
+      <c r="IW1" s="8"/>
+      <c r="IX1" s="8"/>
+      <c r="IY1" s="8"/>
+      <c r="IZ1" s="8"/>
+      <c r="JA1" s="8"/>
+      <c r="JB1" s="8"/>
+      <c r="JC1" s="8"/>
+      <c r="JD1" s="8"/>
+      <c r="JE1" s="8"/>
+      <c r="JF1" s="8"/>
+      <c r="JG1" s="8"/>
+      <c r="JH1" s="9"/>
       <c r="JI1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="JJ1" s="11"/>
-      <c r="JK1" s="11"/>
-      <c r="JL1" s="11"/>
-      <c r="JM1" s="11"/>
-      <c r="JN1" s="11"/>
-      <c r="JO1" s="11"/>
-      <c r="JP1" s="11"/>
-      <c r="JQ1" s="11"/>
-      <c r="JR1" s="11"/>
-      <c r="JS1" s="11"/>
-      <c r="JT1" s="11"/>
-      <c r="JU1" s="11"/>
-      <c r="JV1" s="11"/>
-      <c r="JW1" s="11"/>
-      <c r="JX1" s="11"/>
-      <c r="JY1" s="11"/>
-      <c r="JZ1" s="10"/>
+      <c r="JJ1" s="8"/>
+      <c r="JK1" s="8"/>
+      <c r="JL1" s="8"/>
+      <c r="JM1" s="8"/>
+      <c r="JN1" s="8"/>
+      <c r="JO1" s="8"/>
+      <c r="JP1" s="8"/>
+      <c r="JQ1" s="8"/>
+      <c r="JR1" s="8"/>
+      <c r="JS1" s="8"/>
+      <c r="JT1" s="8"/>
+      <c r="JU1" s="8"/>
+      <c r="JV1" s="8"/>
+      <c r="JW1" s="8"/>
+      <c r="JX1" s="8"/>
+      <c r="JY1" s="8"/>
+      <c r="JZ1" s="9"/>
       <c r="KA1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="KB1" s="11"/>
-      <c r="KC1" s="11"/>
-      <c r="KD1" s="11"/>
-      <c r="KE1" s="11"/>
-      <c r="KF1" s="11"/>
-      <c r="KG1" s="11"/>
-      <c r="KH1" s="11"/>
-      <c r="KI1" s="11"/>
-      <c r="KJ1" s="11"/>
-      <c r="KK1" s="11"/>
-      <c r="KL1" s="11"/>
-      <c r="KM1" s="11"/>
-      <c r="KN1" s="11"/>
-      <c r="KO1" s="11"/>
-      <c r="KP1" s="11"/>
-      <c r="KQ1" s="11"/>
-      <c r="KR1" s="10"/>
+      <c r="KB1" s="8"/>
+      <c r="KC1" s="8"/>
+      <c r="KD1" s="8"/>
+      <c r="KE1" s="8"/>
+      <c r="KF1" s="8"/>
+      <c r="KG1" s="8"/>
+      <c r="KH1" s="8"/>
+      <c r="KI1" s="8"/>
+      <c r="KJ1" s="8"/>
+      <c r="KK1" s="8"/>
+      <c r="KL1" s="8"/>
+      <c r="KM1" s="8"/>
+      <c r="KN1" s="8"/>
+      <c r="KO1" s="8"/>
+      <c r="KP1" s="8"/>
+      <c r="KQ1" s="8"/>
+      <c r="KR1" s="9"/>
       <c r="KS1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="KT1" s="8"/>
-      <c r="KU1" s="8"/>
-      <c r="KV1" s="8"/>
-      <c r="KW1" s="8"/>
+      <c r="KT1" s="10"/>
+      <c r="KU1" s="10"/>
+      <c r="KV1" s="10"/>
+      <c r="KW1" s="10"/>
     </row>
     <row r="2" spans="1:309" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -10221,17 +10227,7 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="KS1:KW1"/>
-    <mergeCell ref="HG1:HX1"/>
-    <mergeCell ref="HY1:IP1"/>
-    <mergeCell ref="IQ1:JH1"/>
-    <mergeCell ref="JI1:JZ1"/>
-    <mergeCell ref="KA1:KR1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:P1"/>
-    <mergeCell ref="Q1:AH1"/>
-    <mergeCell ref="AI1:AZ1"/>
-    <mergeCell ref="BA1:BR1"/>
+    <mergeCell ref="GO1:HF1"/>
     <mergeCell ref="FE1:FV1"/>
     <mergeCell ref="FW1:GN1"/>
     <mergeCell ref="BS1:CJ1"/>
@@ -10239,7 +10235,17 @@
     <mergeCell ref="DC1:DT1"/>
     <mergeCell ref="DU1:EL1"/>
     <mergeCell ref="EM1:FD1"/>
-    <mergeCell ref="GO1:HF1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="Q1:AH1"/>
+    <mergeCell ref="AI1:AZ1"/>
+    <mergeCell ref="BA1:BR1"/>
+    <mergeCell ref="KS1:KW1"/>
+    <mergeCell ref="HG1:HX1"/>
+    <mergeCell ref="HY1:IP1"/>
+    <mergeCell ref="IQ1:JH1"/>
+    <mergeCell ref="JI1:JZ1"/>
+    <mergeCell ref="KA1:KR1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10312,353 +10318,353 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:309" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
       <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
       <c r="Q1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="10"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="9"/>
       <c r="BA1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="11"/>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="11"/>
-      <c r="BL1" s="11"/>
-      <c r="BM1" s="11"/>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="11"/>
-      <c r="BP1" s="11"/>
-      <c r="BQ1" s="11"/>
-      <c r="BR1" s="10"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="9"/>
       <c r="BS1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BT1" s="11"/>
-      <c r="BU1" s="11"/>
-      <c r="BV1" s="11"/>
-      <c r="BW1" s="11"/>
-      <c r="BX1" s="11"/>
-      <c r="BY1" s="11"/>
-      <c r="BZ1" s="11"/>
-      <c r="CA1" s="11"/>
-      <c r="CB1" s="11"/>
-      <c r="CC1" s="11"/>
-      <c r="CD1" s="11"/>
-      <c r="CE1" s="11"/>
-      <c r="CF1" s="11"/>
-      <c r="CG1" s="11"/>
-      <c r="CH1" s="11"/>
-      <c r="CI1" s="11"/>
-      <c r="CJ1" s="10"/>
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="9"/>
       <c r="CK1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="CL1" s="11"/>
-      <c r="CM1" s="11"/>
-      <c r="CN1" s="11"/>
-      <c r="CO1" s="11"/>
-      <c r="CP1" s="11"/>
-      <c r="CQ1" s="11"/>
-      <c r="CR1" s="11"/>
-      <c r="CS1" s="11"/>
-      <c r="CT1" s="11"/>
-      <c r="CU1" s="11"/>
-      <c r="CV1" s="11"/>
-      <c r="CW1" s="11"/>
-      <c r="CX1" s="11"/>
-      <c r="CY1" s="11"/>
-      <c r="CZ1" s="11"/>
-      <c r="DA1" s="11"/>
-      <c r="DB1" s="10"/>
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="9"/>
       <c r="DC1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="DD1" s="11"/>
-      <c r="DE1" s="11"/>
-      <c r="DF1" s="11"/>
-      <c r="DG1" s="11"/>
-      <c r="DH1" s="11"/>
-      <c r="DI1" s="11"/>
-      <c r="DJ1" s="11"/>
-      <c r="DK1" s="11"/>
-      <c r="DL1" s="11"/>
-      <c r="DM1" s="11"/>
-      <c r="DN1" s="11"/>
-      <c r="DO1" s="11"/>
-      <c r="DP1" s="11"/>
-      <c r="DQ1" s="11"/>
-      <c r="DR1" s="11"/>
-      <c r="DS1" s="11"/>
-      <c r="DT1" s="10"/>
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="9"/>
       <c r="DU1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="DV1" s="11"/>
-      <c r="DW1" s="11"/>
-      <c r="DX1" s="11"/>
-      <c r="DY1" s="11"/>
-      <c r="DZ1" s="11"/>
-      <c r="EA1" s="11"/>
-      <c r="EB1" s="11"/>
-      <c r="EC1" s="11"/>
-      <c r="ED1" s="11"/>
-      <c r="EE1" s="11"/>
-      <c r="EF1" s="11"/>
-      <c r="EG1" s="11"/>
-      <c r="EH1" s="11"/>
-      <c r="EI1" s="11"/>
-      <c r="EJ1" s="11"/>
-      <c r="EK1" s="11"/>
-      <c r="EL1" s="10"/>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="9"/>
       <c r="EM1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="EN1" s="11"/>
-      <c r="EO1" s="11"/>
-      <c r="EP1" s="11"/>
-      <c r="EQ1" s="11"/>
-      <c r="ER1" s="11"/>
-      <c r="ES1" s="11"/>
-      <c r="ET1" s="11"/>
-      <c r="EU1" s="11"/>
-      <c r="EV1" s="11"/>
-      <c r="EW1" s="11"/>
-      <c r="EX1" s="11"/>
-      <c r="EY1" s="11"/>
-      <c r="EZ1" s="11"/>
-      <c r="FA1" s="11"/>
-      <c r="FB1" s="11"/>
-      <c r="FC1" s="11"/>
-      <c r="FD1" s="10"/>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="9"/>
       <c r="FE1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="FF1" s="11"/>
-      <c r="FG1" s="11"/>
-      <c r="FH1" s="11"/>
-      <c r="FI1" s="11"/>
-      <c r="FJ1" s="11"/>
-      <c r="FK1" s="11"/>
-      <c r="FL1" s="11"/>
-      <c r="FM1" s="11"/>
-      <c r="FN1" s="11"/>
-      <c r="FO1" s="11"/>
-      <c r="FP1" s="11"/>
-      <c r="FQ1" s="11"/>
-      <c r="FR1" s="11"/>
-      <c r="FS1" s="11"/>
-      <c r="FT1" s="11"/>
-      <c r="FU1" s="11"/>
-      <c r="FV1" s="10"/>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="9"/>
       <c r="FW1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="FX1" s="11"/>
-      <c r="FY1" s="11"/>
-      <c r="FZ1" s="11"/>
-      <c r="GA1" s="11"/>
-      <c r="GB1" s="11"/>
-      <c r="GC1" s="11"/>
-      <c r="GD1" s="11"/>
-      <c r="GE1" s="11"/>
-      <c r="GF1" s="11"/>
-      <c r="GG1" s="11"/>
-      <c r="GH1" s="11"/>
-      <c r="GI1" s="11"/>
-      <c r="GJ1" s="11"/>
-      <c r="GK1" s="11"/>
-      <c r="GL1" s="11"/>
-      <c r="GM1" s="11"/>
-      <c r="GN1" s="10"/>
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="9"/>
       <c r="GO1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="GP1" s="11"/>
-      <c r="GQ1" s="11"/>
-      <c r="GR1" s="11"/>
-      <c r="GS1" s="11"/>
-      <c r="GT1" s="11"/>
-      <c r="GU1" s="11"/>
-      <c r="GV1" s="11"/>
-      <c r="GW1" s="11"/>
-      <c r="GX1" s="11"/>
-      <c r="GY1" s="11"/>
-      <c r="GZ1" s="11"/>
-      <c r="HA1" s="11"/>
-      <c r="HB1" s="11"/>
-      <c r="HC1" s="11"/>
-      <c r="HD1" s="11"/>
-      <c r="HE1" s="11"/>
-      <c r="HF1" s="10"/>
+      <c r="GP1" s="8"/>
+      <c r="GQ1" s="8"/>
+      <c r="GR1" s="8"/>
+      <c r="GS1" s="8"/>
+      <c r="GT1" s="8"/>
+      <c r="GU1" s="8"/>
+      <c r="GV1" s="8"/>
+      <c r="GW1" s="8"/>
+      <c r="GX1" s="8"/>
+      <c r="GY1" s="8"/>
+      <c r="GZ1" s="8"/>
+      <c r="HA1" s="8"/>
+      <c r="HB1" s="8"/>
+      <c r="HC1" s="8"/>
+      <c r="HD1" s="8"/>
+      <c r="HE1" s="8"/>
+      <c r="HF1" s="9"/>
       <c r="HG1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="HH1" s="11"/>
-      <c r="HI1" s="11"/>
-      <c r="HJ1" s="11"/>
-      <c r="HK1" s="11"/>
-      <c r="HL1" s="11"/>
-      <c r="HM1" s="11"/>
-      <c r="HN1" s="11"/>
-      <c r="HO1" s="11"/>
-      <c r="HP1" s="11"/>
-      <c r="HQ1" s="11"/>
-      <c r="HR1" s="11"/>
-      <c r="HS1" s="11"/>
-      <c r="HT1" s="11"/>
-      <c r="HU1" s="11"/>
-      <c r="HV1" s="11"/>
-      <c r="HW1" s="11"/>
-      <c r="HX1" s="10"/>
+      <c r="HH1" s="8"/>
+      <c r="HI1" s="8"/>
+      <c r="HJ1" s="8"/>
+      <c r="HK1" s="8"/>
+      <c r="HL1" s="8"/>
+      <c r="HM1" s="8"/>
+      <c r="HN1" s="8"/>
+      <c r="HO1" s="8"/>
+      <c r="HP1" s="8"/>
+      <c r="HQ1" s="8"/>
+      <c r="HR1" s="8"/>
+      <c r="HS1" s="8"/>
+      <c r="HT1" s="8"/>
+      <c r="HU1" s="8"/>
+      <c r="HV1" s="8"/>
+      <c r="HW1" s="8"/>
+      <c r="HX1" s="9"/>
       <c r="HY1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="HZ1" s="11"/>
-      <c r="IA1" s="11"/>
-      <c r="IB1" s="11"/>
-      <c r="IC1" s="11"/>
-      <c r="ID1" s="11"/>
-      <c r="IE1" s="11"/>
-      <c r="IF1" s="11"/>
-      <c r="IG1" s="11"/>
-      <c r="IH1" s="11"/>
-      <c r="II1" s="11"/>
-      <c r="IJ1" s="11"/>
-      <c r="IK1" s="11"/>
-      <c r="IL1" s="11"/>
-      <c r="IM1" s="11"/>
-      <c r="IN1" s="11"/>
-      <c r="IO1" s="11"/>
-      <c r="IP1" s="10"/>
+      <c r="HZ1" s="8"/>
+      <c r="IA1" s="8"/>
+      <c r="IB1" s="8"/>
+      <c r="IC1" s="8"/>
+      <c r="ID1" s="8"/>
+      <c r="IE1" s="8"/>
+      <c r="IF1" s="8"/>
+      <c r="IG1" s="8"/>
+      <c r="IH1" s="8"/>
+      <c r="II1" s="8"/>
+      <c r="IJ1" s="8"/>
+      <c r="IK1" s="8"/>
+      <c r="IL1" s="8"/>
+      <c r="IM1" s="8"/>
+      <c r="IN1" s="8"/>
+      <c r="IO1" s="8"/>
+      <c r="IP1" s="9"/>
       <c r="IQ1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="IR1" s="11"/>
-      <c r="IS1" s="11"/>
-      <c r="IT1" s="11"/>
-      <c r="IU1" s="11"/>
-      <c r="IV1" s="11"/>
-      <c r="IW1" s="11"/>
-      <c r="IX1" s="11"/>
-      <c r="IY1" s="11"/>
-      <c r="IZ1" s="11"/>
-      <c r="JA1" s="11"/>
-      <c r="JB1" s="11"/>
-      <c r="JC1" s="11"/>
-      <c r="JD1" s="11"/>
-      <c r="JE1" s="11"/>
-      <c r="JF1" s="11"/>
-      <c r="JG1" s="11"/>
-      <c r="JH1" s="10"/>
+      <c r="IR1" s="8"/>
+      <c r="IS1" s="8"/>
+      <c r="IT1" s="8"/>
+      <c r="IU1" s="8"/>
+      <c r="IV1" s="8"/>
+      <c r="IW1" s="8"/>
+      <c r="IX1" s="8"/>
+      <c r="IY1" s="8"/>
+      <c r="IZ1" s="8"/>
+      <c r="JA1" s="8"/>
+      <c r="JB1" s="8"/>
+      <c r="JC1" s="8"/>
+      <c r="JD1" s="8"/>
+      <c r="JE1" s="8"/>
+      <c r="JF1" s="8"/>
+      <c r="JG1" s="8"/>
+      <c r="JH1" s="9"/>
       <c r="JI1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="JJ1" s="11"/>
-      <c r="JK1" s="11"/>
-      <c r="JL1" s="11"/>
-      <c r="JM1" s="11"/>
-      <c r="JN1" s="11"/>
-      <c r="JO1" s="11"/>
-      <c r="JP1" s="11"/>
-      <c r="JQ1" s="11"/>
-      <c r="JR1" s="11"/>
-      <c r="JS1" s="11"/>
-      <c r="JT1" s="11"/>
-      <c r="JU1" s="11"/>
-      <c r="JV1" s="11"/>
-      <c r="JW1" s="11"/>
-      <c r="JX1" s="11"/>
-      <c r="JY1" s="11"/>
-      <c r="JZ1" s="10"/>
+      <c r="JJ1" s="8"/>
+      <c r="JK1" s="8"/>
+      <c r="JL1" s="8"/>
+      <c r="JM1" s="8"/>
+      <c r="JN1" s="8"/>
+      <c r="JO1" s="8"/>
+      <c r="JP1" s="8"/>
+      <c r="JQ1" s="8"/>
+      <c r="JR1" s="8"/>
+      <c r="JS1" s="8"/>
+      <c r="JT1" s="8"/>
+      <c r="JU1" s="8"/>
+      <c r="JV1" s="8"/>
+      <c r="JW1" s="8"/>
+      <c r="JX1" s="8"/>
+      <c r="JY1" s="8"/>
+      <c r="JZ1" s="9"/>
       <c r="KA1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="KB1" s="11"/>
-      <c r="KC1" s="11"/>
-      <c r="KD1" s="11"/>
-      <c r="KE1" s="11"/>
-      <c r="KF1" s="11"/>
-      <c r="KG1" s="11"/>
-      <c r="KH1" s="11"/>
-      <c r="KI1" s="11"/>
-      <c r="KJ1" s="11"/>
-      <c r="KK1" s="11"/>
-      <c r="KL1" s="11"/>
-      <c r="KM1" s="11"/>
-      <c r="KN1" s="11"/>
-      <c r="KO1" s="11"/>
-      <c r="KP1" s="11"/>
-      <c r="KQ1" s="11"/>
-      <c r="KR1" s="10"/>
+      <c r="KB1" s="8"/>
+      <c r="KC1" s="8"/>
+      <c r="KD1" s="8"/>
+      <c r="KE1" s="8"/>
+      <c r="KF1" s="8"/>
+      <c r="KG1" s="8"/>
+      <c r="KH1" s="8"/>
+      <c r="KI1" s="8"/>
+      <c r="KJ1" s="8"/>
+      <c r="KK1" s="8"/>
+      <c r="KL1" s="8"/>
+      <c r="KM1" s="8"/>
+      <c r="KN1" s="8"/>
+      <c r="KO1" s="8"/>
+      <c r="KP1" s="8"/>
+      <c r="KQ1" s="8"/>
+      <c r="KR1" s="9"/>
       <c r="KS1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="KT1" s="8"/>
-      <c r="KU1" s="8"/>
-      <c r="KV1" s="8"/>
-      <c r="KW1" s="8"/>
+      <c r="KT1" s="10"/>
+      <c r="KU1" s="10"/>
+      <c r="KV1" s="10"/>
+      <c r="KW1" s="10"/>
     </row>
     <row r="2" spans="1:309" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -11591,17 +11597,7 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="KS1:KW1"/>
-    <mergeCell ref="HG1:HX1"/>
-    <mergeCell ref="HY1:IP1"/>
-    <mergeCell ref="IQ1:JH1"/>
-    <mergeCell ref="JI1:JZ1"/>
-    <mergeCell ref="KA1:KR1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:P1"/>
-    <mergeCell ref="Q1:AH1"/>
-    <mergeCell ref="AI1:AZ1"/>
-    <mergeCell ref="BA1:BR1"/>
+    <mergeCell ref="GO1:HF1"/>
     <mergeCell ref="FE1:FV1"/>
     <mergeCell ref="FW1:GN1"/>
     <mergeCell ref="BS1:CJ1"/>
@@ -11609,7 +11605,17 @@
     <mergeCell ref="DC1:DT1"/>
     <mergeCell ref="DU1:EL1"/>
     <mergeCell ref="EM1:FD1"/>
-    <mergeCell ref="GO1:HF1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="Q1:AH1"/>
+    <mergeCell ref="AI1:AZ1"/>
+    <mergeCell ref="BA1:BR1"/>
+    <mergeCell ref="KS1:KW1"/>
+    <mergeCell ref="HG1:HX1"/>
+    <mergeCell ref="HY1:IP1"/>
+    <mergeCell ref="IQ1:JH1"/>
+    <mergeCell ref="JI1:JZ1"/>
+    <mergeCell ref="KA1:KR1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11682,353 +11688,353 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:309" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
       <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
       <c r="Q1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="10"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="9"/>
       <c r="BA1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="11"/>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="11"/>
-      <c r="BL1" s="11"/>
-      <c r="BM1" s="11"/>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="11"/>
-      <c r="BP1" s="11"/>
-      <c r="BQ1" s="11"/>
-      <c r="BR1" s="10"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="9"/>
       <c r="BS1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BT1" s="11"/>
-      <c r="BU1" s="11"/>
-      <c r="BV1" s="11"/>
-      <c r="BW1" s="11"/>
-      <c r="BX1" s="11"/>
-      <c r="BY1" s="11"/>
-      <c r="BZ1" s="11"/>
-      <c r="CA1" s="11"/>
-      <c r="CB1" s="11"/>
-      <c r="CC1" s="11"/>
-      <c r="CD1" s="11"/>
-      <c r="CE1" s="11"/>
-      <c r="CF1" s="11"/>
-      <c r="CG1" s="11"/>
-      <c r="CH1" s="11"/>
-      <c r="CI1" s="11"/>
-      <c r="CJ1" s="10"/>
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="9"/>
       <c r="CK1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="CL1" s="11"/>
-      <c r="CM1" s="11"/>
-      <c r="CN1" s="11"/>
-      <c r="CO1" s="11"/>
-      <c r="CP1" s="11"/>
-      <c r="CQ1" s="11"/>
-      <c r="CR1" s="11"/>
-      <c r="CS1" s="11"/>
-      <c r="CT1" s="11"/>
-      <c r="CU1" s="11"/>
-      <c r="CV1" s="11"/>
-      <c r="CW1" s="11"/>
-      <c r="CX1" s="11"/>
-      <c r="CY1" s="11"/>
-      <c r="CZ1" s="11"/>
-      <c r="DA1" s="11"/>
-      <c r="DB1" s="10"/>
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="9"/>
       <c r="DC1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="DD1" s="11"/>
-      <c r="DE1" s="11"/>
-      <c r="DF1" s="11"/>
-      <c r="DG1" s="11"/>
-      <c r="DH1" s="11"/>
-      <c r="DI1" s="11"/>
-      <c r="DJ1" s="11"/>
-      <c r="DK1" s="11"/>
-      <c r="DL1" s="11"/>
-      <c r="DM1" s="11"/>
-      <c r="DN1" s="11"/>
-      <c r="DO1" s="11"/>
-      <c r="DP1" s="11"/>
-      <c r="DQ1" s="11"/>
-      <c r="DR1" s="11"/>
-      <c r="DS1" s="11"/>
-      <c r="DT1" s="10"/>
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="9"/>
       <c r="DU1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="DV1" s="11"/>
-      <c r="DW1" s="11"/>
-      <c r="DX1" s="11"/>
-      <c r="DY1" s="11"/>
-      <c r="DZ1" s="11"/>
-      <c r="EA1" s="11"/>
-      <c r="EB1" s="11"/>
-      <c r="EC1" s="11"/>
-      <c r="ED1" s="11"/>
-      <c r="EE1" s="11"/>
-      <c r="EF1" s="11"/>
-      <c r="EG1" s="11"/>
-      <c r="EH1" s="11"/>
-      <c r="EI1" s="11"/>
-      <c r="EJ1" s="11"/>
-      <c r="EK1" s="11"/>
-      <c r="EL1" s="10"/>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="9"/>
       <c r="EM1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="EN1" s="11"/>
-      <c r="EO1" s="11"/>
-      <c r="EP1" s="11"/>
-      <c r="EQ1" s="11"/>
-      <c r="ER1" s="11"/>
-      <c r="ES1" s="11"/>
-      <c r="ET1" s="11"/>
-      <c r="EU1" s="11"/>
-      <c r="EV1" s="11"/>
-      <c r="EW1" s="11"/>
-      <c r="EX1" s="11"/>
-      <c r="EY1" s="11"/>
-      <c r="EZ1" s="11"/>
-      <c r="FA1" s="11"/>
-      <c r="FB1" s="11"/>
-      <c r="FC1" s="11"/>
-      <c r="FD1" s="10"/>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="9"/>
       <c r="FE1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="FF1" s="11"/>
-      <c r="FG1" s="11"/>
-      <c r="FH1" s="11"/>
-      <c r="FI1" s="11"/>
-      <c r="FJ1" s="11"/>
-      <c r="FK1" s="11"/>
-      <c r="FL1" s="11"/>
-      <c r="FM1" s="11"/>
-      <c r="FN1" s="11"/>
-      <c r="FO1" s="11"/>
-      <c r="FP1" s="11"/>
-      <c r="FQ1" s="11"/>
-      <c r="FR1" s="11"/>
-      <c r="FS1" s="11"/>
-      <c r="FT1" s="11"/>
-      <c r="FU1" s="11"/>
-      <c r="FV1" s="10"/>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="9"/>
       <c r="FW1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="FX1" s="11"/>
-      <c r="FY1" s="11"/>
-      <c r="FZ1" s="11"/>
-      <c r="GA1" s="11"/>
-      <c r="GB1" s="11"/>
-      <c r="GC1" s="11"/>
-      <c r="GD1" s="11"/>
-      <c r="GE1" s="11"/>
-      <c r="GF1" s="11"/>
-      <c r="GG1" s="11"/>
-      <c r="GH1" s="11"/>
-      <c r="GI1" s="11"/>
-      <c r="GJ1" s="11"/>
-      <c r="GK1" s="11"/>
-      <c r="GL1" s="11"/>
-      <c r="GM1" s="11"/>
-      <c r="GN1" s="10"/>
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="9"/>
       <c r="GO1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="GP1" s="11"/>
-      <c r="GQ1" s="11"/>
-      <c r="GR1" s="11"/>
-      <c r="GS1" s="11"/>
-      <c r="GT1" s="11"/>
-      <c r="GU1" s="11"/>
-      <c r="GV1" s="11"/>
-      <c r="GW1" s="11"/>
-      <c r="GX1" s="11"/>
-      <c r="GY1" s="11"/>
-      <c r="GZ1" s="11"/>
-      <c r="HA1" s="11"/>
-      <c r="HB1" s="11"/>
-      <c r="HC1" s="11"/>
-      <c r="HD1" s="11"/>
-      <c r="HE1" s="11"/>
-      <c r="HF1" s="10"/>
+      <c r="GP1" s="8"/>
+      <c r="GQ1" s="8"/>
+      <c r="GR1" s="8"/>
+      <c r="GS1" s="8"/>
+      <c r="GT1" s="8"/>
+      <c r="GU1" s="8"/>
+      <c r="GV1" s="8"/>
+      <c r="GW1" s="8"/>
+      <c r="GX1" s="8"/>
+      <c r="GY1" s="8"/>
+      <c r="GZ1" s="8"/>
+      <c r="HA1" s="8"/>
+      <c r="HB1" s="8"/>
+      <c r="HC1" s="8"/>
+      <c r="HD1" s="8"/>
+      <c r="HE1" s="8"/>
+      <c r="HF1" s="9"/>
       <c r="HG1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="HH1" s="11"/>
-      <c r="HI1" s="11"/>
-      <c r="HJ1" s="11"/>
-      <c r="HK1" s="11"/>
-      <c r="HL1" s="11"/>
-      <c r="HM1" s="11"/>
-      <c r="HN1" s="11"/>
-      <c r="HO1" s="11"/>
-      <c r="HP1" s="11"/>
-      <c r="HQ1" s="11"/>
-      <c r="HR1" s="11"/>
-      <c r="HS1" s="11"/>
-      <c r="HT1" s="11"/>
-      <c r="HU1" s="11"/>
-      <c r="HV1" s="11"/>
-      <c r="HW1" s="11"/>
-      <c r="HX1" s="10"/>
+      <c r="HH1" s="8"/>
+      <c r="HI1" s="8"/>
+      <c r="HJ1" s="8"/>
+      <c r="HK1" s="8"/>
+      <c r="HL1" s="8"/>
+      <c r="HM1" s="8"/>
+      <c r="HN1" s="8"/>
+      <c r="HO1" s="8"/>
+      <c r="HP1" s="8"/>
+      <c r="HQ1" s="8"/>
+      <c r="HR1" s="8"/>
+      <c r="HS1" s="8"/>
+      <c r="HT1" s="8"/>
+      <c r="HU1" s="8"/>
+      <c r="HV1" s="8"/>
+      <c r="HW1" s="8"/>
+      <c r="HX1" s="9"/>
       <c r="HY1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="HZ1" s="11"/>
-      <c r="IA1" s="11"/>
-      <c r="IB1" s="11"/>
-      <c r="IC1" s="11"/>
-      <c r="ID1" s="11"/>
-      <c r="IE1" s="11"/>
-      <c r="IF1" s="11"/>
-      <c r="IG1" s="11"/>
-      <c r="IH1" s="11"/>
-      <c r="II1" s="11"/>
-      <c r="IJ1" s="11"/>
-      <c r="IK1" s="11"/>
-      <c r="IL1" s="11"/>
-      <c r="IM1" s="11"/>
-      <c r="IN1" s="11"/>
-      <c r="IO1" s="11"/>
-      <c r="IP1" s="10"/>
+      <c r="HZ1" s="8"/>
+      <c r="IA1" s="8"/>
+      <c r="IB1" s="8"/>
+      <c r="IC1" s="8"/>
+      <c r="ID1" s="8"/>
+      <c r="IE1" s="8"/>
+      <c r="IF1" s="8"/>
+      <c r="IG1" s="8"/>
+      <c r="IH1" s="8"/>
+      <c r="II1" s="8"/>
+      <c r="IJ1" s="8"/>
+      <c r="IK1" s="8"/>
+      <c r="IL1" s="8"/>
+      <c r="IM1" s="8"/>
+      <c r="IN1" s="8"/>
+      <c r="IO1" s="8"/>
+      <c r="IP1" s="9"/>
       <c r="IQ1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="IR1" s="11"/>
-      <c r="IS1" s="11"/>
-      <c r="IT1" s="11"/>
-      <c r="IU1" s="11"/>
-      <c r="IV1" s="11"/>
-      <c r="IW1" s="11"/>
-      <c r="IX1" s="11"/>
-      <c r="IY1" s="11"/>
-      <c r="IZ1" s="11"/>
-      <c r="JA1" s="11"/>
-      <c r="JB1" s="11"/>
-      <c r="JC1" s="11"/>
-      <c r="JD1" s="11"/>
-      <c r="JE1" s="11"/>
-      <c r="JF1" s="11"/>
-      <c r="JG1" s="11"/>
-      <c r="JH1" s="10"/>
+      <c r="IR1" s="8"/>
+      <c r="IS1" s="8"/>
+      <c r="IT1" s="8"/>
+      <c r="IU1" s="8"/>
+      <c r="IV1" s="8"/>
+      <c r="IW1" s="8"/>
+      <c r="IX1" s="8"/>
+      <c r="IY1" s="8"/>
+      <c r="IZ1" s="8"/>
+      <c r="JA1" s="8"/>
+      <c r="JB1" s="8"/>
+      <c r="JC1" s="8"/>
+      <c r="JD1" s="8"/>
+      <c r="JE1" s="8"/>
+      <c r="JF1" s="8"/>
+      <c r="JG1" s="8"/>
+      <c r="JH1" s="9"/>
       <c r="JI1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="JJ1" s="11"/>
-      <c r="JK1" s="11"/>
-      <c r="JL1" s="11"/>
-      <c r="JM1" s="11"/>
-      <c r="JN1" s="11"/>
-      <c r="JO1" s="11"/>
-      <c r="JP1" s="11"/>
-      <c r="JQ1" s="11"/>
-      <c r="JR1" s="11"/>
-      <c r="JS1" s="11"/>
-      <c r="JT1" s="11"/>
-      <c r="JU1" s="11"/>
-      <c r="JV1" s="11"/>
-      <c r="JW1" s="11"/>
-      <c r="JX1" s="11"/>
-      <c r="JY1" s="11"/>
-      <c r="JZ1" s="10"/>
+      <c r="JJ1" s="8"/>
+      <c r="JK1" s="8"/>
+      <c r="JL1" s="8"/>
+      <c r="JM1" s="8"/>
+      <c r="JN1" s="8"/>
+      <c r="JO1" s="8"/>
+      <c r="JP1" s="8"/>
+      <c r="JQ1" s="8"/>
+      <c r="JR1" s="8"/>
+      <c r="JS1" s="8"/>
+      <c r="JT1" s="8"/>
+      <c r="JU1" s="8"/>
+      <c r="JV1" s="8"/>
+      <c r="JW1" s="8"/>
+      <c r="JX1" s="8"/>
+      <c r="JY1" s="8"/>
+      <c r="JZ1" s="9"/>
       <c r="KA1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="KB1" s="11"/>
-      <c r="KC1" s="11"/>
-      <c r="KD1" s="11"/>
-      <c r="KE1" s="11"/>
-      <c r="KF1" s="11"/>
-      <c r="KG1" s="11"/>
-      <c r="KH1" s="11"/>
-      <c r="KI1" s="11"/>
-      <c r="KJ1" s="11"/>
-      <c r="KK1" s="11"/>
-      <c r="KL1" s="11"/>
-      <c r="KM1" s="11"/>
-      <c r="KN1" s="11"/>
-      <c r="KO1" s="11"/>
-      <c r="KP1" s="11"/>
-      <c r="KQ1" s="11"/>
-      <c r="KR1" s="10"/>
+      <c r="KB1" s="8"/>
+      <c r="KC1" s="8"/>
+      <c r="KD1" s="8"/>
+      <c r="KE1" s="8"/>
+      <c r="KF1" s="8"/>
+      <c r="KG1" s="8"/>
+      <c r="KH1" s="8"/>
+      <c r="KI1" s="8"/>
+      <c r="KJ1" s="8"/>
+      <c r="KK1" s="8"/>
+      <c r="KL1" s="8"/>
+      <c r="KM1" s="8"/>
+      <c r="KN1" s="8"/>
+      <c r="KO1" s="8"/>
+      <c r="KP1" s="8"/>
+      <c r="KQ1" s="8"/>
+      <c r="KR1" s="9"/>
       <c r="KS1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="KT1" s="8"/>
-      <c r="KU1" s="8"/>
-      <c r="KV1" s="8"/>
-      <c r="KW1" s="8"/>
+      <c r="KT1" s="10"/>
+      <c r="KU1" s="10"/>
+      <c r="KV1" s="10"/>
+      <c r="KW1" s="10"/>
     </row>
     <row r="2" spans="1:309" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -12961,17 +12967,7 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="KS1:KW1"/>
-    <mergeCell ref="HG1:HX1"/>
-    <mergeCell ref="HY1:IP1"/>
-    <mergeCell ref="IQ1:JH1"/>
-    <mergeCell ref="JI1:JZ1"/>
-    <mergeCell ref="KA1:KR1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:P1"/>
-    <mergeCell ref="Q1:AH1"/>
-    <mergeCell ref="AI1:AZ1"/>
-    <mergeCell ref="BA1:BR1"/>
+    <mergeCell ref="GO1:HF1"/>
     <mergeCell ref="FE1:FV1"/>
     <mergeCell ref="FW1:GN1"/>
     <mergeCell ref="BS1:CJ1"/>
@@ -12979,7 +12975,17 @@
     <mergeCell ref="DC1:DT1"/>
     <mergeCell ref="DU1:EL1"/>
     <mergeCell ref="EM1:FD1"/>
-    <mergeCell ref="GO1:HF1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="Q1:AH1"/>
+    <mergeCell ref="AI1:AZ1"/>
+    <mergeCell ref="BA1:BR1"/>
+    <mergeCell ref="KS1:KW1"/>
+    <mergeCell ref="HG1:HX1"/>
+    <mergeCell ref="HY1:IP1"/>
+    <mergeCell ref="IQ1:JH1"/>
+    <mergeCell ref="JI1:JZ1"/>
+    <mergeCell ref="KA1:KR1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -13052,353 +13058,353 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:309" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
       <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
       <c r="Q1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="10"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="9"/>
       <c r="BA1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="11"/>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="11"/>
-      <c r="BL1" s="11"/>
-      <c r="BM1" s="11"/>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="11"/>
-      <c r="BP1" s="11"/>
-      <c r="BQ1" s="11"/>
-      <c r="BR1" s="10"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="9"/>
       <c r="BS1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BT1" s="11"/>
-      <c r="BU1" s="11"/>
-      <c r="BV1" s="11"/>
-      <c r="BW1" s="11"/>
-      <c r="BX1" s="11"/>
-      <c r="BY1" s="11"/>
-      <c r="BZ1" s="11"/>
-      <c r="CA1" s="11"/>
-      <c r="CB1" s="11"/>
-      <c r="CC1" s="11"/>
-      <c r="CD1" s="11"/>
-      <c r="CE1" s="11"/>
-      <c r="CF1" s="11"/>
-      <c r="CG1" s="11"/>
-      <c r="CH1" s="11"/>
-      <c r="CI1" s="11"/>
-      <c r="CJ1" s="10"/>
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="9"/>
       <c r="CK1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="CL1" s="11"/>
-      <c r="CM1" s="11"/>
-      <c r="CN1" s="11"/>
-      <c r="CO1" s="11"/>
-      <c r="CP1" s="11"/>
-      <c r="CQ1" s="11"/>
-      <c r="CR1" s="11"/>
-      <c r="CS1" s="11"/>
-      <c r="CT1" s="11"/>
-      <c r="CU1" s="11"/>
-      <c r="CV1" s="11"/>
-      <c r="CW1" s="11"/>
-      <c r="CX1" s="11"/>
-      <c r="CY1" s="11"/>
-      <c r="CZ1" s="11"/>
-      <c r="DA1" s="11"/>
-      <c r="DB1" s="10"/>
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="9"/>
       <c r="DC1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="DD1" s="11"/>
-      <c r="DE1" s="11"/>
-      <c r="DF1" s="11"/>
-      <c r="DG1" s="11"/>
-      <c r="DH1" s="11"/>
-      <c r="DI1" s="11"/>
-      <c r="DJ1" s="11"/>
-      <c r="DK1" s="11"/>
-      <c r="DL1" s="11"/>
-      <c r="DM1" s="11"/>
-      <c r="DN1" s="11"/>
-      <c r="DO1" s="11"/>
-      <c r="DP1" s="11"/>
-      <c r="DQ1" s="11"/>
-      <c r="DR1" s="11"/>
-      <c r="DS1" s="11"/>
-      <c r="DT1" s="10"/>
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="9"/>
       <c r="DU1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="DV1" s="11"/>
-      <c r="DW1" s="11"/>
-      <c r="DX1" s="11"/>
-      <c r="DY1" s="11"/>
-      <c r="DZ1" s="11"/>
-      <c r="EA1" s="11"/>
-      <c r="EB1" s="11"/>
-      <c r="EC1" s="11"/>
-      <c r="ED1" s="11"/>
-      <c r="EE1" s="11"/>
-      <c r="EF1" s="11"/>
-      <c r="EG1" s="11"/>
-      <c r="EH1" s="11"/>
-      <c r="EI1" s="11"/>
-      <c r="EJ1" s="11"/>
-      <c r="EK1" s="11"/>
-      <c r="EL1" s="10"/>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="9"/>
       <c r="EM1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="EN1" s="11"/>
-      <c r="EO1" s="11"/>
-      <c r="EP1" s="11"/>
-      <c r="EQ1" s="11"/>
-      <c r="ER1" s="11"/>
-      <c r="ES1" s="11"/>
-      <c r="ET1" s="11"/>
-      <c r="EU1" s="11"/>
-      <c r="EV1" s="11"/>
-      <c r="EW1" s="11"/>
-      <c r="EX1" s="11"/>
-      <c r="EY1" s="11"/>
-      <c r="EZ1" s="11"/>
-      <c r="FA1" s="11"/>
-      <c r="FB1" s="11"/>
-      <c r="FC1" s="11"/>
-      <c r="FD1" s="10"/>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="9"/>
       <c r="FE1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="FF1" s="11"/>
-      <c r="FG1" s="11"/>
-      <c r="FH1" s="11"/>
-      <c r="FI1" s="11"/>
-      <c r="FJ1" s="11"/>
-      <c r="FK1" s="11"/>
-      <c r="FL1" s="11"/>
-      <c r="FM1" s="11"/>
-      <c r="FN1" s="11"/>
-      <c r="FO1" s="11"/>
-      <c r="FP1" s="11"/>
-      <c r="FQ1" s="11"/>
-      <c r="FR1" s="11"/>
-      <c r="FS1" s="11"/>
-      <c r="FT1" s="11"/>
-      <c r="FU1" s="11"/>
-      <c r="FV1" s="10"/>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="9"/>
       <c r="FW1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="FX1" s="11"/>
-      <c r="FY1" s="11"/>
-      <c r="FZ1" s="11"/>
-      <c r="GA1" s="11"/>
-      <c r="GB1" s="11"/>
-      <c r="GC1" s="11"/>
-      <c r="GD1" s="11"/>
-      <c r="GE1" s="11"/>
-      <c r="GF1" s="11"/>
-      <c r="GG1" s="11"/>
-      <c r="GH1" s="11"/>
-      <c r="GI1" s="11"/>
-      <c r="GJ1" s="11"/>
-      <c r="GK1" s="11"/>
-      <c r="GL1" s="11"/>
-      <c r="GM1" s="11"/>
-      <c r="GN1" s="10"/>
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="9"/>
       <c r="GO1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="GP1" s="11"/>
-      <c r="GQ1" s="11"/>
-      <c r="GR1" s="11"/>
-      <c r="GS1" s="11"/>
-      <c r="GT1" s="11"/>
-      <c r="GU1" s="11"/>
-      <c r="GV1" s="11"/>
-      <c r="GW1" s="11"/>
-      <c r="GX1" s="11"/>
-      <c r="GY1" s="11"/>
-      <c r="GZ1" s="11"/>
-      <c r="HA1" s="11"/>
-      <c r="HB1" s="11"/>
-      <c r="HC1" s="11"/>
-      <c r="HD1" s="11"/>
-      <c r="HE1" s="11"/>
-      <c r="HF1" s="10"/>
+      <c r="GP1" s="8"/>
+      <c r="GQ1" s="8"/>
+      <c r="GR1" s="8"/>
+      <c r="GS1" s="8"/>
+      <c r="GT1" s="8"/>
+      <c r="GU1" s="8"/>
+      <c r="GV1" s="8"/>
+      <c r="GW1" s="8"/>
+      <c r="GX1" s="8"/>
+      <c r="GY1" s="8"/>
+      <c r="GZ1" s="8"/>
+      <c r="HA1" s="8"/>
+      <c r="HB1" s="8"/>
+      <c r="HC1" s="8"/>
+      <c r="HD1" s="8"/>
+      <c r="HE1" s="8"/>
+      <c r="HF1" s="9"/>
       <c r="HG1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="HH1" s="11"/>
-      <c r="HI1" s="11"/>
-      <c r="HJ1" s="11"/>
-      <c r="HK1" s="11"/>
-      <c r="HL1" s="11"/>
-      <c r="HM1" s="11"/>
-      <c r="HN1" s="11"/>
-      <c r="HO1" s="11"/>
-      <c r="HP1" s="11"/>
-      <c r="HQ1" s="11"/>
-      <c r="HR1" s="11"/>
-      <c r="HS1" s="11"/>
-      <c r="HT1" s="11"/>
-      <c r="HU1" s="11"/>
-      <c r="HV1" s="11"/>
-      <c r="HW1" s="11"/>
-      <c r="HX1" s="10"/>
+      <c r="HH1" s="8"/>
+      <c r="HI1" s="8"/>
+      <c r="HJ1" s="8"/>
+      <c r="HK1" s="8"/>
+      <c r="HL1" s="8"/>
+      <c r="HM1" s="8"/>
+      <c r="HN1" s="8"/>
+      <c r="HO1" s="8"/>
+      <c r="HP1" s="8"/>
+      <c r="HQ1" s="8"/>
+      <c r="HR1" s="8"/>
+      <c r="HS1" s="8"/>
+      <c r="HT1" s="8"/>
+      <c r="HU1" s="8"/>
+      <c r="HV1" s="8"/>
+      <c r="HW1" s="8"/>
+      <c r="HX1" s="9"/>
       <c r="HY1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="HZ1" s="11"/>
-      <c r="IA1" s="11"/>
-      <c r="IB1" s="11"/>
-      <c r="IC1" s="11"/>
-      <c r="ID1" s="11"/>
-      <c r="IE1" s="11"/>
-      <c r="IF1" s="11"/>
-      <c r="IG1" s="11"/>
-      <c r="IH1" s="11"/>
-      <c r="II1" s="11"/>
-      <c r="IJ1" s="11"/>
-      <c r="IK1" s="11"/>
-      <c r="IL1" s="11"/>
-      <c r="IM1" s="11"/>
-      <c r="IN1" s="11"/>
-      <c r="IO1" s="11"/>
-      <c r="IP1" s="10"/>
+      <c r="HZ1" s="8"/>
+      <c r="IA1" s="8"/>
+      <c r="IB1" s="8"/>
+      <c r="IC1" s="8"/>
+      <c r="ID1" s="8"/>
+      <c r="IE1" s="8"/>
+      <c r="IF1" s="8"/>
+      <c r="IG1" s="8"/>
+      <c r="IH1" s="8"/>
+      <c r="II1" s="8"/>
+      <c r="IJ1" s="8"/>
+      <c r="IK1" s="8"/>
+      <c r="IL1" s="8"/>
+      <c r="IM1" s="8"/>
+      <c r="IN1" s="8"/>
+      <c r="IO1" s="8"/>
+      <c r="IP1" s="9"/>
       <c r="IQ1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="IR1" s="11"/>
-      <c r="IS1" s="11"/>
-      <c r="IT1" s="11"/>
-      <c r="IU1" s="11"/>
-      <c r="IV1" s="11"/>
-      <c r="IW1" s="11"/>
-      <c r="IX1" s="11"/>
-      <c r="IY1" s="11"/>
-      <c r="IZ1" s="11"/>
-      <c r="JA1" s="11"/>
-      <c r="JB1" s="11"/>
-      <c r="JC1" s="11"/>
-      <c r="JD1" s="11"/>
-      <c r="JE1" s="11"/>
-      <c r="JF1" s="11"/>
-      <c r="JG1" s="11"/>
-      <c r="JH1" s="10"/>
+      <c r="IR1" s="8"/>
+      <c r="IS1" s="8"/>
+      <c r="IT1" s="8"/>
+      <c r="IU1" s="8"/>
+      <c r="IV1" s="8"/>
+      <c r="IW1" s="8"/>
+      <c r="IX1" s="8"/>
+      <c r="IY1" s="8"/>
+      <c r="IZ1" s="8"/>
+      <c r="JA1" s="8"/>
+      <c r="JB1" s="8"/>
+      <c r="JC1" s="8"/>
+      <c r="JD1" s="8"/>
+      <c r="JE1" s="8"/>
+      <c r="JF1" s="8"/>
+      <c r="JG1" s="8"/>
+      <c r="JH1" s="9"/>
       <c r="JI1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="JJ1" s="11"/>
-      <c r="JK1" s="11"/>
-      <c r="JL1" s="11"/>
-      <c r="JM1" s="11"/>
-      <c r="JN1" s="11"/>
-      <c r="JO1" s="11"/>
-      <c r="JP1" s="11"/>
-      <c r="JQ1" s="11"/>
-      <c r="JR1" s="11"/>
-      <c r="JS1" s="11"/>
-      <c r="JT1" s="11"/>
-      <c r="JU1" s="11"/>
-      <c r="JV1" s="11"/>
-      <c r="JW1" s="11"/>
-      <c r="JX1" s="11"/>
-      <c r="JY1" s="11"/>
-      <c r="JZ1" s="10"/>
+      <c r="JJ1" s="8"/>
+      <c r="JK1" s="8"/>
+      <c r="JL1" s="8"/>
+      <c r="JM1" s="8"/>
+      <c r="JN1" s="8"/>
+      <c r="JO1" s="8"/>
+      <c r="JP1" s="8"/>
+      <c r="JQ1" s="8"/>
+      <c r="JR1" s="8"/>
+      <c r="JS1" s="8"/>
+      <c r="JT1" s="8"/>
+      <c r="JU1" s="8"/>
+      <c r="JV1" s="8"/>
+      <c r="JW1" s="8"/>
+      <c r="JX1" s="8"/>
+      <c r="JY1" s="8"/>
+      <c r="JZ1" s="9"/>
       <c r="KA1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="KB1" s="11"/>
-      <c r="KC1" s="11"/>
-      <c r="KD1" s="11"/>
-      <c r="KE1" s="11"/>
-      <c r="KF1" s="11"/>
-      <c r="KG1" s="11"/>
-      <c r="KH1" s="11"/>
-      <c r="KI1" s="11"/>
-      <c r="KJ1" s="11"/>
-      <c r="KK1" s="11"/>
-      <c r="KL1" s="11"/>
-      <c r="KM1" s="11"/>
-      <c r="KN1" s="11"/>
-      <c r="KO1" s="11"/>
-      <c r="KP1" s="11"/>
-      <c r="KQ1" s="11"/>
-      <c r="KR1" s="10"/>
+      <c r="KB1" s="8"/>
+      <c r="KC1" s="8"/>
+      <c r="KD1" s="8"/>
+      <c r="KE1" s="8"/>
+      <c r="KF1" s="8"/>
+      <c r="KG1" s="8"/>
+      <c r="KH1" s="8"/>
+      <c r="KI1" s="8"/>
+      <c r="KJ1" s="8"/>
+      <c r="KK1" s="8"/>
+      <c r="KL1" s="8"/>
+      <c r="KM1" s="8"/>
+      <c r="KN1" s="8"/>
+      <c r="KO1" s="8"/>
+      <c r="KP1" s="8"/>
+      <c r="KQ1" s="8"/>
+      <c r="KR1" s="9"/>
       <c r="KS1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="KT1" s="8"/>
-      <c r="KU1" s="8"/>
-      <c r="KV1" s="8"/>
-      <c r="KW1" s="8"/>
+      <c r="KT1" s="10"/>
+      <c r="KU1" s="10"/>
+      <c r="KV1" s="10"/>
+      <c r="KW1" s="10"/>
     </row>
     <row r="2" spans="1:309" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -14331,17 +14337,7 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="KS1:KW1"/>
-    <mergeCell ref="HG1:HX1"/>
-    <mergeCell ref="HY1:IP1"/>
-    <mergeCell ref="IQ1:JH1"/>
-    <mergeCell ref="JI1:JZ1"/>
-    <mergeCell ref="KA1:KR1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:P1"/>
-    <mergeCell ref="Q1:AH1"/>
-    <mergeCell ref="AI1:AZ1"/>
-    <mergeCell ref="BA1:BR1"/>
+    <mergeCell ref="GO1:HF1"/>
     <mergeCell ref="FE1:FV1"/>
     <mergeCell ref="FW1:GN1"/>
     <mergeCell ref="BS1:CJ1"/>
@@ -14349,7 +14345,17 @@
     <mergeCell ref="DC1:DT1"/>
     <mergeCell ref="DU1:EL1"/>
     <mergeCell ref="EM1:FD1"/>
-    <mergeCell ref="GO1:HF1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="Q1:AH1"/>
+    <mergeCell ref="AI1:AZ1"/>
+    <mergeCell ref="BA1:BR1"/>
+    <mergeCell ref="KS1:KW1"/>
+    <mergeCell ref="HG1:HX1"/>
+    <mergeCell ref="HY1:IP1"/>
+    <mergeCell ref="IQ1:JH1"/>
+    <mergeCell ref="JI1:JZ1"/>
+    <mergeCell ref="KA1:KR1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -14422,353 +14428,353 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:309" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
       <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
       <c r="Q1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="10"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="9"/>
       <c r="BA1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="11"/>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="11"/>
-      <c r="BL1" s="11"/>
-      <c r="BM1" s="11"/>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="11"/>
-      <c r="BP1" s="11"/>
-      <c r="BQ1" s="11"/>
-      <c r="BR1" s="10"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="9"/>
       <c r="BS1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BT1" s="11"/>
-      <c r="BU1" s="11"/>
-      <c r="BV1" s="11"/>
-      <c r="BW1" s="11"/>
-      <c r="BX1" s="11"/>
-      <c r="BY1" s="11"/>
-      <c r="BZ1" s="11"/>
-      <c r="CA1" s="11"/>
-      <c r="CB1" s="11"/>
-      <c r="CC1" s="11"/>
-      <c r="CD1" s="11"/>
-      <c r="CE1" s="11"/>
-      <c r="CF1" s="11"/>
-      <c r="CG1" s="11"/>
-      <c r="CH1" s="11"/>
-      <c r="CI1" s="11"/>
-      <c r="CJ1" s="10"/>
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="9"/>
       <c r="CK1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="CL1" s="11"/>
-      <c r="CM1" s="11"/>
-      <c r="CN1" s="11"/>
-      <c r="CO1" s="11"/>
-      <c r="CP1" s="11"/>
-      <c r="CQ1" s="11"/>
-      <c r="CR1" s="11"/>
-      <c r="CS1" s="11"/>
-      <c r="CT1" s="11"/>
-      <c r="CU1" s="11"/>
-      <c r="CV1" s="11"/>
-      <c r="CW1" s="11"/>
-      <c r="CX1" s="11"/>
-      <c r="CY1" s="11"/>
-      <c r="CZ1" s="11"/>
-      <c r="DA1" s="11"/>
-      <c r="DB1" s="10"/>
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="9"/>
       <c r="DC1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="DD1" s="11"/>
-      <c r="DE1" s="11"/>
-      <c r="DF1" s="11"/>
-      <c r="DG1" s="11"/>
-      <c r="DH1" s="11"/>
-      <c r="DI1" s="11"/>
-      <c r="DJ1" s="11"/>
-      <c r="DK1" s="11"/>
-      <c r="DL1" s="11"/>
-      <c r="DM1" s="11"/>
-      <c r="DN1" s="11"/>
-      <c r="DO1" s="11"/>
-      <c r="DP1" s="11"/>
-      <c r="DQ1" s="11"/>
-      <c r="DR1" s="11"/>
-      <c r="DS1" s="11"/>
-      <c r="DT1" s="10"/>
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="9"/>
       <c r="DU1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="DV1" s="11"/>
-      <c r="DW1" s="11"/>
-      <c r="DX1" s="11"/>
-      <c r="DY1" s="11"/>
-      <c r="DZ1" s="11"/>
-      <c r="EA1" s="11"/>
-      <c r="EB1" s="11"/>
-      <c r="EC1" s="11"/>
-      <c r="ED1" s="11"/>
-      <c r="EE1" s="11"/>
-      <c r="EF1" s="11"/>
-      <c r="EG1" s="11"/>
-      <c r="EH1" s="11"/>
-      <c r="EI1" s="11"/>
-      <c r="EJ1" s="11"/>
-      <c r="EK1" s="11"/>
-      <c r="EL1" s="10"/>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="9"/>
       <c r="EM1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="EN1" s="11"/>
-      <c r="EO1" s="11"/>
-      <c r="EP1" s="11"/>
-      <c r="EQ1" s="11"/>
-      <c r="ER1" s="11"/>
-      <c r="ES1" s="11"/>
-      <c r="ET1" s="11"/>
-      <c r="EU1" s="11"/>
-      <c r="EV1" s="11"/>
-      <c r="EW1" s="11"/>
-      <c r="EX1" s="11"/>
-      <c r="EY1" s="11"/>
-      <c r="EZ1" s="11"/>
-      <c r="FA1" s="11"/>
-      <c r="FB1" s="11"/>
-      <c r="FC1" s="11"/>
-      <c r="FD1" s="10"/>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="9"/>
       <c r="FE1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="FF1" s="11"/>
-      <c r="FG1" s="11"/>
-      <c r="FH1" s="11"/>
-      <c r="FI1" s="11"/>
-      <c r="FJ1" s="11"/>
-      <c r="FK1" s="11"/>
-      <c r="FL1" s="11"/>
-      <c r="FM1" s="11"/>
-      <c r="FN1" s="11"/>
-      <c r="FO1" s="11"/>
-      <c r="FP1" s="11"/>
-      <c r="FQ1" s="11"/>
-      <c r="FR1" s="11"/>
-      <c r="FS1" s="11"/>
-      <c r="FT1" s="11"/>
-      <c r="FU1" s="11"/>
-      <c r="FV1" s="10"/>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="9"/>
       <c r="FW1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="FX1" s="11"/>
-      <c r="FY1" s="11"/>
-      <c r="FZ1" s="11"/>
-      <c r="GA1" s="11"/>
-      <c r="GB1" s="11"/>
-      <c r="GC1" s="11"/>
-      <c r="GD1" s="11"/>
-      <c r="GE1" s="11"/>
-      <c r="GF1" s="11"/>
-      <c r="GG1" s="11"/>
-      <c r="GH1" s="11"/>
-      <c r="GI1" s="11"/>
-      <c r="GJ1" s="11"/>
-      <c r="GK1" s="11"/>
-      <c r="GL1" s="11"/>
-      <c r="GM1" s="11"/>
-      <c r="GN1" s="10"/>
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="9"/>
       <c r="GO1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="GP1" s="11"/>
-      <c r="GQ1" s="11"/>
-      <c r="GR1" s="11"/>
-      <c r="GS1" s="11"/>
-      <c r="GT1" s="11"/>
-      <c r="GU1" s="11"/>
-      <c r="GV1" s="11"/>
-      <c r="GW1" s="11"/>
-      <c r="GX1" s="11"/>
-      <c r="GY1" s="11"/>
-      <c r="GZ1" s="11"/>
-      <c r="HA1" s="11"/>
-      <c r="HB1" s="11"/>
-      <c r="HC1" s="11"/>
-      <c r="HD1" s="11"/>
-      <c r="HE1" s="11"/>
-      <c r="HF1" s="10"/>
+      <c r="GP1" s="8"/>
+      <c r="GQ1" s="8"/>
+      <c r="GR1" s="8"/>
+      <c r="GS1" s="8"/>
+      <c r="GT1" s="8"/>
+      <c r="GU1" s="8"/>
+      <c r="GV1" s="8"/>
+      <c r="GW1" s="8"/>
+      <c r="GX1" s="8"/>
+      <c r="GY1" s="8"/>
+      <c r="GZ1" s="8"/>
+      <c r="HA1" s="8"/>
+      <c r="HB1" s="8"/>
+      <c r="HC1" s="8"/>
+      <c r="HD1" s="8"/>
+      <c r="HE1" s="8"/>
+      <c r="HF1" s="9"/>
       <c r="HG1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="HH1" s="11"/>
-      <c r="HI1" s="11"/>
-      <c r="HJ1" s="11"/>
-      <c r="HK1" s="11"/>
-      <c r="HL1" s="11"/>
-      <c r="HM1" s="11"/>
-      <c r="HN1" s="11"/>
-      <c r="HO1" s="11"/>
-      <c r="HP1" s="11"/>
-      <c r="HQ1" s="11"/>
-      <c r="HR1" s="11"/>
-      <c r="HS1" s="11"/>
-      <c r="HT1" s="11"/>
-      <c r="HU1" s="11"/>
-      <c r="HV1" s="11"/>
-      <c r="HW1" s="11"/>
-      <c r="HX1" s="10"/>
+      <c r="HH1" s="8"/>
+      <c r="HI1" s="8"/>
+      <c r="HJ1" s="8"/>
+      <c r="HK1" s="8"/>
+      <c r="HL1" s="8"/>
+      <c r="HM1" s="8"/>
+      <c r="HN1" s="8"/>
+      <c r="HO1" s="8"/>
+      <c r="HP1" s="8"/>
+      <c r="HQ1" s="8"/>
+      <c r="HR1" s="8"/>
+      <c r="HS1" s="8"/>
+      <c r="HT1" s="8"/>
+      <c r="HU1" s="8"/>
+      <c r="HV1" s="8"/>
+      <c r="HW1" s="8"/>
+      <c r="HX1" s="9"/>
       <c r="HY1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="HZ1" s="11"/>
-      <c r="IA1" s="11"/>
-      <c r="IB1" s="11"/>
-      <c r="IC1" s="11"/>
-      <c r="ID1" s="11"/>
-      <c r="IE1" s="11"/>
-      <c r="IF1" s="11"/>
-      <c r="IG1" s="11"/>
-      <c r="IH1" s="11"/>
-      <c r="II1" s="11"/>
-      <c r="IJ1" s="11"/>
-      <c r="IK1" s="11"/>
-      <c r="IL1" s="11"/>
-      <c r="IM1" s="11"/>
-      <c r="IN1" s="11"/>
-      <c r="IO1" s="11"/>
-      <c r="IP1" s="10"/>
+      <c r="HZ1" s="8"/>
+      <c r="IA1" s="8"/>
+      <c r="IB1" s="8"/>
+      <c r="IC1" s="8"/>
+      <c r="ID1" s="8"/>
+      <c r="IE1" s="8"/>
+      <c r="IF1" s="8"/>
+      <c r="IG1" s="8"/>
+      <c r="IH1" s="8"/>
+      <c r="II1" s="8"/>
+      <c r="IJ1" s="8"/>
+      <c r="IK1" s="8"/>
+      <c r="IL1" s="8"/>
+      <c r="IM1" s="8"/>
+      <c r="IN1" s="8"/>
+      <c r="IO1" s="8"/>
+      <c r="IP1" s="9"/>
       <c r="IQ1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="IR1" s="11"/>
-      <c r="IS1" s="11"/>
-      <c r="IT1" s="11"/>
-      <c r="IU1" s="11"/>
-      <c r="IV1" s="11"/>
-      <c r="IW1" s="11"/>
-      <c r="IX1" s="11"/>
-      <c r="IY1" s="11"/>
-      <c r="IZ1" s="11"/>
-      <c r="JA1" s="11"/>
-      <c r="JB1" s="11"/>
-      <c r="JC1" s="11"/>
-      <c r="JD1" s="11"/>
-      <c r="JE1" s="11"/>
-      <c r="JF1" s="11"/>
-      <c r="JG1" s="11"/>
-      <c r="JH1" s="10"/>
+      <c r="IR1" s="8"/>
+      <c r="IS1" s="8"/>
+      <c r="IT1" s="8"/>
+      <c r="IU1" s="8"/>
+      <c r="IV1" s="8"/>
+      <c r="IW1" s="8"/>
+      <c r="IX1" s="8"/>
+      <c r="IY1" s="8"/>
+      <c r="IZ1" s="8"/>
+      <c r="JA1" s="8"/>
+      <c r="JB1" s="8"/>
+      <c r="JC1" s="8"/>
+      <c r="JD1" s="8"/>
+      <c r="JE1" s="8"/>
+      <c r="JF1" s="8"/>
+      <c r="JG1" s="8"/>
+      <c r="JH1" s="9"/>
       <c r="JI1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="JJ1" s="11"/>
-      <c r="JK1" s="11"/>
-      <c r="JL1" s="11"/>
-      <c r="JM1" s="11"/>
-      <c r="JN1" s="11"/>
-      <c r="JO1" s="11"/>
-      <c r="JP1" s="11"/>
-      <c r="JQ1" s="11"/>
-      <c r="JR1" s="11"/>
-      <c r="JS1" s="11"/>
-      <c r="JT1" s="11"/>
-      <c r="JU1" s="11"/>
-      <c r="JV1" s="11"/>
-      <c r="JW1" s="11"/>
-      <c r="JX1" s="11"/>
-      <c r="JY1" s="11"/>
-      <c r="JZ1" s="10"/>
+      <c r="JJ1" s="8"/>
+      <c r="JK1" s="8"/>
+      <c r="JL1" s="8"/>
+      <c r="JM1" s="8"/>
+      <c r="JN1" s="8"/>
+      <c r="JO1" s="8"/>
+      <c r="JP1" s="8"/>
+      <c r="JQ1" s="8"/>
+      <c r="JR1" s="8"/>
+      <c r="JS1" s="8"/>
+      <c r="JT1" s="8"/>
+      <c r="JU1" s="8"/>
+      <c r="JV1" s="8"/>
+      <c r="JW1" s="8"/>
+      <c r="JX1" s="8"/>
+      <c r="JY1" s="8"/>
+      <c r="JZ1" s="9"/>
       <c r="KA1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="KB1" s="11"/>
-      <c r="KC1" s="11"/>
-      <c r="KD1" s="11"/>
-      <c r="KE1" s="11"/>
-      <c r="KF1" s="11"/>
-      <c r="KG1" s="11"/>
-      <c r="KH1" s="11"/>
-      <c r="KI1" s="11"/>
-      <c r="KJ1" s="11"/>
-      <c r="KK1" s="11"/>
-      <c r="KL1" s="11"/>
-      <c r="KM1" s="11"/>
-      <c r="KN1" s="11"/>
-      <c r="KO1" s="11"/>
-      <c r="KP1" s="11"/>
-      <c r="KQ1" s="11"/>
-      <c r="KR1" s="10"/>
+      <c r="KB1" s="8"/>
+      <c r="KC1" s="8"/>
+      <c r="KD1" s="8"/>
+      <c r="KE1" s="8"/>
+      <c r="KF1" s="8"/>
+      <c r="KG1" s="8"/>
+      <c r="KH1" s="8"/>
+      <c r="KI1" s="8"/>
+      <c r="KJ1" s="8"/>
+      <c r="KK1" s="8"/>
+      <c r="KL1" s="8"/>
+      <c r="KM1" s="8"/>
+      <c r="KN1" s="8"/>
+      <c r="KO1" s="8"/>
+      <c r="KP1" s="8"/>
+      <c r="KQ1" s="8"/>
+      <c r="KR1" s="9"/>
       <c r="KS1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="KT1" s="8"/>
-      <c r="KU1" s="8"/>
-      <c r="KV1" s="8"/>
-      <c r="KW1" s="8"/>
+      <c r="KT1" s="10"/>
+      <c r="KU1" s="10"/>
+      <c r="KV1" s="10"/>
+      <c r="KW1" s="10"/>
     </row>
     <row r="2" spans="1:309" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -15701,17 +15707,7 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="KS1:KW1"/>
-    <mergeCell ref="HG1:HX1"/>
-    <mergeCell ref="HY1:IP1"/>
-    <mergeCell ref="IQ1:JH1"/>
-    <mergeCell ref="JI1:JZ1"/>
-    <mergeCell ref="KA1:KR1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:P1"/>
-    <mergeCell ref="Q1:AH1"/>
-    <mergeCell ref="AI1:AZ1"/>
-    <mergeCell ref="BA1:BR1"/>
+    <mergeCell ref="GO1:HF1"/>
     <mergeCell ref="FE1:FV1"/>
     <mergeCell ref="FW1:GN1"/>
     <mergeCell ref="BS1:CJ1"/>
@@ -15719,7 +15715,17 @@
     <mergeCell ref="DC1:DT1"/>
     <mergeCell ref="DU1:EL1"/>
     <mergeCell ref="EM1:FD1"/>
-    <mergeCell ref="GO1:HF1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="Q1:AH1"/>
+    <mergeCell ref="AI1:AZ1"/>
+    <mergeCell ref="BA1:BR1"/>
+    <mergeCell ref="KS1:KW1"/>
+    <mergeCell ref="HG1:HX1"/>
+    <mergeCell ref="HY1:IP1"/>
+    <mergeCell ref="IQ1:JH1"/>
+    <mergeCell ref="JI1:JZ1"/>
+    <mergeCell ref="KA1:KR1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15792,353 +15798,353 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:309" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
       <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
       <c r="Q1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="10"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="9"/>
       <c r="BA1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="11"/>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="11"/>
-      <c r="BL1" s="11"/>
-      <c r="BM1" s="11"/>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="11"/>
-      <c r="BP1" s="11"/>
-      <c r="BQ1" s="11"/>
-      <c r="BR1" s="10"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="9"/>
       <c r="BS1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BT1" s="11"/>
-      <c r="BU1" s="11"/>
-      <c r="BV1" s="11"/>
-      <c r="BW1" s="11"/>
-      <c r="BX1" s="11"/>
-      <c r="BY1" s="11"/>
-      <c r="BZ1" s="11"/>
-      <c r="CA1" s="11"/>
-      <c r="CB1" s="11"/>
-      <c r="CC1" s="11"/>
-      <c r="CD1" s="11"/>
-      <c r="CE1" s="11"/>
-      <c r="CF1" s="11"/>
-      <c r="CG1" s="11"/>
-      <c r="CH1" s="11"/>
-      <c r="CI1" s="11"/>
-      <c r="CJ1" s="10"/>
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="9"/>
       <c r="CK1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="CL1" s="11"/>
-      <c r="CM1" s="11"/>
-      <c r="CN1" s="11"/>
-      <c r="CO1" s="11"/>
-      <c r="CP1" s="11"/>
-      <c r="CQ1" s="11"/>
-      <c r="CR1" s="11"/>
-      <c r="CS1" s="11"/>
-      <c r="CT1" s="11"/>
-      <c r="CU1" s="11"/>
-      <c r="CV1" s="11"/>
-      <c r="CW1" s="11"/>
-      <c r="CX1" s="11"/>
-      <c r="CY1" s="11"/>
-      <c r="CZ1" s="11"/>
-      <c r="DA1" s="11"/>
-      <c r="DB1" s="10"/>
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="9"/>
       <c r="DC1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="DD1" s="11"/>
-      <c r="DE1" s="11"/>
-      <c r="DF1" s="11"/>
-      <c r="DG1" s="11"/>
-      <c r="DH1" s="11"/>
-      <c r="DI1" s="11"/>
-      <c r="DJ1" s="11"/>
-      <c r="DK1" s="11"/>
-      <c r="DL1" s="11"/>
-      <c r="DM1" s="11"/>
-      <c r="DN1" s="11"/>
-      <c r="DO1" s="11"/>
-      <c r="DP1" s="11"/>
-      <c r="DQ1" s="11"/>
-      <c r="DR1" s="11"/>
-      <c r="DS1" s="11"/>
-      <c r="DT1" s="10"/>
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="9"/>
       <c r="DU1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="DV1" s="11"/>
-      <c r="DW1" s="11"/>
-      <c r="DX1" s="11"/>
-      <c r="DY1" s="11"/>
-      <c r="DZ1" s="11"/>
-      <c r="EA1" s="11"/>
-      <c r="EB1" s="11"/>
-      <c r="EC1" s="11"/>
-      <c r="ED1" s="11"/>
-      <c r="EE1" s="11"/>
-      <c r="EF1" s="11"/>
-      <c r="EG1" s="11"/>
-      <c r="EH1" s="11"/>
-      <c r="EI1" s="11"/>
-      <c r="EJ1" s="11"/>
-      <c r="EK1" s="11"/>
-      <c r="EL1" s="10"/>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="9"/>
       <c r="EM1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="EN1" s="11"/>
-      <c r="EO1" s="11"/>
-      <c r="EP1" s="11"/>
-      <c r="EQ1" s="11"/>
-      <c r="ER1" s="11"/>
-      <c r="ES1" s="11"/>
-      <c r="ET1" s="11"/>
-      <c r="EU1" s="11"/>
-      <c r="EV1" s="11"/>
-      <c r="EW1" s="11"/>
-      <c r="EX1" s="11"/>
-      <c r="EY1" s="11"/>
-      <c r="EZ1" s="11"/>
-      <c r="FA1" s="11"/>
-      <c r="FB1" s="11"/>
-      <c r="FC1" s="11"/>
-      <c r="FD1" s="10"/>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="9"/>
       <c r="FE1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="FF1" s="11"/>
-      <c r="FG1" s="11"/>
-      <c r="FH1" s="11"/>
-      <c r="FI1" s="11"/>
-      <c r="FJ1" s="11"/>
-      <c r="FK1" s="11"/>
-      <c r="FL1" s="11"/>
-      <c r="FM1" s="11"/>
-      <c r="FN1" s="11"/>
-      <c r="FO1" s="11"/>
-      <c r="FP1" s="11"/>
-      <c r="FQ1" s="11"/>
-      <c r="FR1" s="11"/>
-      <c r="FS1" s="11"/>
-      <c r="FT1" s="11"/>
-      <c r="FU1" s="11"/>
-      <c r="FV1" s="10"/>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="9"/>
       <c r="FW1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="FX1" s="11"/>
-      <c r="FY1" s="11"/>
-      <c r="FZ1" s="11"/>
-      <c r="GA1" s="11"/>
-      <c r="GB1" s="11"/>
-      <c r="GC1" s="11"/>
-      <c r="GD1" s="11"/>
-      <c r="GE1" s="11"/>
-      <c r="GF1" s="11"/>
-      <c r="GG1" s="11"/>
-      <c r="GH1" s="11"/>
-      <c r="GI1" s="11"/>
-      <c r="GJ1" s="11"/>
-      <c r="GK1" s="11"/>
-      <c r="GL1" s="11"/>
-      <c r="GM1" s="11"/>
-      <c r="GN1" s="10"/>
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="9"/>
       <c r="GO1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="GP1" s="11"/>
-      <c r="GQ1" s="11"/>
-      <c r="GR1" s="11"/>
-      <c r="GS1" s="11"/>
-      <c r="GT1" s="11"/>
-      <c r="GU1" s="11"/>
-      <c r="GV1" s="11"/>
-      <c r="GW1" s="11"/>
-      <c r="GX1" s="11"/>
-      <c r="GY1" s="11"/>
-      <c r="GZ1" s="11"/>
-      <c r="HA1" s="11"/>
-      <c r="HB1" s="11"/>
-      <c r="HC1" s="11"/>
-      <c r="HD1" s="11"/>
-      <c r="HE1" s="11"/>
-      <c r="HF1" s="10"/>
+      <c r="GP1" s="8"/>
+      <c r="GQ1" s="8"/>
+      <c r="GR1" s="8"/>
+      <c r="GS1" s="8"/>
+      <c r="GT1" s="8"/>
+      <c r="GU1" s="8"/>
+      <c r="GV1" s="8"/>
+      <c r="GW1" s="8"/>
+      <c r="GX1" s="8"/>
+      <c r="GY1" s="8"/>
+      <c r="GZ1" s="8"/>
+      <c r="HA1" s="8"/>
+      <c r="HB1" s="8"/>
+      <c r="HC1" s="8"/>
+      <c r="HD1" s="8"/>
+      <c r="HE1" s="8"/>
+      <c r="HF1" s="9"/>
       <c r="HG1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="HH1" s="11"/>
-      <c r="HI1" s="11"/>
-      <c r="HJ1" s="11"/>
-      <c r="HK1" s="11"/>
-      <c r="HL1" s="11"/>
-      <c r="HM1" s="11"/>
-      <c r="HN1" s="11"/>
-      <c r="HO1" s="11"/>
-      <c r="HP1" s="11"/>
-      <c r="HQ1" s="11"/>
-      <c r="HR1" s="11"/>
-      <c r="HS1" s="11"/>
-      <c r="HT1" s="11"/>
-      <c r="HU1" s="11"/>
-      <c r="HV1" s="11"/>
-      <c r="HW1" s="11"/>
-      <c r="HX1" s="10"/>
+      <c r="HH1" s="8"/>
+      <c r="HI1" s="8"/>
+      <c r="HJ1" s="8"/>
+      <c r="HK1" s="8"/>
+      <c r="HL1" s="8"/>
+      <c r="HM1" s="8"/>
+      <c r="HN1" s="8"/>
+      <c r="HO1" s="8"/>
+      <c r="HP1" s="8"/>
+      <c r="HQ1" s="8"/>
+      <c r="HR1" s="8"/>
+      <c r="HS1" s="8"/>
+      <c r="HT1" s="8"/>
+      <c r="HU1" s="8"/>
+      <c r="HV1" s="8"/>
+      <c r="HW1" s="8"/>
+      <c r="HX1" s="9"/>
       <c r="HY1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="HZ1" s="11"/>
-      <c r="IA1" s="11"/>
-      <c r="IB1" s="11"/>
-      <c r="IC1" s="11"/>
-      <c r="ID1" s="11"/>
-      <c r="IE1" s="11"/>
-      <c r="IF1" s="11"/>
-      <c r="IG1" s="11"/>
-      <c r="IH1" s="11"/>
-      <c r="II1" s="11"/>
-      <c r="IJ1" s="11"/>
-      <c r="IK1" s="11"/>
-      <c r="IL1" s="11"/>
-      <c r="IM1" s="11"/>
-      <c r="IN1" s="11"/>
-      <c r="IO1" s="11"/>
-      <c r="IP1" s="10"/>
+      <c r="HZ1" s="8"/>
+      <c r="IA1" s="8"/>
+      <c r="IB1" s="8"/>
+      <c r="IC1" s="8"/>
+      <c r="ID1" s="8"/>
+      <c r="IE1" s="8"/>
+      <c r="IF1" s="8"/>
+      <c r="IG1" s="8"/>
+      <c r="IH1" s="8"/>
+      <c r="II1" s="8"/>
+      <c r="IJ1" s="8"/>
+      <c r="IK1" s="8"/>
+      <c r="IL1" s="8"/>
+      <c r="IM1" s="8"/>
+      <c r="IN1" s="8"/>
+      <c r="IO1" s="8"/>
+      <c r="IP1" s="9"/>
       <c r="IQ1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="IR1" s="11"/>
-      <c r="IS1" s="11"/>
-      <c r="IT1" s="11"/>
-      <c r="IU1" s="11"/>
-      <c r="IV1" s="11"/>
-      <c r="IW1" s="11"/>
-      <c r="IX1" s="11"/>
-      <c r="IY1" s="11"/>
-      <c r="IZ1" s="11"/>
-      <c r="JA1" s="11"/>
-      <c r="JB1" s="11"/>
-      <c r="JC1" s="11"/>
-      <c r="JD1" s="11"/>
-      <c r="JE1" s="11"/>
-      <c r="JF1" s="11"/>
-      <c r="JG1" s="11"/>
-      <c r="JH1" s="10"/>
+      <c r="IR1" s="8"/>
+      <c r="IS1" s="8"/>
+      <c r="IT1" s="8"/>
+      <c r="IU1" s="8"/>
+      <c r="IV1" s="8"/>
+      <c r="IW1" s="8"/>
+      <c r="IX1" s="8"/>
+      <c r="IY1" s="8"/>
+      <c r="IZ1" s="8"/>
+      <c r="JA1" s="8"/>
+      <c r="JB1" s="8"/>
+      <c r="JC1" s="8"/>
+      <c r="JD1" s="8"/>
+      <c r="JE1" s="8"/>
+      <c r="JF1" s="8"/>
+      <c r="JG1" s="8"/>
+      <c r="JH1" s="9"/>
       <c r="JI1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="JJ1" s="11"/>
-      <c r="JK1" s="11"/>
-      <c r="JL1" s="11"/>
-      <c r="JM1" s="11"/>
-      <c r="JN1" s="11"/>
-      <c r="JO1" s="11"/>
-      <c r="JP1" s="11"/>
-      <c r="JQ1" s="11"/>
-      <c r="JR1" s="11"/>
-      <c r="JS1" s="11"/>
-      <c r="JT1" s="11"/>
-      <c r="JU1" s="11"/>
-      <c r="JV1" s="11"/>
-      <c r="JW1" s="11"/>
-      <c r="JX1" s="11"/>
-      <c r="JY1" s="11"/>
-      <c r="JZ1" s="10"/>
+      <c r="JJ1" s="8"/>
+      <c r="JK1" s="8"/>
+      <c r="JL1" s="8"/>
+      <c r="JM1" s="8"/>
+      <c r="JN1" s="8"/>
+      <c r="JO1" s="8"/>
+      <c r="JP1" s="8"/>
+      <c r="JQ1" s="8"/>
+      <c r="JR1" s="8"/>
+      <c r="JS1" s="8"/>
+      <c r="JT1" s="8"/>
+      <c r="JU1" s="8"/>
+      <c r="JV1" s="8"/>
+      <c r="JW1" s="8"/>
+      <c r="JX1" s="8"/>
+      <c r="JY1" s="8"/>
+      <c r="JZ1" s="9"/>
       <c r="KA1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="KB1" s="11"/>
-      <c r="KC1" s="11"/>
-      <c r="KD1" s="11"/>
-      <c r="KE1" s="11"/>
-      <c r="KF1" s="11"/>
-      <c r="KG1" s="11"/>
-      <c r="KH1" s="11"/>
-      <c r="KI1" s="11"/>
-      <c r="KJ1" s="11"/>
-      <c r="KK1" s="11"/>
-      <c r="KL1" s="11"/>
-      <c r="KM1" s="11"/>
-      <c r="KN1" s="11"/>
-      <c r="KO1" s="11"/>
-      <c r="KP1" s="11"/>
-      <c r="KQ1" s="11"/>
-      <c r="KR1" s="10"/>
+      <c r="KB1" s="8"/>
+      <c r="KC1" s="8"/>
+      <c r="KD1" s="8"/>
+      <c r="KE1" s="8"/>
+      <c r="KF1" s="8"/>
+      <c r="KG1" s="8"/>
+      <c r="KH1" s="8"/>
+      <c r="KI1" s="8"/>
+      <c r="KJ1" s="8"/>
+      <c r="KK1" s="8"/>
+      <c r="KL1" s="8"/>
+      <c r="KM1" s="8"/>
+      <c r="KN1" s="8"/>
+      <c r="KO1" s="8"/>
+      <c r="KP1" s="8"/>
+      <c r="KQ1" s="8"/>
+      <c r="KR1" s="9"/>
       <c r="KS1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="KT1" s="8"/>
-      <c r="KU1" s="8"/>
-      <c r="KV1" s="8"/>
-      <c r="KW1" s="8"/>
+      <c r="KT1" s="10"/>
+      <c r="KU1" s="10"/>
+      <c r="KV1" s="10"/>
+      <c r="KW1" s="10"/>
     </row>
     <row r="2" spans="1:309" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -17071,17 +17077,7 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="KS1:KW1"/>
-    <mergeCell ref="HG1:HX1"/>
-    <mergeCell ref="HY1:IP1"/>
-    <mergeCell ref="IQ1:JH1"/>
-    <mergeCell ref="JI1:JZ1"/>
-    <mergeCell ref="KA1:KR1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:P1"/>
-    <mergeCell ref="Q1:AH1"/>
-    <mergeCell ref="AI1:AZ1"/>
-    <mergeCell ref="BA1:BR1"/>
+    <mergeCell ref="GO1:HF1"/>
     <mergeCell ref="FE1:FV1"/>
     <mergeCell ref="FW1:GN1"/>
     <mergeCell ref="BS1:CJ1"/>
@@ -17089,7 +17085,17 @@
     <mergeCell ref="DC1:DT1"/>
     <mergeCell ref="DU1:EL1"/>
     <mergeCell ref="EM1:FD1"/>
-    <mergeCell ref="GO1:HF1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="Q1:AH1"/>
+    <mergeCell ref="AI1:AZ1"/>
+    <mergeCell ref="BA1:BR1"/>
+    <mergeCell ref="KS1:KW1"/>
+    <mergeCell ref="HG1:HX1"/>
+    <mergeCell ref="HY1:IP1"/>
+    <mergeCell ref="IQ1:JH1"/>
+    <mergeCell ref="JI1:JZ1"/>
+    <mergeCell ref="KA1:KR1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17162,353 +17168,353 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:309" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
       <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
       <c r="Q1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="10"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="9"/>
       <c r="BA1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="11"/>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="11"/>
-      <c r="BL1" s="11"/>
-      <c r="BM1" s="11"/>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="11"/>
-      <c r="BP1" s="11"/>
-      <c r="BQ1" s="11"/>
-      <c r="BR1" s="10"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="9"/>
       <c r="BS1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BT1" s="11"/>
-      <c r="BU1" s="11"/>
-      <c r="BV1" s="11"/>
-      <c r="BW1" s="11"/>
-      <c r="BX1" s="11"/>
-      <c r="BY1" s="11"/>
-      <c r="BZ1" s="11"/>
-      <c r="CA1" s="11"/>
-      <c r="CB1" s="11"/>
-      <c r="CC1" s="11"/>
-      <c r="CD1" s="11"/>
-      <c r="CE1" s="11"/>
-      <c r="CF1" s="11"/>
-      <c r="CG1" s="11"/>
-      <c r="CH1" s="11"/>
-      <c r="CI1" s="11"/>
-      <c r="CJ1" s="10"/>
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="9"/>
       <c r="CK1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="CL1" s="11"/>
-      <c r="CM1" s="11"/>
-      <c r="CN1" s="11"/>
-      <c r="CO1" s="11"/>
-      <c r="CP1" s="11"/>
-      <c r="CQ1" s="11"/>
-      <c r="CR1" s="11"/>
-      <c r="CS1" s="11"/>
-      <c r="CT1" s="11"/>
-      <c r="CU1" s="11"/>
-      <c r="CV1" s="11"/>
-      <c r="CW1" s="11"/>
-      <c r="CX1" s="11"/>
-      <c r="CY1" s="11"/>
-      <c r="CZ1" s="11"/>
-      <c r="DA1" s="11"/>
-      <c r="DB1" s="10"/>
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="9"/>
       <c r="DC1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="DD1" s="11"/>
-      <c r="DE1" s="11"/>
-      <c r="DF1" s="11"/>
-      <c r="DG1" s="11"/>
-      <c r="DH1" s="11"/>
-      <c r="DI1" s="11"/>
-      <c r="DJ1" s="11"/>
-      <c r="DK1" s="11"/>
-      <c r="DL1" s="11"/>
-      <c r="DM1" s="11"/>
-      <c r="DN1" s="11"/>
-      <c r="DO1" s="11"/>
-      <c r="DP1" s="11"/>
-      <c r="DQ1" s="11"/>
-      <c r="DR1" s="11"/>
-      <c r="DS1" s="11"/>
-      <c r="DT1" s="10"/>
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="9"/>
       <c r="DU1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="DV1" s="11"/>
-      <c r="DW1" s="11"/>
-      <c r="DX1" s="11"/>
-      <c r="DY1" s="11"/>
-      <c r="DZ1" s="11"/>
-      <c r="EA1" s="11"/>
-      <c r="EB1" s="11"/>
-      <c r="EC1" s="11"/>
-      <c r="ED1" s="11"/>
-      <c r="EE1" s="11"/>
-      <c r="EF1" s="11"/>
-      <c r="EG1" s="11"/>
-      <c r="EH1" s="11"/>
-      <c r="EI1" s="11"/>
-      <c r="EJ1" s="11"/>
-      <c r="EK1" s="11"/>
-      <c r="EL1" s="10"/>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="9"/>
       <c r="EM1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="EN1" s="11"/>
-      <c r="EO1" s="11"/>
-      <c r="EP1" s="11"/>
-      <c r="EQ1" s="11"/>
-      <c r="ER1" s="11"/>
-      <c r="ES1" s="11"/>
-      <c r="ET1" s="11"/>
-      <c r="EU1" s="11"/>
-      <c r="EV1" s="11"/>
-      <c r="EW1" s="11"/>
-      <c r="EX1" s="11"/>
-      <c r="EY1" s="11"/>
-      <c r="EZ1" s="11"/>
-      <c r="FA1" s="11"/>
-      <c r="FB1" s="11"/>
-      <c r="FC1" s="11"/>
-      <c r="FD1" s="10"/>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="9"/>
       <c r="FE1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="FF1" s="11"/>
-      <c r="FG1" s="11"/>
-      <c r="FH1" s="11"/>
-      <c r="FI1" s="11"/>
-      <c r="FJ1" s="11"/>
-      <c r="FK1" s="11"/>
-      <c r="FL1" s="11"/>
-      <c r="FM1" s="11"/>
-      <c r="FN1" s="11"/>
-      <c r="FO1" s="11"/>
-      <c r="FP1" s="11"/>
-      <c r="FQ1" s="11"/>
-      <c r="FR1" s="11"/>
-      <c r="FS1" s="11"/>
-      <c r="FT1" s="11"/>
-      <c r="FU1" s="11"/>
-      <c r="FV1" s="10"/>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="9"/>
       <c r="FW1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="FX1" s="11"/>
-      <c r="FY1" s="11"/>
-      <c r="FZ1" s="11"/>
-      <c r="GA1" s="11"/>
-      <c r="GB1" s="11"/>
-      <c r="GC1" s="11"/>
-      <c r="GD1" s="11"/>
-      <c r="GE1" s="11"/>
-      <c r="GF1" s="11"/>
-      <c r="GG1" s="11"/>
-      <c r="GH1" s="11"/>
-      <c r="GI1" s="11"/>
-      <c r="GJ1" s="11"/>
-      <c r="GK1" s="11"/>
-      <c r="GL1" s="11"/>
-      <c r="GM1" s="11"/>
-      <c r="GN1" s="10"/>
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="9"/>
       <c r="GO1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="GP1" s="11"/>
-      <c r="GQ1" s="11"/>
-      <c r="GR1" s="11"/>
-      <c r="GS1" s="11"/>
-      <c r="GT1" s="11"/>
-      <c r="GU1" s="11"/>
-      <c r="GV1" s="11"/>
-      <c r="GW1" s="11"/>
-      <c r="GX1" s="11"/>
-      <c r="GY1" s="11"/>
-      <c r="GZ1" s="11"/>
-      <c r="HA1" s="11"/>
-      <c r="HB1" s="11"/>
-      <c r="HC1" s="11"/>
-      <c r="HD1" s="11"/>
-      <c r="HE1" s="11"/>
-      <c r="HF1" s="10"/>
+      <c r="GP1" s="8"/>
+      <c r="GQ1" s="8"/>
+      <c r="GR1" s="8"/>
+      <c r="GS1" s="8"/>
+      <c r="GT1" s="8"/>
+      <c r="GU1" s="8"/>
+      <c r="GV1" s="8"/>
+      <c r="GW1" s="8"/>
+      <c r="GX1" s="8"/>
+      <c r="GY1" s="8"/>
+      <c r="GZ1" s="8"/>
+      <c r="HA1" s="8"/>
+      <c r="HB1" s="8"/>
+      <c r="HC1" s="8"/>
+      <c r="HD1" s="8"/>
+      <c r="HE1" s="8"/>
+      <c r="HF1" s="9"/>
       <c r="HG1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="HH1" s="11"/>
-      <c r="HI1" s="11"/>
-      <c r="HJ1" s="11"/>
-      <c r="HK1" s="11"/>
-      <c r="HL1" s="11"/>
-      <c r="HM1" s="11"/>
-      <c r="HN1" s="11"/>
-      <c r="HO1" s="11"/>
-      <c r="HP1" s="11"/>
-      <c r="HQ1" s="11"/>
-      <c r="HR1" s="11"/>
-      <c r="HS1" s="11"/>
-      <c r="HT1" s="11"/>
-      <c r="HU1" s="11"/>
-      <c r="HV1" s="11"/>
-      <c r="HW1" s="11"/>
-      <c r="HX1" s="10"/>
+      <c r="HH1" s="8"/>
+      <c r="HI1" s="8"/>
+      <c r="HJ1" s="8"/>
+      <c r="HK1" s="8"/>
+      <c r="HL1" s="8"/>
+      <c r="HM1" s="8"/>
+      <c r="HN1" s="8"/>
+      <c r="HO1" s="8"/>
+      <c r="HP1" s="8"/>
+      <c r="HQ1" s="8"/>
+      <c r="HR1" s="8"/>
+      <c r="HS1" s="8"/>
+      <c r="HT1" s="8"/>
+      <c r="HU1" s="8"/>
+      <c r="HV1" s="8"/>
+      <c r="HW1" s="8"/>
+      <c r="HX1" s="9"/>
       <c r="HY1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="HZ1" s="11"/>
-      <c r="IA1" s="11"/>
-      <c r="IB1" s="11"/>
-      <c r="IC1" s="11"/>
-      <c r="ID1" s="11"/>
-      <c r="IE1" s="11"/>
-      <c r="IF1" s="11"/>
-      <c r="IG1" s="11"/>
-      <c r="IH1" s="11"/>
-      <c r="II1" s="11"/>
-      <c r="IJ1" s="11"/>
-      <c r="IK1" s="11"/>
-      <c r="IL1" s="11"/>
-      <c r="IM1" s="11"/>
-      <c r="IN1" s="11"/>
-      <c r="IO1" s="11"/>
-      <c r="IP1" s="10"/>
+      <c r="HZ1" s="8"/>
+      <c r="IA1" s="8"/>
+      <c r="IB1" s="8"/>
+      <c r="IC1" s="8"/>
+      <c r="ID1" s="8"/>
+      <c r="IE1" s="8"/>
+      <c r="IF1" s="8"/>
+      <c r="IG1" s="8"/>
+      <c r="IH1" s="8"/>
+      <c r="II1" s="8"/>
+      <c r="IJ1" s="8"/>
+      <c r="IK1" s="8"/>
+      <c r="IL1" s="8"/>
+      <c r="IM1" s="8"/>
+      <c r="IN1" s="8"/>
+      <c r="IO1" s="8"/>
+      <c r="IP1" s="9"/>
       <c r="IQ1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="IR1" s="11"/>
-      <c r="IS1" s="11"/>
-      <c r="IT1" s="11"/>
-      <c r="IU1" s="11"/>
-      <c r="IV1" s="11"/>
-      <c r="IW1" s="11"/>
-      <c r="IX1" s="11"/>
-      <c r="IY1" s="11"/>
-      <c r="IZ1" s="11"/>
-      <c r="JA1" s="11"/>
-      <c r="JB1" s="11"/>
-      <c r="JC1" s="11"/>
-      <c r="JD1" s="11"/>
-      <c r="JE1" s="11"/>
-      <c r="JF1" s="11"/>
-      <c r="JG1" s="11"/>
-      <c r="JH1" s="10"/>
+      <c r="IR1" s="8"/>
+      <c r="IS1" s="8"/>
+      <c r="IT1" s="8"/>
+      <c r="IU1" s="8"/>
+      <c r="IV1" s="8"/>
+      <c r="IW1" s="8"/>
+      <c r="IX1" s="8"/>
+      <c r="IY1" s="8"/>
+      <c r="IZ1" s="8"/>
+      <c r="JA1" s="8"/>
+      <c r="JB1" s="8"/>
+      <c r="JC1" s="8"/>
+      <c r="JD1" s="8"/>
+      <c r="JE1" s="8"/>
+      <c r="JF1" s="8"/>
+      <c r="JG1" s="8"/>
+      <c r="JH1" s="9"/>
       <c r="JI1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="JJ1" s="11"/>
-      <c r="JK1" s="11"/>
-      <c r="JL1" s="11"/>
-      <c r="JM1" s="11"/>
-      <c r="JN1" s="11"/>
-      <c r="JO1" s="11"/>
-      <c r="JP1" s="11"/>
-      <c r="JQ1" s="11"/>
-      <c r="JR1" s="11"/>
-      <c r="JS1" s="11"/>
-      <c r="JT1" s="11"/>
-      <c r="JU1" s="11"/>
-      <c r="JV1" s="11"/>
-      <c r="JW1" s="11"/>
-      <c r="JX1" s="11"/>
-      <c r="JY1" s="11"/>
-      <c r="JZ1" s="10"/>
+      <c r="JJ1" s="8"/>
+      <c r="JK1" s="8"/>
+      <c r="JL1" s="8"/>
+      <c r="JM1" s="8"/>
+      <c r="JN1" s="8"/>
+      <c r="JO1" s="8"/>
+      <c r="JP1" s="8"/>
+      <c r="JQ1" s="8"/>
+      <c r="JR1" s="8"/>
+      <c r="JS1" s="8"/>
+      <c r="JT1" s="8"/>
+      <c r="JU1" s="8"/>
+      <c r="JV1" s="8"/>
+      <c r="JW1" s="8"/>
+      <c r="JX1" s="8"/>
+      <c r="JY1" s="8"/>
+      <c r="JZ1" s="9"/>
       <c r="KA1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="KB1" s="11"/>
-      <c r="KC1" s="11"/>
-      <c r="KD1" s="11"/>
-      <c r="KE1" s="11"/>
-      <c r="KF1" s="11"/>
-      <c r="KG1" s="11"/>
-      <c r="KH1" s="11"/>
-      <c r="KI1" s="11"/>
-      <c r="KJ1" s="11"/>
-      <c r="KK1" s="11"/>
-      <c r="KL1" s="11"/>
-      <c r="KM1" s="11"/>
-      <c r="KN1" s="11"/>
-      <c r="KO1" s="11"/>
-      <c r="KP1" s="11"/>
-      <c r="KQ1" s="11"/>
-      <c r="KR1" s="10"/>
+      <c r="KB1" s="8"/>
+      <c r="KC1" s="8"/>
+      <c r="KD1" s="8"/>
+      <c r="KE1" s="8"/>
+      <c r="KF1" s="8"/>
+      <c r="KG1" s="8"/>
+      <c r="KH1" s="8"/>
+      <c r="KI1" s="8"/>
+      <c r="KJ1" s="8"/>
+      <c r="KK1" s="8"/>
+      <c r="KL1" s="8"/>
+      <c r="KM1" s="8"/>
+      <c r="KN1" s="8"/>
+      <c r="KO1" s="8"/>
+      <c r="KP1" s="8"/>
+      <c r="KQ1" s="8"/>
+      <c r="KR1" s="9"/>
       <c r="KS1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="KT1" s="8"/>
-      <c r="KU1" s="8"/>
-      <c r="KV1" s="8"/>
-      <c r="KW1" s="8"/>
+      <c r="KT1" s="10"/>
+      <c r="KU1" s="10"/>
+      <c r="KV1" s="10"/>
+      <c r="KW1" s="10"/>
     </row>
     <row r="2" spans="1:309" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -18441,17 +18447,7 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="KS1:KW1"/>
-    <mergeCell ref="HG1:HX1"/>
-    <mergeCell ref="HY1:IP1"/>
-    <mergeCell ref="IQ1:JH1"/>
-    <mergeCell ref="JI1:JZ1"/>
-    <mergeCell ref="KA1:KR1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:P1"/>
-    <mergeCell ref="Q1:AH1"/>
-    <mergeCell ref="AI1:AZ1"/>
-    <mergeCell ref="BA1:BR1"/>
+    <mergeCell ref="GO1:HF1"/>
     <mergeCell ref="FE1:FV1"/>
     <mergeCell ref="FW1:GN1"/>
     <mergeCell ref="BS1:CJ1"/>
@@ -18459,7 +18455,17 @@
     <mergeCell ref="DC1:DT1"/>
     <mergeCell ref="DU1:EL1"/>
     <mergeCell ref="EM1:FD1"/>
-    <mergeCell ref="GO1:HF1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="Q1:AH1"/>
+    <mergeCell ref="AI1:AZ1"/>
+    <mergeCell ref="BA1:BR1"/>
+    <mergeCell ref="KS1:KW1"/>
+    <mergeCell ref="HG1:HX1"/>
+    <mergeCell ref="HY1:IP1"/>
+    <mergeCell ref="IQ1:JH1"/>
+    <mergeCell ref="JI1:JZ1"/>
+    <mergeCell ref="KA1:KR1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
